--- a/6845_crtc_timing.xlsx
+++ b/6845_crtc_timing.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\iCloudDrive\Documents\Developer\BBC_Micro\Programs\Game_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\iCloudDrive\Documents\Developer\BBC_Micro\Programs\Game_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51E7146C-ECDE-4542-A125-94ADB4E636C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32CA53C-3B7F-4E83-997E-BDA8B2502165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E881977C-AD55-4380-9786-6EB6D25147A4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{E881977C-AD55-4380-9786-6EB6D25147A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="73">
   <si>
     <t>6845 CRTC Vertical Rupture Worksheet</t>
   </si>
@@ -252,6 +253,9 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>Screen Layout</t>
   </si>
 </sst>
 </file>
@@ -293,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,8 +358,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -378,11 +406,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -396,9 +578,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -449,6 +628,87 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,35 +1045,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B9302E-5AFF-4C7C-BE6D-5E778B0F08E7}">
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="6.77734375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" customWidth="1"/>
-    <col min="11" max="13" width="6.77734375" style="7" customWidth="1"/>
-    <col min="14" max="15" width="6.77734375" customWidth="1"/>
-    <col min="16" max="16" width="6.77734375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.77734375" style="7" customWidth="1"/>
-    <col min="19" max="19" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="7.77734375" customWidth="1"/>
-    <col min="24" max="26" width="6.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="4"/>
+    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="6.81640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6.81640625" customWidth="1"/>
+    <col min="11" max="13" width="6.81640625" style="4" customWidth="1"/>
+    <col min="14" max="15" width="6.81640625" customWidth="1"/>
+    <col min="16" max="16" width="6.81640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.81640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="7.81640625" customWidth="1"/>
+    <col min="24" max="26" width="6.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="E1" s="11"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -824,16 +1084,16 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="13"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S1" s="12"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="I2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="3" t="s">
@@ -845,33 +1105,33 @@
       <c r="R2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="12" t="s">
         <v>59</v>
       </c>
       <c r="T2" s="2"/>
-      <c r="U2" s="11"/>
+      <c r="U2" s="10"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="9">
+      <c r="K3" s="13"/>
+      <c r="L3" s="8">
         <v>0</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9">
+      <c r="M3" s="8"/>
+      <c r="N3" s="8">
         <v>63</v>
       </c>
-      <c r="S3" s="13"/>
+      <c r="S3" s="12"/>
       <c r="T3" s="3">
         <v>0</v>
       </c>
@@ -885,70 +1145,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <f>1000000/(F5*F4)</f>
         <v>50</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f>1000000/(G5*G4)</f>
         <v>50.080128205128204</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <f>(C10+1)/C5</f>
         <v>64</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <f>(D10+1)/D5</f>
         <v>64</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>0</v>
       </c>
-      <c r="L4" s="7" t="str">
+      <c r="L4" s="4" t="str">
         <f>DEC2HEX($D$7+$K4*8*$D$11+L$3*8)</f>
         <v>5000</v>
       </c>
-      <c r="N4" s="7" t="str">
+      <c r="N4" s="4" t="str">
         <f>DEC2HEX($D$7+$K4*8*$D$11+N$3*8)</f>
         <v>51F8</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4">
         <v>0</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
@@ -961,46 +1221,46 @@
       <c r="E5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <f>(C15+1)*(C22+1)+C16+0.5*C$19</f>
         <v>312.5</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <f>(D15+1)*(D22+1)+D16+0.5*D$19</f>
         <v>312</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="P5" s="7">
+      <c r="K5" s="8"/>
+      <c r="P5" s="4">
         <f>P4+1</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="V5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="W5" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="7" t="str">
+      <c r="C6" s="4" t="str">
         <f>DEC2HEX(C7)</f>
         <v>3000</v>
       </c>
@@ -1008,110 +1268,110 @@
         <f>DEC2HEX(D7)</f>
         <v>5000</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="P6" s="7">
+      <c r="K6" s="8"/>
+      <c r="P6" s="4">
         <f t="shared" ref="P6:P28" si="0">P5+1</f>
         <v>2</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <f>1024*12</f>
         <v>12288</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <f>1024*20</f>
         <v>20480</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="P7" s="7">
+      <c r="K7" s="8"/>
+      <c r="P7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="I8" s="23" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="I8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>4</v>
       </c>
-      <c r="L8" s="7" t="str">
+      <c r="L8" s="4" t="str">
         <f>DEC2HEX($D$7+$K8*8*$D$11+L$3*8)</f>
         <v>5800</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="23" t="s">
+      <c r="R8" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="U8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="V8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="W8" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1124,34 +1384,34 @@
       <c r="D9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="P9" s="7">
+      <c r="K9" s="8"/>
+      <c r="P9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="T9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="U9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="V9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="W9" s="7" t="s">
+      <c r="W9" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>0</v>
       </c>
@@ -1161,46 +1421,46 @@
       <c r="C10" s="4">
         <v>127</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>127</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>6</v>
       </c>
-      <c r="L10" s="7" t="str">
+      <c r="L10" s="4" t="str">
         <f>DEC2HEX($D$7+$K10*8*$D$11+L$3*8)</f>
         <v>5C00</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="W10" s="7" t="s">
+      <c r="W10" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1210,37 +1470,37 @@
       <c r="C11" s="4">
         <v>80</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>64</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="P11" s="7">
+      <c r="K11" s="8"/>
+      <c r="P11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="S11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="T11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="U11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="W11" s="7" t="s">
+      <c r="W11" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -1250,46 +1510,46 @@
       <c r="C12" s="4">
         <v>98</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>90</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>8</v>
       </c>
-      <c r="L12" s="7" t="str">
+      <c r="L12" s="4" t="str">
         <f>DEC2HEX($D$7+$K12*8*$D$11+L$3*8)</f>
         <v>6000</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="23" t="s">
+      <c r="R12" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="S12" s="10" t="s">
+      <c r="S12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="T12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U12" s="7" t="s">
+      <c r="U12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V12" s="7" t="s">
+      <c r="V12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="W12" s="7" t="s">
+      <c r="W12" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>3</v>
       </c>
@@ -1299,83 +1559,83 @@
       <c r="C13" s="4">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>8</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="P13" s="7">
+      <c r="K13" s="8"/>
+      <c r="P13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="S13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="T13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U13" s="7" t="s">
+      <c r="U13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V13" s="7" t="s">
+      <c r="V13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="W13" s="7" t="s">
+      <c r="W13" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>10</v>
       </c>
-      <c r="L14" s="7" t="str">
+      <c r="L14" s="4" t="str">
         <f>DEC2HEX($D$7+$K14*8*$D$11+L$3*8)</f>
         <v>6400</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="R14" s="23" t="s">
+      <c r="R14" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="S14" s="10" t="s">
+      <c r="S14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U14" s="7" t="s">
+      <c r="U14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V14" s="7" t="s">
+      <c r="V14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="W14" s="7" t="s">
+      <c r="W14" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -1385,37 +1645,37 @@
       <c r="C15" s="4">
         <v>38</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>38</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="P15" s="7">
+      <c r="K15" s="8"/>
+      <c r="P15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="S15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T15" s="16" t="s">
+      <c r="T15" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="U15" s="7" t="s">
+      <c r="U15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V15" s="18" t="s">
+      <c r="V15" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="W15" s="20" t="s">
+      <c r="W15" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -1425,46 +1685,46 @@
       <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <v>12</v>
       </c>
-      <c r="L16" s="7" t="str">
+      <c r="L16" s="4" t="str">
         <f>DEC2HEX($D$7+$K16*8*$D$11+L$3*8)</f>
         <v>6800</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R16" s="23" t="s">
+      <c r="R16" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="22" t="s">
+      <c r="S16" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="T16" s="15" t="s">
+      <c r="T16" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="U16" s="7" t="s">
+      <c r="U16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V16" s="19" t="s">
+      <c r="V16" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="W16" s="21" t="s">
+      <c r="W16" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -1474,37 +1734,37 @@
       <c r="C17" s="4">
         <v>32</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>24</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="P17" s="7">
+      <c r="K17" s="8"/>
+      <c r="P17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="Q17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="S17" s="10" t="s">
+      <c r="S17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U17" s="7" t="s">
+      <c r="U17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V17" s="19" t="s">
+      <c r="V17" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="W17" s="21" t="s">
+      <c r="W17" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>7</v>
       </c>
@@ -1514,46 +1774,46 @@
       <c r="C18" s="4">
         <v>34</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="4">
         <v>31</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>14</v>
       </c>
-      <c r="L18" s="7" t="str">
+      <c r="L18" s="4" t="str">
         <f>DEC2HEX($D$7+$K18*8*$D$11+L$3*8)</f>
         <v>6C00</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R18" s="23" t="s">
+      <c r="R18" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="S18" s="22" t="s">
+      <c r="S18" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="T18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U18" s="7" t="s">
+      <c r="U18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V18" s="18" t="s">
+      <c r="V18" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="W18" s="20" t="s">
+      <c r="W18" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>8</v>
       </c>
@@ -1563,120 +1823,120 @@
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="P19" s="7">
+      <c r="K19" s="8"/>
+      <c r="P19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Q19" s="7" t="s">
+      <c r="Q19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="S19" s="10" t="s">
+      <c r="S19" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="T19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U19" s="7" t="s">
+      <c r="U19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V19" s="7" t="s">
+      <c r="V19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="W19" s="7" t="s">
+      <c r="W19" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>16</v>
       </c>
-      <c r="L20" s="7" t="str">
+      <c r="L20" s="4" t="str">
         <f>DEC2HEX($D$7+$K20*8*$D$11+L$3*8)</f>
         <v>7000</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R20" s="23" t="s">
+      <c r="R20" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="10" t="s">
+      <c r="S20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U20" s="7" t="s">
+      <c r="U20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="V20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="W20" s="7" t="s">
+      <c r="W20" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="P21" s="7">
+      <c r="K21" s="8"/>
+      <c r="P21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R21" s="7" t="s">
+      <c r="R21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="S21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="7" t="s">
+      <c r="T21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U21" s="7" t="s">
+      <c r="U21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V21" s="18" t="s">
+      <c r="V21" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="W21" s="20" t="s">
+      <c r="W21" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>9</v>
       </c>
@@ -1686,46 +1946,46 @@
       <c r="C22" s="4">
         <v>7</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="4">
         <v>7</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <v>18</v>
       </c>
-      <c r="L22" s="7" t="str">
+      <c r="L22" s="4" t="str">
         <f>DEC2HEX($D$7+$K22*8*$D$11+L$3*8)</f>
         <v>7400</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R22" s="23" t="s">
+      <c r="R22" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="S22" s="22" t="s">
+      <c r="S22" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="T22" s="7" t="s">
+      <c r="T22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U22" s="7" t="s">
+      <c r="U22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V22" s="19" t="s">
+      <c r="V22" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="W22" s="21" t="s">
+      <c r="W22" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>10</v>
       </c>
@@ -1735,120 +1995,120 @@
       <c r="C23" s="4">
         <v>7</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="4">
         <v>7</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="P23" s="7">
+      <c r="K23" s="8"/>
+      <c r="P23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="S23" s="10" t="s">
+      <c r="S23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T23" s="7" t="s">
+      <c r="T23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U23" s="7" t="s">
+      <c r="U23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V23" s="7" t="s">
+      <c r="V23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W23" s="21" t="s">
+      <c r="W23" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <v>20</v>
       </c>
-      <c r="L24" s="7" t="str">
+      <c r="L24" s="4" t="str">
         <f>DEC2HEX($D$7+$K24*8*$D$11+L$3*8)</f>
         <v>7800</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Q24" s="7" t="s">
+      <c r="Q24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="R24" s="23" t="s">
+      <c r="R24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="S24" s="22" t="s">
+      <c r="S24" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="T24" s="7" t="s">
+      <c r="T24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U24" s="7" t="s">
+      <c r="U24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V24" s="7" t="s">
+      <c r="V24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="W24" s="20" t="s">
+      <c r="W24" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="P25" s="7">
+      <c r="K25" s="8"/>
+      <c r="P25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Q25" s="7" t="s">
+      <c r="Q25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R25" s="7" t="s">
+      <c r="R25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="S25" s="10" t="s">
+      <c r="S25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T25" s="7" t="s">
+      <c r="T25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U25" s="7" t="s">
+      <c r="U25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V25" s="18" t="s">
+      <c r="V25" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="W25" s="7" t="s">
+      <c r="W25" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>11</v>
       </c>
@@ -1858,142 +2118,3567 @@
       <c r="C26" s="4">
         <v>8</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="4">
         <v>8</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="8">
         <v>22</v>
       </c>
-      <c r="L26" s="7" t="str">
+      <c r="L26" s="4" t="str">
         <f>DEC2HEX($D$7+$K26*8*$D$11+L$3*8)</f>
         <v>7C00</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Q26" s="7" t="s">
+      <c r="Q26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="R26" s="23" t="s">
+      <c r="R26" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="S26" s="22" t="s">
+      <c r="S26" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="T26" s="7" t="s">
+      <c r="T26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U26" s="7" t="s">
+      <c r="U26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V26" s="17" t="s">
+      <c r="V26" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="W26" s="7" t="s">
+      <c r="W26" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="7" t="str">
+      <c r="C27" s="4" t="str">
         <f>DEC2HEX(C7/(8*256))</f>
         <v>6</v>
       </c>
-      <c r="D27" s="7" t="str">
+      <c r="D27" s="4" t="str">
         <f>DEC2HEX(D7/(8*256))</f>
         <v>A</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="8">
         <f>D17-1</f>
         <v>23</v>
       </c>
-      <c r="L27" s="7" t="str">
+      <c r="L27" s="4" t="str">
         <f>DEC2HEX($D$7+$K27*8*$D$11+L$3*8)</f>
         <v>7E00</v>
       </c>
-      <c r="N27" s="7" t="str">
+      <c r="N27" s="4" t="str">
         <f>DEC2HEX($D$7+$K27*8*$D$11+N$3*8)</f>
         <v>7FF8</v>
       </c>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7">
+      <c r="O27" s="4"/>
+      <c r="P27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="Q27" s="7" t="s">
+      <c r="Q27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R27" s="7" t="s">
+      <c r="R27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="S27" s="10" t="s">
+      <c r="S27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T27" s="7" t="s">
+      <c r="T27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U27" s="7" t="s">
+      <c r="U27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V27" s="7" t="s">
+      <c r="V27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="W27" s="7" t="s">
+      <c r="W27" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="7" t="str">
+      <c r="C28" s="4" t="str">
         <f>DEC2HEX(_xlfn.BITAND(C7/8,256))</f>
         <v>0</v>
       </c>
-      <c r="D28" s="7" t="str">
+      <c r="D28" s="4" t="str">
         <f>DEC2HEX(_xlfn.BITAND(D7/8,256))</f>
         <v>0</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="Q28" s="7" t="s">
+      <c r="Q28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="R28" s="7" t="s">
+      <c r="R28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="S28" s="10" t="s">
+      <c r="S28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="T28" s="7" t="s">
+      <c r="T28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="U28" s="7" t="s">
+      <c r="U28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V28" s="7" t="s">
+      <c r="V28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="W28" s="7" t="s">
+      <c r="W28" s="4" t="s">
         <v>66</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC23565D-C8C0-41CF-B4FA-F791AA87DEFC}">
+  <dimension ref="A1:BQ41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="5" width="5.6328125" style="4" customWidth="1"/>
+    <col min="6" max="69" width="4.7265625" customWidth="1"/>
+    <col min="70" max="133" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="48" t="str">
+        <f>DEC2HEX(F2,2)</f>
+        <v>00</v>
+      </c>
+      <c r="G1" s="49" t="str">
+        <f t="shared" ref="G1:BQ1" si="0">DEC2HEX(G2,2)</f>
+        <v>02</v>
+      </c>
+      <c r="H1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>04</v>
+      </c>
+      <c r="I1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>06</v>
+      </c>
+      <c r="J1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="K1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>0A</v>
+      </c>
+      <c r="L1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>0C</v>
+      </c>
+      <c r="M1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>0E</v>
+      </c>
+      <c r="N1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="S1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>1A</v>
+      </c>
+      <c r="T1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>1C</v>
+      </c>
+      <c r="U1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>1E</v>
+      </c>
+      <c r="V1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="X1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Y1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Z1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AA1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>2A</v>
+      </c>
+      <c r="AB1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>2C</v>
+      </c>
+      <c r="AC1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>2E</v>
+      </c>
+      <c r="AD1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AE1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AF1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AG1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AH1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="AI1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>3A</v>
+      </c>
+      <c r="AJ1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>3C</v>
+      </c>
+      <c r="AK1" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>3E</v>
+      </c>
+      <c r="AL1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AM1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AN1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="AO1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="AP1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AQ1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>4A</v>
+      </c>
+      <c r="AR1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>4C</v>
+      </c>
+      <c r="AS1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>4E</v>
+      </c>
+      <c r="AT1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AU1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AV1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="AW1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="AX1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="AY1" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>5A</v>
+      </c>
+      <c r="AZ1" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>5C</v>
+      </c>
+      <c r="BA1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>5E</v>
+      </c>
+      <c r="BB1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="BC1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="BD1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="BE1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="BF1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="BG1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>6A</v>
+      </c>
+      <c r="BH1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>6C</v>
+      </c>
+      <c r="BI1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>6E</v>
+      </c>
+      <c r="BJ1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="BK1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="BL1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="BM1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="BN1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="BO1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>7A</v>
+      </c>
+      <c r="BP1" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>7C</v>
+      </c>
+      <c r="BQ1" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>7E</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="39">
+        <v>0</v>
+      </c>
+      <c r="G2" s="40">
+        <f>F2+2</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="40">
+        <f t="shared" ref="H2:BQ2" si="1">G2+2</f>
+        <v>4</v>
+      </c>
+      <c r="I2" s="40">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J2" s="40">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K2" s="40">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L2" s="40">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M2" s="40">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="N2" s="40">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="O2" s="40">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="P2" s="40">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q2" s="40">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="R2" s="40">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="S2" s="40">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="T2" s="40">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="U2" s="40">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="V2" s="40">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="W2" s="40">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="X2" s="40">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="Y2" s="40">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="Z2" s="40">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="AA2" s="40">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="AB2" s="40">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="AC2" s="40">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="AD2" s="40">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="AE2" s="40">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="AF2" s="40">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="AG2" s="40">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="AH2" s="40">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="AI2" s="40">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="AJ2" s="40">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="AK2" s="41">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="AL2" s="40">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="AM2" s="40">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="AN2" s="40">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="AO2" s="40">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="AP2" s="40">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="AQ2" s="40">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="AR2" s="40">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="AS2" s="40">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="AT2" s="40">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="AU2" s="40">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="AV2" s="40">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="AW2" s="40">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="AX2" s="40">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="AY2" s="39">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="AZ2" s="41">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="BA2" s="40">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="BB2" s="40">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="BC2" s="40">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="BD2" s="40">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="BE2" s="40">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="BF2" s="40">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="BG2" s="40">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="BH2" s="40">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="BI2" s="40">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="BJ2" s="40">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="BK2" s="40">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="BL2" s="40">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="BM2" s="40">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="BN2" s="40">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="BO2" s="40">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="BP2" s="40">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="BQ2" s="41">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="24" t="str">
+        <f>DEC2HEX(E3,2)</f>
+        <v>00</v>
+      </c>
+      <c r="E3" s="26">
+        <v>0</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="62"/>
+      <c r="AW3" s="62"/>
+      <c r="AX3" s="62"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="62"/>
+      <c r="BB3" s="62"/>
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
+      <c r="BJ3" s="62"/>
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="62"/>
+      <c r="BN3" s="62"/>
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="65"/>
+    </row>
+    <row r="4" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="25" t="str">
+        <f t="shared" ref="D4:D41" si="2">DEC2HEX(E4,2)</f>
+        <v>01</v>
+      </c>
+      <c r="E4" s="27">
+        <f>E3+1</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="64"/>
+      <c r="AP4" s="64"/>
+      <c r="AQ4" s="64"/>
+      <c r="AR4" s="64"/>
+      <c r="AS4" s="64"/>
+      <c r="AT4" s="64"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="64"/>
+      <c r="AX4" s="64"/>
+      <c r="AY4" s="43"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="64"/>
+      <c r="BB4" s="64"/>
+      <c r="BC4" s="64"/>
+      <c r="BD4" s="64"/>
+      <c r="BE4" s="64"/>
+      <c r="BF4" s="64"/>
+      <c r="BG4" s="64"/>
+      <c r="BH4" s="64"/>
+      <c r="BI4" s="64"/>
+      <c r="BJ4" s="64"/>
+      <c r="BK4" s="64"/>
+      <c r="BL4" s="64"/>
+      <c r="BM4" s="64"/>
+      <c r="BN4" s="64"/>
+      <c r="BO4" s="64"/>
+      <c r="BP4" s="64"/>
+      <c r="BQ4" s="66"/>
+    </row>
+    <row r="5" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>02</v>
+      </c>
+      <c r="E5" s="27">
+        <f>E4+1</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="63"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="64"/>
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="64"/>
+      <c r="AX5" s="64"/>
+      <c r="AY5" s="43"/>
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="64"/>
+      <c r="BB5" s="64"/>
+      <c r="BC5" s="64"/>
+      <c r="BD5" s="64"/>
+      <c r="BE5" s="64"/>
+      <c r="BF5" s="64"/>
+      <c r="BG5" s="64"/>
+      <c r="BH5" s="64"/>
+      <c r="BI5" s="64"/>
+      <c r="BJ5" s="64"/>
+      <c r="BK5" s="64"/>
+      <c r="BL5" s="64"/>
+      <c r="BM5" s="64"/>
+      <c r="BN5" s="64"/>
+      <c r="BO5" s="64"/>
+      <c r="BP5" s="64"/>
+      <c r="BQ5" s="66"/>
+    </row>
+    <row r="6" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>03</v>
+      </c>
+      <c r="E6" s="27">
+        <f>E5+1</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59"/>
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="59"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
+      <c r="AO6" s="64"/>
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
+      <c r="AU6" s="64"/>
+      <c r="AV6" s="64"/>
+      <c r="AW6" s="64"/>
+      <c r="AX6" s="64"/>
+      <c r="AY6" s="43"/>
+      <c r="AZ6" s="46"/>
+      <c r="BA6" s="64"/>
+      <c r="BB6" s="64"/>
+      <c r="BC6" s="64"/>
+      <c r="BD6" s="64"/>
+      <c r="BE6" s="64"/>
+      <c r="BF6" s="64"/>
+      <c r="BG6" s="64"/>
+      <c r="BH6" s="64"/>
+      <c r="BI6" s="64"/>
+      <c r="BJ6" s="64"/>
+      <c r="BK6" s="64"/>
+      <c r="BL6" s="64"/>
+      <c r="BM6" s="64"/>
+      <c r="BN6" s="64"/>
+      <c r="BO6" s="64"/>
+      <c r="BP6" s="64"/>
+      <c r="BQ6" s="66"/>
+    </row>
+    <row r="7" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+      <c r="E7" s="27">
+        <f>E6+1</f>
+        <v>4</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="59"/>
+      <c r="AJ7" s="59"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="64"/>
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="64"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="64"/>
+      <c r="AU7" s="64"/>
+      <c r="AV7" s="64"/>
+      <c r="AW7" s="64"/>
+      <c r="AX7" s="64"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="46"/>
+      <c r="BA7" s="64"/>
+      <c r="BB7" s="64"/>
+      <c r="BC7" s="64"/>
+      <c r="BD7" s="64"/>
+      <c r="BE7" s="64"/>
+      <c r="BF7" s="64"/>
+      <c r="BG7" s="64"/>
+      <c r="BH7" s="64"/>
+      <c r="BI7" s="64"/>
+      <c r="BJ7" s="64"/>
+      <c r="BK7" s="64"/>
+      <c r="BL7" s="64"/>
+      <c r="BM7" s="64"/>
+      <c r="BN7" s="64"/>
+      <c r="BO7" s="64"/>
+      <c r="BP7" s="64"/>
+      <c r="BQ7" s="66"/>
+    </row>
+    <row r="8" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+      <c r="E8" s="27">
+        <f>E7+1</f>
+        <v>5</v>
+      </c>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="59"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="63"/>
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="64"/>
+      <c r="AV8" s="64"/>
+      <c r="AW8" s="64"/>
+      <c r="AX8" s="64"/>
+      <c r="AY8" s="43"/>
+      <c r="AZ8" s="46"/>
+      <c r="BA8" s="64"/>
+      <c r="BB8" s="64"/>
+      <c r="BC8" s="64"/>
+      <c r="BD8" s="64"/>
+      <c r="BE8" s="64"/>
+      <c r="BF8" s="64"/>
+      <c r="BG8" s="64"/>
+      <c r="BH8" s="64"/>
+      <c r="BI8" s="64"/>
+      <c r="BJ8" s="64"/>
+      <c r="BK8" s="64"/>
+      <c r="BL8" s="64"/>
+      <c r="BM8" s="64"/>
+      <c r="BN8" s="64"/>
+      <c r="BO8" s="64"/>
+      <c r="BP8" s="64"/>
+      <c r="BQ8" s="66"/>
+    </row>
+    <row r="9" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>06</v>
+      </c>
+      <c r="E9" s="27">
+        <f>E8+1</f>
+        <v>6</v>
+      </c>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="63"/>
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="64"/>
+      <c r="AW9" s="64"/>
+      <c r="AX9" s="64"/>
+      <c r="AY9" s="43"/>
+      <c r="AZ9" s="46"/>
+      <c r="BA9" s="64"/>
+      <c r="BB9" s="64"/>
+      <c r="BC9" s="64"/>
+      <c r="BD9" s="64"/>
+      <c r="BE9" s="64"/>
+      <c r="BF9" s="64"/>
+      <c r="BG9" s="64"/>
+      <c r="BH9" s="64"/>
+      <c r="BI9" s="64"/>
+      <c r="BJ9" s="64"/>
+      <c r="BK9" s="64"/>
+      <c r="BL9" s="64"/>
+      <c r="BM9" s="64"/>
+      <c r="BN9" s="64"/>
+      <c r="BO9" s="64"/>
+      <c r="BP9" s="64"/>
+      <c r="BQ9" s="66"/>
+    </row>
+    <row r="10" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>07</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" ref="E10:E41" si="3">E9+1</f>
+        <v>7</v>
+      </c>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="63"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="64"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="64"/>
+      <c r="AX10" s="64"/>
+      <c r="AY10" s="43"/>
+      <c r="AZ10" s="46"/>
+      <c r="BA10" s="64"/>
+      <c r="BB10" s="64"/>
+      <c r="BC10" s="64"/>
+      <c r="BD10" s="64"/>
+      <c r="BE10" s="64"/>
+      <c r="BF10" s="64"/>
+      <c r="BG10" s="64"/>
+      <c r="BH10" s="64"/>
+      <c r="BI10" s="64"/>
+      <c r="BJ10" s="64"/>
+      <c r="BK10" s="64"/>
+      <c r="BL10" s="64"/>
+      <c r="BM10" s="64"/>
+      <c r="BN10" s="64"/>
+      <c r="BO10" s="64"/>
+      <c r="BP10" s="64"/>
+      <c r="BQ10" s="66"/>
+    </row>
+    <row r="11" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>08</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="59"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="63"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="64"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="64"/>
+      <c r="AW11" s="64"/>
+      <c r="AX11" s="64"/>
+      <c r="AY11" s="43"/>
+      <c r="AZ11" s="46"/>
+      <c r="BA11" s="64"/>
+      <c r="BB11" s="64"/>
+      <c r="BC11" s="64"/>
+      <c r="BD11" s="64"/>
+      <c r="BE11" s="64"/>
+      <c r="BF11" s="64"/>
+      <c r="BG11" s="64"/>
+      <c r="BH11" s="64"/>
+      <c r="BI11" s="64"/>
+      <c r="BJ11" s="64"/>
+      <c r="BK11" s="64"/>
+      <c r="BL11" s="64"/>
+      <c r="BM11" s="64"/>
+      <c r="BN11" s="64"/>
+      <c r="BO11" s="64"/>
+      <c r="BP11" s="64"/>
+      <c r="BQ11" s="66"/>
+    </row>
+    <row r="12" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>09</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="63"/>
+      <c r="AM12" s="64"/>
+      <c r="AN12" s="64"/>
+      <c r="AO12" s="64"/>
+      <c r="AP12" s="64"/>
+      <c r="AQ12" s="64"/>
+      <c r="AR12" s="64"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="64"/>
+      <c r="AU12" s="64"/>
+      <c r="AV12" s="64"/>
+      <c r="AW12" s="64"/>
+      <c r="AX12" s="64"/>
+      <c r="AY12" s="43"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="64"/>
+      <c r="BB12" s="64"/>
+      <c r="BC12" s="64"/>
+      <c r="BD12" s="64"/>
+      <c r="BE12" s="64"/>
+      <c r="BF12" s="64"/>
+      <c r="BG12" s="64"/>
+      <c r="BH12" s="64"/>
+      <c r="BI12" s="64"/>
+      <c r="BJ12" s="64"/>
+      <c r="BK12" s="64"/>
+      <c r="BL12" s="64"/>
+      <c r="BM12" s="64"/>
+      <c r="BN12" s="64"/>
+      <c r="BO12" s="64"/>
+      <c r="BP12" s="64"/>
+      <c r="BQ12" s="66"/>
+    </row>
+    <row r="13" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>0A</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="59"/>
+      <c r="AK13" s="60"/>
+      <c r="AL13" s="63"/>
+      <c r="AM13" s="64"/>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="64"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="64"/>
+      <c r="AR13" s="64"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="64"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="64"/>
+      <c r="AW13" s="64"/>
+      <c r="AX13" s="64"/>
+      <c r="AY13" s="43"/>
+      <c r="AZ13" s="46"/>
+      <c r="BA13" s="64"/>
+      <c r="BB13" s="64"/>
+      <c r="BC13" s="64"/>
+      <c r="BD13" s="64"/>
+      <c r="BE13" s="64"/>
+      <c r="BF13" s="64"/>
+      <c r="BG13" s="64"/>
+      <c r="BH13" s="64"/>
+      <c r="BI13" s="64"/>
+      <c r="BJ13" s="64"/>
+      <c r="BK13" s="64"/>
+      <c r="BL13" s="64"/>
+      <c r="BM13" s="64"/>
+      <c r="BN13" s="64"/>
+      <c r="BO13" s="64"/>
+      <c r="BP13" s="64"/>
+      <c r="BQ13" s="66"/>
+    </row>
+    <row r="14" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>0B</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="59"/>
+      <c r="AJ14" s="59"/>
+      <c r="AK14" s="60"/>
+      <c r="AL14" s="63"/>
+      <c r="AM14" s="64"/>
+      <c r="AN14" s="64"/>
+      <c r="AO14" s="64"/>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64"/>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="64"/>
+      <c r="AX14" s="64"/>
+      <c r="AY14" s="43"/>
+      <c r="AZ14" s="46"/>
+      <c r="BA14" s="64"/>
+      <c r="BB14" s="64"/>
+      <c r="BC14" s="64"/>
+      <c r="BD14" s="64"/>
+      <c r="BE14" s="64"/>
+      <c r="BF14" s="64"/>
+      <c r="BG14" s="64"/>
+      <c r="BH14" s="64"/>
+      <c r="BI14" s="64"/>
+      <c r="BJ14" s="64"/>
+      <c r="BK14" s="64"/>
+      <c r="BL14" s="64"/>
+      <c r="BM14" s="64"/>
+      <c r="BN14" s="64"/>
+      <c r="BO14" s="64"/>
+      <c r="BP14" s="64"/>
+      <c r="BQ14" s="66"/>
+    </row>
+    <row r="15" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>0C</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="63"/>
+      <c r="AM15" s="64"/>
+      <c r="AN15" s="64"/>
+      <c r="AO15" s="64"/>
+      <c r="AP15" s="64"/>
+      <c r="AQ15" s="64"/>
+      <c r="AR15" s="64"/>
+      <c r="AS15" s="64"/>
+      <c r="AT15" s="64"/>
+      <c r="AU15" s="64"/>
+      <c r="AV15" s="64"/>
+      <c r="AW15" s="64"/>
+      <c r="AX15" s="64"/>
+      <c r="AY15" s="43"/>
+      <c r="AZ15" s="46"/>
+      <c r="BA15" s="64"/>
+      <c r="BB15" s="64"/>
+      <c r="BC15" s="64"/>
+      <c r="BD15" s="64"/>
+      <c r="BE15" s="64"/>
+      <c r="BF15" s="64"/>
+      <c r="BG15" s="64"/>
+      <c r="BH15" s="64"/>
+      <c r="BI15" s="64"/>
+      <c r="BJ15" s="64"/>
+      <c r="BK15" s="64"/>
+      <c r="BL15" s="64"/>
+      <c r="BM15" s="64"/>
+      <c r="BN15" s="64"/>
+      <c r="BO15" s="64"/>
+      <c r="BP15" s="64"/>
+      <c r="BQ15" s="66"/>
+    </row>
+    <row r="16" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>0D</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="59"/>
+      <c r="AH16" s="59"/>
+      <c r="AI16" s="59"/>
+      <c r="AJ16" s="59"/>
+      <c r="AK16" s="60"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="64"/>
+      <c r="AN16" s="64"/>
+      <c r="AO16" s="64"/>
+      <c r="AP16" s="64"/>
+      <c r="AQ16" s="64"/>
+      <c r="AR16" s="64"/>
+      <c r="AS16" s="64"/>
+      <c r="AT16" s="64"/>
+      <c r="AU16" s="64"/>
+      <c r="AV16" s="64"/>
+      <c r="AW16" s="64"/>
+      <c r="AX16" s="64"/>
+      <c r="AY16" s="43"/>
+      <c r="AZ16" s="46"/>
+      <c r="BA16" s="64"/>
+      <c r="BB16" s="64"/>
+      <c r="BC16" s="64"/>
+      <c r="BD16" s="64"/>
+      <c r="BE16" s="64"/>
+      <c r="BF16" s="64"/>
+      <c r="BG16" s="64"/>
+      <c r="BH16" s="64"/>
+      <c r="BI16" s="64"/>
+      <c r="BJ16" s="64"/>
+      <c r="BK16" s="64"/>
+      <c r="BL16" s="64"/>
+      <c r="BM16" s="64"/>
+      <c r="BN16" s="64"/>
+      <c r="BO16" s="64"/>
+      <c r="BP16" s="64"/>
+      <c r="BQ16" s="66"/>
+    </row>
+    <row r="17" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>0E</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="59"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="63"/>
+      <c r="AM17" s="64"/>
+      <c r="AN17" s="64"/>
+      <c r="AO17" s="64"/>
+      <c r="AP17" s="64"/>
+      <c r="AQ17" s="64"/>
+      <c r="AR17" s="64"/>
+      <c r="AS17" s="64"/>
+      <c r="AT17" s="64"/>
+      <c r="AU17" s="64"/>
+      <c r="AV17" s="64"/>
+      <c r="AW17" s="64"/>
+      <c r="AX17" s="64"/>
+      <c r="AY17" s="43"/>
+      <c r="AZ17" s="46"/>
+      <c r="BA17" s="64"/>
+      <c r="BB17" s="64"/>
+      <c r="BC17" s="64"/>
+      <c r="BD17" s="64"/>
+      <c r="BE17" s="64"/>
+      <c r="BF17" s="64"/>
+      <c r="BG17" s="64"/>
+      <c r="BH17" s="64"/>
+      <c r="BI17" s="64"/>
+      <c r="BJ17" s="64"/>
+      <c r="BK17" s="64"/>
+      <c r="BL17" s="64"/>
+      <c r="BM17" s="64"/>
+      <c r="BN17" s="64"/>
+      <c r="BO17" s="64"/>
+      <c r="BP17" s="64"/>
+      <c r="BQ17" s="66"/>
+    </row>
+    <row r="18" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>0F</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="60"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="64"/>
+      <c r="AN18" s="64"/>
+      <c r="AO18" s="64"/>
+      <c r="AP18" s="64"/>
+      <c r="AQ18" s="64"/>
+      <c r="AR18" s="64"/>
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="64"/>
+      <c r="AU18" s="64"/>
+      <c r="AV18" s="64"/>
+      <c r="AW18" s="64"/>
+      <c r="AX18" s="64"/>
+      <c r="AY18" s="43"/>
+      <c r="AZ18" s="46"/>
+      <c r="BA18" s="64"/>
+      <c r="BB18" s="64"/>
+      <c r="BC18" s="64"/>
+      <c r="BD18" s="64"/>
+      <c r="BE18" s="64"/>
+      <c r="BF18" s="64"/>
+      <c r="BG18" s="64"/>
+      <c r="BH18" s="64"/>
+      <c r="BI18" s="64"/>
+      <c r="BJ18" s="64"/>
+      <c r="BK18" s="64"/>
+      <c r="BL18" s="64"/>
+      <c r="BM18" s="64"/>
+      <c r="BN18" s="64"/>
+      <c r="BO18" s="64"/>
+      <c r="BP18" s="64"/>
+      <c r="BQ18" s="66"/>
+    </row>
+    <row r="19" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="64"/>
+      <c r="AN19" s="64"/>
+      <c r="AO19" s="64"/>
+      <c r="AP19" s="64"/>
+      <c r="AQ19" s="64"/>
+      <c r="AR19" s="64"/>
+      <c r="AS19" s="64"/>
+      <c r="AT19" s="64"/>
+      <c r="AU19" s="64"/>
+      <c r="AV19" s="64"/>
+      <c r="AW19" s="64"/>
+      <c r="AX19" s="64"/>
+      <c r="AY19" s="43"/>
+      <c r="AZ19" s="46"/>
+      <c r="BA19" s="64"/>
+      <c r="BB19" s="64"/>
+      <c r="BC19" s="64"/>
+      <c r="BD19" s="64"/>
+      <c r="BE19" s="64"/>
+      <c r="BF19" s="64"/>
+      <c r="BG19" s="64"/>
+      <c r="BH19" s="64"/>
+      <c r="BI19" s="64"/>
+      <c r="BJ19" s="64"/>
+      <c r="BK19" s="64"/>
+      <c r="BL19" s="64"/>
+      <c r="BM19" s="64"/>
+      <c r="BN19" s="64"/>
+      <c r="BO19" s="64"/>
+      <c r="BP19" s="64"/>
+      <c r="BQ19" s="66"/>
+    </row>
+    <row r="20" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="60"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="64"/>
+      <c r="AN20" s="64"/>
+      <c r="AO20" s="64"/>
+      <c r="AP20" s="64"/>
+      <c r="AQ20" s="64"/>
+      <c r="AR20" s="64"/>
+      <c r="AS20" s="64"/>
+      <c r="AT20" s="64"/>
+      <c r="AU20" s="64"/>
+      <c r="AV20" s="64"/>
+      <c r="AW20" s="64"/>
+      <c r="AX20" s="64"/>
+      <c r="AY20" s="43"/>
+      <c r="AZ20" s="46"/>
+      <c r="BA20" s="64"/>
+      <c r="BB20" s="64"/>
+      <c r="BC20" s="64"/>
+      <c r="BD20" s="64"/>
+      <c r="BE20" s="64"/>
+      <c r="BF20" s="64"/>
+      <c r="BG20" s="64"/>
+      <c r="BH20" s="64"/>
+      <c r="BI20" s="64"/>
+      <c r="BJ20" s="64"/>
+      <c r="BK20" s="64"/>
+      <c r="BL20" s="64"/>
+      <c r="BM20" s="64"/>
+      <c r="BN20" s="64"/>
+      <c r="BO20" s="64"/>
+      <c r="BP20" s="64"/>
+      <c r="BQ20" s="66"/>
+    </row>
+    <row r="21" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E21" s="27">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="60"/>
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="64"/>
+      <c r="AN21" s="64"/>
+      <c r="AO21" s="64"/>
+      <c r="AP21" s="64"/>
+      <c r="AQ21" s="64"/>
+      <c r="AR21" s="64"/>
+      <c r="AS21" s="64"/>
+      <c r="AT21" s="64"/>
+      <c r="AU21" s="64"/>
+      <c r="AV21" s="64"/>
+      <c r="AW21" s="64"/>
+      <c r="AX21" s="64"/>
+      <c r="AY21" s="43"/>
+      <c r="AZ21" s="46"/>
+      <c r="BA21" s="64"/>
+      <c r="BB21" s="64"/>
+      <c r="BC21" s="64"/>
+      <c r="BD21" s="64"/>
+      <c r="BE21" s="64"/>
+      <c r="BF21" s="64"/>
+      <c r="BG21" s="64"/>
+      <c r="BH21" s="64"/>
+      <c r="BI21" s="64"/>
+      <c r="BJ21" s="64"/>
+      <c r="BK21" s="64"/>
+      <c r="BL21" s="64"/>
+      <c r="BM21" s="64"/>
+      <c r="BN21" s="64"/>
+      <c r="BO21" s="64"/>
+      <c r="BP21" s="64"/>
+      <c r="BQ21" s="66"/>
+    </row>
+    <row r="22" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E22" s="27">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="59"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="60"/>
+      <c r="AL22" s="63"/>
+      <c r="AM22" s="64"/>
+      <c r="AN22" s="64"/>
+      <c r="AO22" s="64"/>
+      <c r="AP22" s="64"/>
+      <c r="AQ22" s="64"/>
+      <c r="AR22" s="64"/>
+      <c r="AS22" s="64"/>
+      <c r="AT22" s="64"/>
+      <c r="AU22" s="64"/>
+      <c r="AV22" s="64"/>
+      <c r="AW22" s="64"/>
+      <c r="AX22" s="64"/>
+      <c r="AY22" s="43"/>
+      <c r="AZ22" s="46"/>
+      <c r="BA22" s="64"/>
+      <c r="BB22" s="64"/>
+      <c r="BC22" s="64"/>
+      <c r="BD22" s="64"/>
+      <c r="BE22" s="64"/>
+      <c r="BF22" s="64"/>
+      <c r="BG22" s="64"/>
+      <c r="BH22" s="64"/>
+      <c r="BI22" s="64"/>
+      <c r="BJ22" s="64"/>
+      <c r="BK22" s="64"/>
+      <c r="BL22" s="64"/>
+      <c r="BM22" s="64"/>
+      <c r="BN22" s="64"/>
+      <c r="BO22" s="64"/>
+      <c r="BP22" s="64"/>
+      <c r="BQ22" s="66"/>
+    </row>
+    <row r="23" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E23" s="27">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="59"/>
+      <c r="AH23" s="59"/>
+      <c r="AI23" s="59"/>
+      <c r="AJ23" s="59"/>
+      <c r="AK23" s="60"/>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="64"/>
+      <c r="AN23" s="64"/>
+      <c r="AO23" s="64"/>
+      <c r="AP23" s="64"/>
+      <c r="AQ23" s="64"/>
+      <c r="AR23" s="64"/>
+      <c r="AS23" s="64"/>
+      <c r="AT23" s="64"/>
+      <c r="AU23" s="64"/>
+      <c r="AV23" s="64"/>
+      <c r="AW23" s="64"/>
+      <c r="AX23" s="64"/>
+      <c r="AY23" s="43"/>
+      <c r="AZ23" s="46"/>
+      <c r="BA23" s="64"/>
+      <c r="BB23" s="64"/>
+      <c r="BC23" s="64"/>
+      <c r="BD23" s="64"/>
+      <c r="BE23" s="64"/>
+      <c r="BF23" s="64"/>
+      <c r="BG23" s="64"/>
+      <c r="BH23" s="64"/>
+      <c r="BI23" s="64"/>
+      <c r="BJ23" s="64"/>
+      <c r="BK23" s="64"/>
+      <c r="BL23" s="64"/>
+      <c r="BM23" s="64"/>
+      <c r="BN23" s="64"/>
+      <c r="BO23" s="64"/>
+      <c r="BP23" s="64"/>
+      <c r="BQ23" s="66"/>
+    </row>
+    <row r="24" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E24" s="27">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="60"/>
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="64"/>
+      <c r="AN24" s="64"/>
+      <c r="AO24" s="64"/>
+      <c r="AP24" s="64"/>
+      <c r="AQ24" s="64"/>
+      <c r="AR24" s="64"/>
+      <c r="AS24" s="64"/>
+      <c r="AT24" s="64"/>
+      <c r="AU24" s="64"/>
+      <c r="AV24" s="64"/>
+      <c r="AW24" s="64"/>
+      <c r="AX24" s="64"/>
+      <c r="AY24" s="43"/>
+      <c r="AZ24" s="46"/>
+      <c r="BA24" s="64"/>
+      <c r="BB24" s="64"/>
+      <c r="BC24" s="64"/>
+      <c r="BD24" s="64"/>
+      <c r="BE24" s="64"/>
+      <c r="BF24" s="64"/>
+      <c r="BG24" s="64"/>
+      <c r="BH24" s="64"/>
+      <c r="BI24" s="64"/>
+      <c r="BJ24" s="64"/>
+      <c r="BK24" s="64"/>
+      <c r="BL24" s="64"/>
+      <c r="BM24" s="64"/>
+      <c r="BN24" s="64"/>
+      <c r="BO24" s="64"/>
+      <c r="BP24" s="64"/>
+      <c r="BQ24" s="66"/>
+    </row>
+    <row r="25" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E25" s="27">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="59"/>
+      <c r="AH25" s="59"/>
+      <c r="AI25" s="59"/>
+      <c r="AJ25" s="59"/>
+      <c r="AK25" s="60"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="64"/>
+      <c r="AN25" s="64"/>
+      <c r="AO25" s="64"/>
+      <c r="AP25" s="64"/>
+      <c r="AQ25" s="64"/>
+      <c r="AR25" s="64"/>
+      <c r="AS25" s="64"/>
+      <c r="AT25" s="64"/>
+      <c r="AU25" s="64"/>
+      <c r="AV25" s="64"/>
+      <c r="AW25" s="64"/>
+      <c r="AX25" s="64"/>
+      <c r="AY25" s="43"/>
+      <c r="AZ25" s="46"/>
+      <c r="BA25" s="64"/>
+      <c r="BB25" s="64"/>
+      <c r="BC25" s="64"/>
+      <c r="BD25" s="64"/>
+      <c r="BE25" s="64"/>
+      <c r="BF25" s="64"/>
+      <c r="BG25" s="64"/>
+      <c r="BH25" s="64"/>
+      <c r="BI25" s="64"/>
+      <c r="BJ25" s="64"/>
+      <c r="BK25" s="64"/>
+      <c r="BL25" s="64"/>
+      <c r="BM25" s="64"/>
+      <c r="BN25" s="64"/>
+      <c r="BO25" s="64"/>
+      <c r="BP25" s="64"/>
+      <c r="BQ25" s="66"/>
+    </row>
+    <row r="26" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E26" s="27">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="59"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="60"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="64"/>
+      <c r="AN26" s="64"/>
+      <c r="AO26" s="64"/>
+      <c r="AP26" s="64"/>
+      <c r="AQ26" s="64"/>
+      <c r="AR26" s="64"/>
+      <c r="AS26" s="64"/>
+      <c r="AT26" s="64"/>
+      <c r="AU26" s="64"/>
+      <c r="AV26" s="64"/>
+      <c r="AW26" s="64"/>
+      <c r="AX26" s="64"/>
+      <c r="AY26" s="43"/>
+      <c r="AZ26" s="46"/>
+      <c r="BA26" s="64"/>
+      <c r="BB26" s="64"/>
+      <c r="BC26" s="64"/>
+      <c r="BD26" s="64"/>
+      <c r="BE26" s="64"/>
+      <c r="BF26" s="64"/>
+      <c r="BG26" s="64"/>
+      <c r="BH26" s="64"/>
+      <c r="BI26" s="64"/>
+      <c r="BJ26" s="64"/>
+      <c r="BK26" s="64"/>
+      <c r="BL26" s="64"/>
+      <c r="BM26" s="64"/>
+      <c r="BN26" s="64"/>
+      <c r="BO26" s="64"/>
+      <c r="BP26" s="64"/>
+      <c r="BQ26" s="66"/>
+    </row>
+    <row r="27" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="E27" s="26">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="F27" s="61"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="62"/>
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="65"/>
+      <c r="AL27" s="61"/>
+      <c r="AM27" s="62"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="62"/>
+      <c r="AT27" s="62"/>
+      <c r="AU27" s="62"/>
+      <c r="AV27" s="62"/>
+      <c r="AW27" s="62"/>
+      <c r="AX27" s="62"/>
+      <c r="AY27" s="42"/>
+      <c r="AZ27" s="45"/>
+      <c r="BA27" s="62"/>
+      <c r="BB27" s="62"/>
+      <c r="BC27" s="62"/>
+      <c r="BD27" s="62"/>
+      <c r="BE27" s="62"/>
+      <c r="BF27" s="62"/>
+      <c r="BG27" s="62"/>
+      <c r="BH27" s="62"/>
+      <c r="BI27" s="62"/>
+      <c r="BJ27" s="62"/>
+      <c r="BK27" s="62"/>
+      <c r="BL27" s="62"/>
+      <c r="BM27" s="62"/>
+      <c r="BN27" s="62"/>
+      <c r="BO27" s="62"/>
+      <c r="BP27" s="62"/>
+      <c r="BQ27" s="65"/>
+    </row>
+    <row r="28" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="F28" s="63"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="64"/>
+      <c r="AO28" s="64"/>
+      <c r="AP28" s="64"/>
+      <c r="AQ28" s="64"/>
+      <c r="AR28" s="64"/>
+      <c r="AS28" s="64"/>
+      <c r="AT28" s="64"/>
+      <c r="AU28" s="64"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="64"/>
+      <c r="AX28" s="64"/>
+      <c r="AY28" s="43"/>
+      <c r="AZ28" s="46"/>
+      <c r="BA28" s="64"/>
+      <c r="BB28" s="64"/>
+      <c r="BC28" s="64"/>
+      <c r="BD28" s="64"/>
+      <c r="BE28" s="64"/>
+      <c r="BF28" s="64"/>
+      <c r="BG28" s="64"/>
+      <c r="BH28" s="64"/>
+      <c r="BI28" s="64"/>
+      <c r="BJ28" s="64"/>
+      <c r="BK28" s="64"/>
+      <c r="BL28" s="64"/>
+      <c r="BM28" s="64"/>
+      <c r="BN28" s="64"/>
+      <c r="BO28" s="64"/>
+      <c r="BP28" s="64"/>
+      <c r="BQ28" s="66"/>
+    </row>
+    <row r="29" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>1A</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="64"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="64"/>
+      <c r="AG29" s="64"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="64"/>
+      <c r="AK29" s="66"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="64"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="64"/>
+      <c r="AP29" s="64"/>
+      <c r="AQ29" s="64"/>
+      <c r="AR29" s="64"/>
+      <c r="AS29" s="64"/>
+      <c r="AT29" s="64"/>
+      <c r="AU29" s="64"/>
+      <c r="AV29" s="64"/>
+      <c r="AW29" s="64"/>
+      <c r="AX29" s="64"/>
+      <c r="AY29" s="43"/>
+      <c r="AZ29" s="46"/>
+      <c r="BA29" s="64"/>
+      <c r="BB29" s="64"/>
+      <c r="BC29" s="64"/>
+      <c r="BD29" s="64"/>
+      <c r="BE29" s="64"/>
+      <c r="BF29" s="64"/>
+      <c r="BG29" s="64"/>
+      <c r="BH29" s="64"/>
+      <c r="BI29" s="64"/>
+      <c r="BJ29" s="64"/>
+      <c r="BK29" s="64"/>
+      <c r="BL29" s="64"/>
+      <c r="BM29" s="64"/>
+      <c r="BN29" s="64"/>
+      <c r="BO29" s="64"/>
+      <c r="BP29" s="64"/>
+      <c r="BQ29" s="66"/>
+    </row>
+    <row r="30" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>1B</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="64"/>
+      <c r="AB30" s="64"/>
+      <c r="AC30" s="64"/>
+      <c r="AD30" s="64"/>
+      <c r="AE30" s="64"/>
+      <c r="AF30" s="64"/>
+      <c r="AG30" s="64"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="64"/>
+      <c r="AJ30" s="64"/>
+      <c r="AK30" s="66"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="64"/>
+      <c r="AN30" s="64"/>
+      <c r="AO30" s="64"/>
+      <c r="AP30" s="64"/>
+      <c r="AQ30" s="64"/>
+      <c r="AR30" s="64"/>
+      <c r="AS30" s="64"/>
+      <c r="AT30" s="64"/>
+      <c r="AU30" s="64"/>
+      <c r="AV30" s="64"/>
+      <c r="AW30" s="64"/>
+      <c r="AX30" s="64"/>
+      <c r="AY30" s="43"/>
+      <c r="AZ30" s="46"/>
+      <c r="BA30" s="64"/>
+      <c r="BB30" s="64"/>
+      <c r="BC30" s="64"/>
+      <c r="BD30" s="64"/>
+      <c r="BE30" s="64"/>
+      <c r="BF30" s="64"/>
+      <c r="BG30" s="64"/>
+      <c r="BH30" s="64"/>
+      <c r="BI30" s="64"/>
+      <c r="BJ30" s="64"/>
+      <c r="BK30" s="64"/>
+      <c r="BL30" s="64"/>
+      <c r="BM30" s="64"/>
+      <c r="BN30" s="64"/>
+      <c r="BO30" s="64"/>
+      <c r="BP30" s="64"/>
+      <c r="BQ30" s="66"/>
+    </row>
+    <row r="31" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>1C</v>
+      </c>
+      <c r="E31" s="27">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="F31" s="63"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="64"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="64"/>
+      <c r="AE31" s="64"/>
+      <c r="AF31" s="64"/>
+      <c r="AG31" s="64"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="64"/>
+      <c r="AJ31" s="64"/>
+      <c r="AK31" s="66"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="64"/>
+      <c r="AN31" s="64"/>
+      <c r="AO31" s="64"/>
+      <c r="AP31" s="64"/>
+      <c r="AQ31" s="64"/>
+      <c r="AR31" s="64"/>
+      <c r="AS31" s="64"/>
+      <c r="AT31" s="64"/>
+      <c r="AU31" s="64"/>
+      <c r="AV31" s="64"/>
+      <c r="AW31" s="64"/>
+      <c r="AX31" s="64"/>
+      <c r="AY31" s="43"/>
+      <c r="AZ31" s="46"/>
+      <c r="BA31" s="64"/>
+      <c r="BB31" s="64"/>
+      <c r="BC31" s="64"/>
+      <c r="BD31" s="64"/>
+      <c r="BE31" s="64"/>
+      <c r="BF31" s="64"/>
+      <c r="BG31" s="64"/>
+      <c r="BH31" s="64"/>
+      <c r="BI31" s="64"/>
+      <c r="BJ31" s="64"/>
+      <c r="BK31" s="64"/>
+      <c r="BL31" s="64"/>
+      <c r="BM31" s="64"/>
+      <c r="BN31" s="64"/>
+      <c r="BO31" s="64"/>
+      <c r="BP31" s="64"/>
+      <c r="BQ31" s="66"/>
+    </row>
+    <row r="32" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>1D</v>
+      </c>
+      <c r="E32" s="27">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="F32" s="63"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="64"/>
+      <c r="AB32" s="64"/>
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="64"/>
+      <c r="AK32" s="66"/>
+      <c r="AL32" s="63"/>
+      <c r="AM32" s="64"/>
+      <c r="AN32" s="64"/>
+      <c r="AO32" s="64"/>
+      <c r="AP32" s="64"/>
+      <c r="AQ32" s="64"/>
+      <c r="AR32" s="64"/>
+      <c r="AS32" s="64"/>
+      <c r="AT32" s="64"/>
+      <c r="AU32" s="64"/>
+      <c r="AV32" s="64"/>
+      <c r="AW32" s="64"/>
+      <c r="AX32" s="64"/>
+      <c r="AY32" s="43"/>
+      <c r="AZ32" s="46"/>
+      <c r="BA32" s="64"/>
+      <c r="BB32" s="64"/>
+      <c r="BC32" s="64"/>
+      <c r="BD32" s="64"/>
+      <c r="BE32" s="64"/>
+      <c r="BF32" s="64"/>
+      <c r="BG32" s="64"/>
+      <c r="BH32" s="64"/>
+      <c r="BI32" s="64"/>
+      <c r="BJ32" s="64"/>
+      <c r="BK32" s="64"/>
+      <c r="BL32" s="64"/>
+      <c r="BM32" s="64"/>
+      <c r="BN32" s="64"/>
+      <c r="BO32" s="64"/>
+      <c r="BP32" s="64"/>
+      <c r="BQ32" s="66"/>
+    </row>
+    <row r="33" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>1E</v>
+      </c>
+      <c r="E33" s="27">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F33" s="63"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="64"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="64"/>
+      <c r="AE33" s="64"/>
+      <c r="AF33" s="64"/>
+      <c r="AG33" s="64"/>
+      <c r="AH33" s="64"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="64"/>
+      <c r="AK33" s="66"/>
+      <c r="AL33" s="63"/>
+      <c r="AM33" s="64"/>
+      <c r="AN33" s="64"/>
+      <c r="AO33" s="64"/>
+      <c r="AP33" s="64"/>
+      <c r="AQ33" s="64"/>
+      <c r="AR33" s="64"/>
+      <c r="AS33" s="64"/>
+      <c r="AT33" s="64"/>
+      <c r="AU33" s="64"/>
+      <c r="AV33" s="64"/>
+      <c r="AW33" s="64"/>
+      <c r="AX33" s="64"/>
+      <c r="AY33" s="43"/>
+      <c r="AZ33" s="46"/>
+      <c r="BA33" s="64"/>
+      <c r="BB33" s="64"/>
+      <c r="BC33" s="64"/>
+      <c r="BD33" s="64"/>
+      <c r="BE33" s="64"/>
+      <c r="BF33" s="64"/>
+      <c r="BG33" s="64"/>
+      <c r="BH33" s="64"/>
+      <c r="BI33" s="64"/>
+      <c r="BJ33" s="64"/>
+      <c r="BK33" s="64"/>
+      <c r="BL33" s="64"/>
+      <c r="BM33" s="64"/>
+      <c r="BN33" s="64"/>
+      <c r="BO33" s="64"/>
+      <c r="BP33" s="64"/>
+      <c r="BQ33" s="66"/>
+    </row>
+    <row r="34" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="51" t="str">
+        <f t="shared" si="2"/>
+        <v>1F</v>
+      </c>
+      <c r="E34" s="26">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31"/>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="32"/>
+      <c r="AL34" s="30"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="31"/>
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="31"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="31"/>
+      <c r="AU34" s="31"/>
+      <c r="AV34" s="31"/>
+      <c r="AW34" s="31"/>
+      <c r="AX34" s="31"/>
+      <c r="AY34" s="43"/>
+      <c r="AZ34" s="46"/>
+      <c r="BA34" s="31"/>
+      <c r="BB34" s="31"/>
+      <c r="BC34" s="31"/>
+      <c r="BD34" s="31"/>
+      <c r="BE34" s="31"/>
+      <c r="BF34" s="31"/>
+      <c r="BG34" s="31"/>
+      <c r="BH34" s="31"/>
+      <c r="BI34" s="31"/>
+      <c r="BJ34" s="31"/>
+      <c r="BK34" s="31"/>
+      <c r="BL34" s="31"/>
+      <c r="BM34" s="31"/>
+      <c r="BN34" s="31"/>
+      <c r="BO34" s="31"/>
+      <c r="BP34" s="31"/>
+      <c r="BQ34" s="32"/>
+    </row>
+    <row r="35" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="52" t="str">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E35" s="27">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="34"/>
+      <c r="AE35" s="34"/>
+      <c r="AF35" s="34"/>
+      <c r="AG35" s="34"/>
+      <c r="AH35" s="34"/>
+      <c r="AI35" s="34"/>
+      <c r="AJ35" s="34"/>
+      <c r="AK35" s="35"/>
+      <c r="AL35" s="33"/>
+      <c r="AM35" s="34"/>
+      <c r="AN35" s="34"/>
+      <c r="AO35" s="34"/>
+      <c r="AP35" s="34"/>
+      <c r="AQ35" s="34"/>
+      <c r="AR35" s="34"/>
+      <c r="AS35" s="34"/>
+      <c r="AT35" s="34"/>
+      <c r="AU35" s="34"/>
+      <c r="AV35" s="34"/>
+      <c r="AW35" s="34"/>
+      <c r="AX35" s="34"/>
+      <c r="AY35" s="43"/>
+      <c r="AZ35" s="46"/>
+      <c r="BA35" s="34"/>
+      <c r="BB35" s="34"/>
+      <c r="BC35" s="34"/>
+      <c r="BD35" s="34"/>
+      <c r="BE35" s="34"/>
+      <c r="BF35" s="34"/>
+      <c r="BG35" s="34"/>
+      <c r="BH35" s="34"/>
+      <c r="BI35" s="34"/>
+      <c r="BJ35" s="34"/>
+      <c r="BK35" s="34"/>
+      <c r="BL35" s="34"/>
+      <c r="BM35" s="34"/>
+      <c r="BN35" s="34"/>
+      <c r="BO35" s="34"/>
+      <c r="BP35" s="34"/>
+      <c r="BQ35" s="35"/>
+    </row>
+    <row r="36" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E36" s="54">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="F36" s="36"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+      <c r="AA36" s="37"/>
+      <c r="AB36" s="37"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37"/>
+      <c r="AF36" s="37"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="37"/>
+      <c r="AK36" s="38"/>
+      <c r="AL36" s="36"/>
+      <c r="AM36" s="37"/>
+      <c r="AN36" s="37"/>
+      <c r="AO36" s="37"/>
+      <c r="AP36" s="37"/>
+      <c r="AQ36" s="37"/>
+      <c r="AR36" s="37"/>
+      <c r="AS36" s="37"/>
+      <c r="AT36" s="37"/>
+      <c r="AU36" s="37"/>
+      <c r="AV36" s="37"/>
+      <c r="AW36" s="37"/>
+      <c r="AX36" s="37"/>
+      <c r="AY36" s="43"/>
+      <c r="AZ36" s="46"/>
+      <c r="BA36" s="37"/>
+      <c r="BB36" s="37"/>
+      <c r="BC36" s="37"/>
+      <c r="BD36" s="37"/>
+      <c r="BE36" s="37"/>
+      <c r="BF36" s="37"/>
+      <c r="BG36" s="37"/>
+      <c r="BH36" s="37"/>
+      <c r="BI36" s="37"/>
+      <c r="BJ36" s="37"/>
+      <c r="BK36" s="37"/>
+      <c r="BL36" s="37"/>
+      <c r="BM36" s="37"/>
+      <c r="BN36" s="37"/>
+      <c r="BO36" s="37"/>
+      <c r="BP36" s="37"/>
+      <c r="BQ36" s="38"/>
+    </row>
+    <row r="37" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D37" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E37" s="27">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="F37" s="63"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="64"/>
+      <c r="AB37" s="64"/>
+      <c r="AC37" s="64"/>
+      <c r="AD37" s="64"/>
+      <c r="AE37" s="64"/>
+      <c r="AF37" s="64"/>
+      <c r="AG37" s="64"/>
+      <c r="AH37" s="64"/>
+      <c r="AI37" s="64"/>
+      <c r="AJ37" s="64"/>
+      <c r="AK37" s="66"/>
+      <c r="AL37" s="63"/>
+      <c r="AM37" s="64"/>
+      <c r="AN37" s="64"/>
+      <c r="AO37" s="64"/>
+      <c r="AP37" s="64"/>
+      <c r="AQ37" s="64"/>
+      <c r="AR37" s="64"/>
+      <c r="AS37" s="64"/>
+      <c r="AT37" s="64"/>
+      <c r="AU37" s="64"/>
+      <c r="AV37" s="64"/>
+      <c r="AW37" s="64"/>
+      <c r="AX37" s="64"/>
+      <c r="AY37" s="43"/>
+      <c r="AZ37" s="46"/>
+      <c r="BA37" s="64"/>
+      <c r="BB37" s="64"/>
+      <c r="BC37" s="64"/>
+      <c r="BD37" s="64"/>
+      <c r="BE37" s="64"/>
+      <c r="BF37" s="64"/>
+      <c r="BG37" s="64"/>
+      <c r="BH37" s="64"/>
+      <c r="BI37" s="64"/>
+      <c r="BJ37" s="64"/>
+      <c r="BK37" s="64"/>
+      <c r="BL37" s="64"/>
+      <c r="BM37" s="64"/>
+      <c r="BN37" s="64"/>
+      <c r="BO37" s="64"/>
+      <c r="BP37" s="64"/>
+      <c r="BQ37" s="66"/>
+    </row>
+    <row r="38" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E38" s="27">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="F38" s="63"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="64"/>
+      <c r="X38" s="64"/>
+      <c r="Y38" s="64"/>
+      <c r="Z38" s="64"/>
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="64"/>
+      <c r="AC38" s="64"/>
+      <c r="AD38" s="64"/>
+      <c r="AE38" s="64"/>
+      <c r="AF38" s="64"/>
+      <c r="AG38" s="64"/>
+      <c r="AH38" s="64"/>
+      <c r="AI38" s="64"/>
+      <c r="AJ38" s="64"/>
+      <c r="AK38" s="66"/>
+      <c r="AL38" s="63"/>
+      <c r="AM38" s="64"/>
+      <c r="AN38" s="64"/>
+      <c r="AO38" s="64"/>
+      <c r="AP38" s="64"/>
+      <c r="AQ38" s="64"/>
+      <c r="AR38" s="64"/>
+      <c r="AS38" s="64"/>
+      <c r="AT38" s="64"/>
+      <c r="AU38" s="64"/>
+      <c r="AV38" s="64"/>
+      <c r="AW38" s="64"/>
+      <c r="AX38" s="64"/>
+      <c r="AY38" s="43"/>
+      <c r="AZ38" s="46"/>
+      <c r="BA38" s="64"/>
+      <c r="BB38" s="64"/>
+      <c r="BC38" s="64"/>
+      <c r="BD38" s="64"/>
+      <c r="BE38" s="64"/>
+      <c r="BF38" s="64"/>
+      <c r="BG38" s="64"/>
+      <c r="BH38" s="64"/>
+      <c r="BI38" s="64"/>
+      <c r="BJ38" s="64"/>
+      <c r="BK38" s="64"/>
+      <c r="BL38" s="64"/>
+      <c r="BM38" s="64"/>
+      <c r="BN38" s="64"/>
+      <c r="BO38" s="64"/>
+      <c r="BP38" s="64"/>
+      <c r="BQ38" s="66"/>
+    </row>
+    <row r="39" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E39" s="27">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="F39" s="63"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="64"/>
+      <c r="Z39" s="64"/>
+      <c r="AA39" s="64"/>
+      <c r="AB39" s="64"/>
+      <c r="AC39" s="64"/>
+      <c r="AD39" s="64"/>
+      <c r="AE39" s="64"/>
+      <c r="AF39" s="64"/>
+      <c r="AG39" s="64"/>
+      <c r="AH39" s="64"/>
+      <c r="AI39" s="64"/>
+      <c r="AJ39" s="64"/>
+      <c r="AK39" s="66"/>
+      <c r="AL39" s="63"/>
+      <c r="AM39" s="64"/>
+      <c r="AN39" s="64"/>
+      <c r="AO39" s="64"/>
+      <c r="AP39" s="64"/>
+      <c r="AQ39" s="64"/>
+      <c r="AR39" s="64"/>
+      <c r="AS39" s="64"/>
+      <c r="AT39" s="64"/>
+      <c r="AU39" s="64"/>
+      <c r="AV39" s="64"/>
+      <c r="AW39" s="64"/>
+      <c r="AX39" s="64"/>
+      <c r="AY39" s="43"/>
+      <c r="AZ39" s="46"/>
+      <c r="BA39" s="64"/>
+      <c r="BB39" s="64"/>
+      <c r="BC39" s="64"/>
+      <c r="BD39" s="64"/>
+      <c r="BE39" s="64"/>
+      <c r="BF39" s="64"/>
+      <c r="BG39" s="64"/>
+      <c r="BH39" s="64"/>
+      <c r="BI39" s="64"/>
+      <c r="BJ39" s="64"/>
+      <c r="BK39" s="64"/>
+      <c r="BL39" s="64"/>
+      <c r="BM39" s="64"/>
+      <c r="BN39" s="64"/>
+      <c r="BO39" s="64"/>
+      <c r="BP39" s="64"/>
+      <c r="BQ39" s="66"/>
+    </row>
+    <row r="40" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E40" s="27">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="F40" s="63"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="64"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="64"/>
+      <c r="V40" s="64"/>
+      <c r="W40" s="64"/>
+      <c r="X40" s="64"/>
+      <c r="Y40" s="64"/>
+      <c r="Z40" s="64"/>
+      <c r="AA40" s="64"/>
+      <c r="AB40" s="64"/>
+      <c r="AC40" s="64"/>
+      <c r="AD40" s="64"/>
+      <c r="AE40" s="64"/>
+      <c r="AF40" s="64"/>
+      <c r="AG40" s="64"/>
+      <c r="AH40" s="64"/>
+      <c r="AI40" s="64"/>
+      <c r="AJ40" s="64"/>
+      <c r="AK40" s="66"/>
+      <c r="AL40" s="63"/>
+      <c r="AM40" s="64"/>
+      <c r="AN40" s="64"/>
+      <c r="AO40" s="64"/>
+      <c r="AP40" s="64"/>
+      <c r="AQ40" s="64"/>
+      <c r="AR40" s="64"/>
+      <c r="AS40" s="64"/>
+      <c r="AT40" s="64"/>
+      <c r="AU40" s="64"/>
+      <c r="AV40" s="64"/>
+      <c r="AW40" s="64"/>
+      <c r="AX40" s="64"/>
+      <c r="AY40" s="43"/>
+      <c r="AZ40" s="46"/>
+      <c r="BA40" s="64"/>
+      <c r="BB40" s="64"/>
+      <c r="BC40" s="64"/>
+      <c r="BD40" s="64"/>
+      <c r="BE40" s="64"/>
+      <c r="BF40" s="64"/>
+      <c r="BG40" s="64"/>
+      <c r="BH40" s="64"/>
+      <c r="BI40" s="64"/>
+      <c r="BJ40" s="64"/>
+      <c r="BK40" s="64"/>
+      <c r="BL40" s="64"/>
+      <c r="BM40" s="64"/>
+      <c r="BN40" s="64"/>
+      <c r="BO40" s="64"/>
+      <c r="BP40" s="64"/>
+      <c r="BQ40" s="66"/>
+    </row>
+    <row r="41" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E41" s="27">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="F41" s="69"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="67"/>
+      <c r="R41" s="67"/>
+      <c r="S41" s="67"/>
+      <c r="T41" s="67"/>
+      <c r="U41" s="67"/>
+      <c r="V41" s="67"/>
+      <c r="W41" s="67"/>
+      <c r="X41" s="67"/>
+      <c r="Y41" s="67"/>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="67"/>
+      <c r="AB41" s="67"/>
+      <c r="AC41" s="67"/>
+      <c r="AD41" s="67"/>
+      <c r="AE41" s="67"/>
+      <c r="AF41" s="67"/>
+      <c r="AG41" s="67"/>
+      <c r="AH41" s="67"/>
+      <c r="AI41" s="67"/>
+      <c r="AJ41" s="67"/>
+      <c r="AK41" s="68"/>
+      <c r="AL41" s="69"/>
+      <c r="AM41" s="67"/>
+      <c r="AN41" s="67"/>
+      <c r="AO41" s="67"/>
+      <c r="AP41" s="67"/>
+      <c r="AQ41" s="67"/>
+      <c r="AR41" s="67"/>
+      <c r="AS41" s="67"/>
+      <c r="AT41" s="67"/>
+      <c r="AU41" s="67"/>
+      <c r="AV41" s="67"/>
+      <c r="AW41" s="67"/>
+      <c r="AX41" s="67"/>
+      <c r="AY41" s="44"/>
+      <c r="AZ41" s="47"/>
+      <c r="BA41" s="67"/>
+      <c r="BB41" s="67"/>
+      <c r="BC41" s="67"/>
+      <c r="BD41" s="67"/>
+      <c r="BE41" s="67"/>
+      <c r="BF41" s="67"/>
+      <c r="BG41" s="67"/>
+      <c r="BH41" s="67"/>
+      <c r="BI41" s="67"/>
+      <c r="BJ41" s="67"/>
+      <c r="BK41" s="67"/>
+      <c r="BL41" s="67"/>
+      <c r="BM41" s="67"/>
+      <c r="BN41" s="67"/>
+      <c r="BO41" s="67"/>
+      <c r="BP41" s="67"/>
+      <c r="BQ41" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6845_crtc_timing.xlsx
+++ b/6845_crtc_timing.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\iCloudDrive\Documents\Developer\BBC_Micro\Programs\Game_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\iCloudDrive\Documents\Developer\BBC_Micro\Programs\Game_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1793971B-F411-4F02-81DC-28A033748BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7601B7DB-33C7-4F82-A7DC-05BB19A242AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{E881977C-AD55-4380-9786-6EB6D25147A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{E881977C-AD55-4380-9786-6EB6D25147A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="98">
   <si>
     <t>6845 CRTC Vertical Rupture Worksheet</t>
   </si>
@@ -256,6 +280,81 @@
   </si>
   <si>
     <t>Screen Layout</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Start Address (Hex)</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Bytes</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>2C00</t>
+  </si>
+  <si>
+    <t>V.Sync</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Scroll Offset</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Speed</t>
   </si>
 </sst>
 </file>
@@ -265,7 +364,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,8 +395,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +484,84 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -703,12 +886,457 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="24" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="25" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="25" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="25" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="25" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="25" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="25" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF33"/>
+      <color rgb="FF99FF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1040,29 +1668,29 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="Q4" sqref="Q4:Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="4"/>
-    <col min="2" max="2" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="6.81640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="6.81640625" customWidth="1"/>
-    <col min="11" max="13" width="6.81640625" style="4" customWidth="1"/>
-    <col min="14" max="15" width="6.81640625" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.81640625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="7.81640625" customWidth="1"/>
-    <col min="24" max="26" width="6.81640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="6.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" customWidth="1"/>
+    <col min="11" max="13" width="6.77734375" style="4" customWidth="1"/>
+    <col min="14" max="15" width="6.77734375" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.77734375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="7.77734375" customWidth="1"/>
+    <col min="24" max="26" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1708,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="12"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="I2" s="3" t="s">
         <v>32</v>
       </c>
@@ -1107,7 +1735,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +1767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
@@ -1202,7 +1830,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
@@ -1250,7 +1878,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1289,7 +1917,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1328,7 +1956,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="I8" s="22" t="s">
         <v>34</v>
       </c>
@@ -1365,7 +1993,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1405,7 +2033,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>0</v>
       </c>
@@ -1454,7 +2082,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1494,7 +2122,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -1543,7 +2171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>3</v>
       </c>
@@ -1583,7 +2211,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1629,7 +2257,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -1669,7 +2297,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -1718,7 +2346,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -1758,7 +2386,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>7</v>
       </c>
@@ -1807,7 +2435,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>8</v>
       </c>
@@ -1847,7 +2475,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -1893,7 +2521,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1930,7 +2558,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>9</v>
       </c>
@@ -1979,7 +2607,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>10</v>
       </c>
@@ -2019,7 +2647,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>18</v>
       </c>
@@ -2065,7 +2693,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -2102,7 +2730,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>11</v>
       </c>
@@ -2151,7 +2779,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>12</v>
       </c>
@@ -2205,7 +2833,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>13</v>
       </c>
@@ -2258,18 +2886,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC23565D-C8C0-41CF-B4FA-F791AA87DEFC}">
   <dimension ref="A1:BQ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="5" width="5.6328125" style="4" customWidth="1"/>
-    <col min="6" max="69" width="4.7265625" customWidth="1"/>
-    <col min="70" max="133" width="8.7265625" customWidth="1"/>
+    <col min="4" max="5" width="5.6640625" style="4" customWidth="1"/>
+    <col min="6" max="69" width="4.77734375" customWidth="1"/>
+    <col min="70" max="133" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>72</v>
       </c>
@@ -2530,7 +3158,7 @@
         <v>7E</v>
       </c>
     </row>
-    <row r="2" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:69" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D2" s="26"/>
       <c r="E2" s="27"/>
       <c r="F2" s="37">
@@ -2789,7 +3417,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="23" t="str">
         <f>DEC2HEX(E3,2)</f>
         <v>00</v>
@@ -2862,7 +3490,7 @@
       <c r="BP3" s="54"/>
       <c r="BQ3" s="57"/>
     </row>
-    <row r="4" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="8" t="str">
         <f t="shared" ref="D4:D41" si="2">DEC2HEX(E4,2)</f>
         <v>01</v>
@@ -2936,7 +3564,7 @@
       <c r="BP4" s="56"/>
       <c r="BQ4" s="58"/>
     </row>
-    <row r="5" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="8" t="str">
         <f t="shared" si="2"/>
         <v>02</v>
@@ -3010,7 +3638,7 @@
       <c r="BP5" s="56"/>
       <c r="BQ5" s="58"/>
     </row>
-    <row r="6" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="8" t="str">
         <f t="shared" si="2"/>
         <v>03</v>
@@ -3084,7 +3712,7 @@
       <c r="BP6" s="56"/>
       <c r="BQ6" s="58"/>
     </row>
-    <row r="7" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="8" t="str">
         <f t="shared" si="2"/>
         <v>04</v>
@@ -3158,7 +3786,7 @@
       <c r="BP7" s="56"/>
       <c r="BQ7" s="58"/>
     </row>
-    <row r="8" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="8" t="str">
         <f t="shared" si="2"/>
         <v>05</v>
@@ -3232,7 +3860,7 @@
       <c r="BP8" s="56"/>
       <c r="BQ8" s="58"/>
     </row>
-    <row r="9" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="8" t="str">
         <f t="shared" si="2"/>
         <v>06</v>
@@ -3306,7 +3934,7 @@
       <c r="BP9" s="56"/>
       <c r="BQ9" s="58"/>
     </row>
-    <row r="10" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="8" t="str">
         <f t="shared" si="2"/>
         <v>07</v>
@@ -3380,7 +4008,7 @@
       <c r="BP10" s="56"/>
       <c r="BQ10" s="58"/>
     </row>
-    <row r="11" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="8" t="str">
         <f t="shared" si="2"/>
         <v>08</v>
@@ -3454,7 +4082,7 @@
       <c r="BP11" s="56"/>
       <c r="BQ11" s="58"/>
     </row>
-    <row r="12" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="8" t="str">
         <f t="shared" si="2"/>
         <v>09</v>
@@ -3528,7 +4156,7 @@
       <c r="BP12" s="56"/>
       <c r="BQ12" s="58"/>
     </row>
-    <row r="13" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="8" t="str">
         <f t="shared" si="2"/>
         <v>0A</v>
@@ -3602,7 +4230,7 @@
       <c r="BP13" s="56"/>
       <c r="BQ13" s="58"/>
     </row>
-    <row r="14" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="8" t="str">
         <f t="shared" si="2"/>
         <v>0B</v>
@@ -3676,7 +4304,7 @@
       <c r="BP14" s="56"/>
       <c r="BQ14" s="58"/>
     </row>
-    <row r="15" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="8" t="str">
         <f t="shared" si="2"/>
         <v>0C</v>
@@ -3750,7 +4378,7 @@
       <c r="BP15" s="56"/>
       <c r="BQ15" s="58"/>
     </row>
-    <row r="16" spans="1:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="8" t="str">
         <f t="shared" si="2"/>
         <v>0D</v>
@@ -3824,7 +4452,7 @@
       <c r="BP16" s="56"/>
       <c r="BQ16" s="58"/>
     </row>
-    <row r="17" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="8" t="str">
         <f t="shared" si="2"/>
         <v>0E</v>
@@ -3898,7 +4526,7 @@
       <c r="BP17" s="56"/>
       <c r="BQ17" s="58"/>
     </row>
-    <row r="18" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="8" t="str">
         <f t="shared" si="2"/>
         <v>0F</v>
@@ -3972,7 +4600,7 @@
       <c r="BP18" s="56"/>
       <c r="BQ18" s="58"/>
     </row>
-    <row r="19" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="8" t="str">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -4046,7 +4674,7 @@
       <c r="BP19" s="56"/>
       <c r="BQ19" s="58"/>
     </row>
-    <row r="20" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="8" t="str">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -4120,7 +4748,7 @@
       <c r="BP20" s="56"/>
       <c r="BQ20" s="58"/>
     </row>
-    <row r="21" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="8" t="str">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -4194,7 +4822,7 @@
       <c r="BP21" s="56"/>
       <c r="BQ21" s="58"/>
     </row>
-    <row r="22" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="8" t="str">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -4268,7 +4896,7 @@
       <c r="BP22" s="56"/>
       <c r="BQ22" s="58"/>
     </row>
-    <row r="23" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="8" t="str">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -4342,7 +4970,7 @@
       <c r="BP23" s="56"/>
       <c r="BQ23" s="58"/>
     </row>
-    <row r="24" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="8" t="str">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -4416,7 +5044,7 @@
       <c r="BP24" s="56"/>
       <c r="BQ24" s="58"/>
     </row>
-    <row r="25" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="8" t="str">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -4490,7 +5118,7 @@
       <c r="BP25" s="56"/>
       <c r="BQ25" s="58"/>
     </row>
-    <row r="26" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="8" t="str">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -4564,7 +5192,7 @@
       <c r="BP26" s="56"/>
       <c r="BQ26" s="58"/>
     </row>
-    <row r="27" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="23" t="str">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -4638,7 +5266,7 @@
       <c r="BP27" s="54"/>
       <c r="BQ27" s="57"/>
     </row>
-    <row r="28" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="8" t="str">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -4712,7 +5340,7 @@
       <c r="BP28" s="56"/>
       <c r="BQ28" s="58"/>
     </row>
-    <row r="29" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="8" t="str">
         <f t="shared" si="2"/>
         <v>1A</v>
@@ -4786,7 +5414,7 @@
       <c r="BP29" s="56"/>
       <c r="BQ29" s="58"/>
     </row>
-    <row r="30" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="8" t="str">
         <f t="shared" si="2"/>
         <v>1B</v>
@@ -4860,7 +5488,7 @@
       <c r="BP30" s="56"/>
       <c r="BQ30" s="58"/>
     </row>
-    <row r="31" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="8" t="str">
         <f t="shared" si="2"/>
         <v>1C</v>
@@ -4934,7 +5562,7 @@
       <c r="BP31" s="56"/>
       <c r="BQ31" s="58"/>
     </row>
-    <row r="32" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="8" t="str">
         <f t="shared" si="2"/>
         <v>1D</v>
@@ -5008,7 +5636,7 @@
       <c r="BP32" s="56"/>
       <c r="BQ32" s="58"/>
     </row>
-    <row r="33" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="8" t="str">
         <f t="shared" si="2"/>
         <v>1E</v>
@@ -5082,7 +5710,7 @@
       <c r="BP33" s="56"/>
       <c r="BQ33" s="58"/>
     </row>
-    <row r="34" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="49" t="str">
         <f t="shared" si="2"/>
         <v>1F</v>
@@ -5156,7 +5784,7 @@
       <c r="BP34" s="29"/>
       <c r="BQ34" s="30"/>
     </row>
-    <row r="35" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="50" t="str">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -5230,7 +5858,7 @@
       <c r="BP35" s="32"/>
       <c r="BQ35" s="33"/>
     </row>
-    <row r="36" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="51" t="str">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -5304,7 +5932,7 @@
       <c r="BP36" s="35"/>
       <c r="BQ36" s="36"/>
     </row>
-    <row r="37" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="8" t="str">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -5378,7 +6006,7 @@
       <c r="BP37" s="56"/>
       <c r="BQ37" s="58"/>
     </row>
-    <row r="38" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="8" t="str">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -5452,7 +6080,7 @@
       <c r="BP38" s="56"/>
       <c r="BQ38" s="58"/>
     </row>
-    <row r="39" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="8" t="str">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -5526,7 +6154,7 @@
       <c r="BP39" s="56"/>
       <c r="BQ39" s="58"/>
     </row>
-    <row r="40" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="8" t="str">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -5600,7 +6228,7 @@
       <c r="BP40" s="56"/>
       <c r="BQ40" s="58"/>
     </row>
-    <row r="41" spans="4:69" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="8" t="str">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -5677,4 +6305,3132 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9990A00-F3D8-4E56-9C95-A4A5E0390716}">
+  <dimension ref="A1:Q42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="10.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="17" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K1" s="168" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="169" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="180" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="155" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="155" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="155" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="155" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="167" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="154" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="155" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="82">
+        <v>0</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="84">
+        <v>32</v>
+      </c>
+      <c r="G3" s="85">
+        <v>0</v>
+      </c>
+      <c r="H3" s="86">
+        <v>1</v>
+      </c>
+      <c r="I3" s="80">
+        <f>C3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="80" t="str">
+        <f>DEC2HEX(IF(G3=0,H3*F3*16,0),4)</f>
+        <v>0200</v>
+      </c>
+      <c r="K3" s="93" t="str" cm="1">
+        <f t="array" aca="1" ref="K3" ca="1">IF(G3=0,DEC2HEX(HEX2DEC($A$3)),INDIRECT("K"&amp;(G3+3)))</f>
+        <v>2C00</v>
+      </c>
+      <c r="L3" s="156" t="str">
+        <f ca="1">DEC2HEX(HEX2DEC(K3)+HEX2DEC(J3)-1)</f>
+        <v>2DFF</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C4" s="157">
+        <f>C3+1</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="96">
+        <v>32</v>
+      </c>
+      <c r="G4" s="75">
+        <v>0</v>
+      </c>
+      <c r="H4" s="77">
+        <v>1</v>
+      </c>
+      <c r="I4" s="87">
+        <f>I3+HEX2DEC(J3)/512</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="87" t="str">
+        <f t="shared" ref="J4:J26" si="0">DEC2HEX(IF(G4=0,H4*F4*16,0),4)</f>
+        <v>0200</v>
+      </c>
+      <c r="K4" s="91" t="str" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1">IF(G4=0,DEC2HEX(HEX2DEC($A$3)+I4*512,4),INDIRECT("K"&amp;(G4+3)))</f>
+        <v>2E00</v>
+      </c>
+      <c r="L4" s="158" t="str">
+        <f t="shared" ref="L4:L26" ca="1" si="1">DEC2HEX(HEX2DEC(K4)+HEX2DEC(J4)-1)</f>
+        <v>2FFF</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C5" s="159">
+        <f>C4+1</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="97">
+        <v>32</v>
+      </c>
+      <c r="G5" s="76">
+        <v>0</v>
+      </c>
+      <c r="H5" s="78">
+        <v>1</v>
+      </c>
+      <c r="I5" s="82">
+        <f t="shared" ref="I5:I26" si="2">I4+HEX2DEC(J4)/512</f>
+        <v>2</v>
+      </c>
+      <c r="J5" s="82" t="str">
+        <f t="shared" si="0"/>
+        <v>0200</v>
+      </c>
+      <c r="K5" s="94" t="str" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1">IF(G5=0,DEC2HEX(HEX2DEC($A$3)+I5*512,4),INDIRECT("K"&amp;(G5+3)))</f>
+        <v>3000</v>
+      </c>
+      <c r="L5" s="160" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>31FF</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C6" s="161">
+        <f>C5+1</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="98">
+        <v>32</v>
+      </c>
+      <c r="G6" s="88">
+        <v>0</v>
+      </c>
+      <c r="H6" s="79">
+        <v>1</v>
+      </c>
+      <c r="I6" s="89">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J6" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>0200</v>
+      </c>
+      <c r="K6" s="92" t="str" cm="1">
+        <f t="array" aca="1" ref="K6" ca="1">IF(G6=0,DEC2HEX(HEX2DEC($A$3)+I6*512,4),INDIRECT("K"&amp;(G6+3)))</f>
+        <v>3200</v>
+      </c>
+      <c r="L6" s="162" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>33FF</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C7" s="80">
+        <f>C6+1</f>
+        <v>4</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="84">
+        <v>32</v>
+      </c>
+      <c r="G7" s="85">
+        <v>0</v>
+      </c>
+      <c r="H7" s="86">
+        <v>4</v>
+      </c>
+      <c r="I7" s="80">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J7" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>0800</v>
+      </c>
+      <c r="K7" s="95" t="str" cm="1">
+        <f t="array" aca="1" ref="K7" ca="1">IF(G7=0,DEC2HEX(HEX2DEC($A$3)+I7*512,4),INDIRECT("K"&amp;(G7+3)))</f>
+        <v>3400</v>
+      </c>
+      <c r="L7" s="163" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3BFF</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C8" s="89">
+        <f>C7+1</f>
+        <v>5</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="74">
+        <v>32</v>
+      </c>
+      <c r="G8" s="88">
+        <v>0</v>
+      </c>
+      <c r="H8" s="79">
+        <v>4</v>
+      </c>
+      <c r="I8" s="89">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J8" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>0800</v>
+      </c>
+      <c r="K8" s="92" t="str" cm="1">
+        <f t="array" aca="1" ref="K8" ca="1">IF(G8=0,DEC2HEX(HEX2DEC($A$3)+I8*512,4),INDIRECT("K"&amp;(G8+3)))</f>
+        <v>3C00</v>
+      </c>
+      <c r="L8" s="164" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>43FF</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C9" s="80">
+        <f>C8+1</f>
+        <v>6</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="84">
+        <v>32</v>
+      </c>
+      <c r="G9" s="85">
+        <v>0</v>
+      </c>
+      <c r="H9" s="86">
+        <v>4</v>
+      </c>
+      <c r="I9" s="80">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="J9" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>0800</v>
+      </c>
+      <c r="K9" s="95" t="str" cm="1">
+        <f t="array" aca="1" ref="K9" ca="1">IF(G9=0,DEC2HEX(HEX2DEC($A$3)+I9*512,4),INDIRECT("K"&amp;(G9+3)))</f>
+        <v>4400</v>
+      </c>
+      <c r="L9" s="163" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4BFF</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C10" s="89">
+        <f>C9+1</f>
+        <v>7</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="74">
+        <v>32</v>
+      </c>
+      <c r="G10" s="88">
+        <v>0</v>
+      </c>
+      <c r="H10" s="79">
+        <v>4</v>
+      </c>
+      <c r="I10" s="89">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="J10" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>0800</v>
+      </c>
+      <c r="K10" s="92" t="str" cm="1">
+        <f t="array" aca="1" ref="K10" ca="1">IF(G10=0,DEC2HEX(HEX2DEC($A$3)+I10*512,4),INDIRECT("K"&amp;(G10+3)))</f>
+        <v>4C00</v>
+      </c>
+      <c r="L10" s="164" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>53FF</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C11" s="80">
+        <f>C10+1</f>
+        <v>8</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="84">
+        <v>32</v>
+      </c>
+      <c r="G11" s="85">
+        <v>4</v>
+      </c>
+      <c r="H11" s="86">
+        <v>4</v>
+      </c>
+      <c r="I11" s="80">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J11" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="K11" s="95" t="str" cm="1">
+        <f t="array" aca="1" ref="K11" ca="1">IF(G11=0,DEC2HEX(HEX2DEC($A$3)+I11*512,4),INDIRECT("K"&amp;(G11+3)))</f>
+        <v>3400</v>
+      </c>
+      <c r="L11" s="165" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>33FF</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C12" s="89">
+        <f>C11+1</f>
+        <v>9</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="74">
+        <v>32</v>
+      </c>
+      <c r="G12" s="88">
+        <v>5</v>
+      </c>
+      <c r="H12" s="79">
+        <v>4</v>
+      </c>
+      <c r="I12" s="89">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J12" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="K12" s="92" t="str" cm="1">
+        <f t="array" aca="1" ref="K12" ca="1">IF(G12=0,DEC2HEX(HEX2DEC($A$3)+I12*512,4),INDIRECT("K"&amp;(G12+3)))</f>
+        <v>3C00</v>
+      </c>
+      <c r="L12" s="166" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3BFF</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C13" s="80">
+        <f>C12+1</f>
+        <v>10</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="84">
+        <v>32</v>
+      </c>
+      <c r="G13" s="85">
+        <v>6</v>
+      </c>
+      <c r="H13" s="86">
+        <v>4</v>
+      </c>
+      <c r="I13" s="80">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J13" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="K13" s="95" t="str" cm="1">
+        <f t="array" aca="1" ref="K13" ca="1">IF(G13=0,DEC2HEX(HEX2DEC($A$3)+I13*512,4),INDIRECT("K"&amp;(G13+3)))</f>
+        <v>4400</v>
+      </c>
+      <c r="L13" s="165" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>43FF</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C14" s="89">
+        <f>C13+1</f>
+        <v>11</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="74">
+        <v>32</v>
+      </c>
+      <c r="G14" s="88">
+        <v>7</v>
+      </c>
+      <c r="H14" s="79">
+        <v>4</v>
+      </c>
+      <c r="I14" s="89">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J14" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="K14" s="92" t="str" cm="1">
+        <f t="array" aca="1" ref="K14" ca="1">IF(G14=0,DEC2HEX(HEX2DEC($A$3)+I14*512,4),INDIRECT("K"&amp;(G14+3)))</f>
+        <v>4C00</v>
+      </c>
+      <c r="L14" s="166" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4BFF</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C15" s="80">
+        <f>C14+1</f>
+        <v>12</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="84">
+        <v>32</v>
+      </c>
+      <c r="G15" s="85">
+        <v>0</v>
+      </c>
+      <c r="H15" s="86">
+        <v>1</v>
+      </c>
+      <c r="I15" s="80">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J15" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>0200</v>
+      </c>
+      <c r="K15" s="95" t="str" cm="1">
+        <f t="array" aca="1" ref="K15" ca="1">IF(G15=0,DEC2HEX(HEX2DEC($A$3)+I15*512,4),INDIRECT("K"&amp;(G15+3)))</f>
+        <v>5400</v>
+      </c>
+      <c r="L15" s="163" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>55FF</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C16" s="89">
+        <f>C15+1</f>
+        <v>13</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="74">
+        <v>32</v>
+      </c>
+      <c r="G16" s="88">
+        <v>0</v>
+      </c>
+      <c r="H16" s="79">
+        <v>1</v>
+      </c>
+      <c r="I16" s="89">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="J16" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>0200</v>
+      </c>
+      <c r="K16" s="92" t="str" cm="1">
+        <f t="array" aca="1" ref="K16" ca="1">IF(G16=0,DEC2HEX(HEX2DEC($A$3)+I16*512,4),INDIRECT("K"&amp;(G16+3)))</f>
+        <v>5600</v>
+      </c>
+      <c r="L16" s="164" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>57FF</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="80">
+        <f>C16+1</f>
+        <v>14</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="84">
+        <v>32</v>
+      </c>
+      <c r="G17" s="85">
+        <v>0</v>
+      </c>
+      <c r="H17" s="86">
+        <v>4</v>
+      </c>
+      <c r="I17" s="80">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="J17" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>0800</v>
+      </c>
+      <c r="K17" s="95" t="str" cm="1">
+        <f t="array" aca="1" ref="K17" ca="1">IF(G17=0,DEC2HEX(HEX2DEC($A$3)+I17*512,4),INDIRECT("K"&amp;(G17+3)))</f>
+        <v>5800</v>
+      </c>
+      <c r="L17" s="156" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>5FFF</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="89">
+        <f>C17+1</f>
+        <v>15</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="74">
+        <v>32</v>
+      </c>
+      <c r="G18" s="88">
+        <v>0</v>
+      </c>
+      <c r="H18" s="79">
+        <v>4</v>
+      </c>
+      <c r="I18" s="89">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="J18" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>0800</v>
+      </c>
+      <c r="K18" s="92" t="str" cm="1">
+        <f t="array" aca="1" ref="K18" ca="1">IF(G18=0,DEC2HEX(HEX2DEC($A$3)+I18*512,4),INDIRECT("K"&amp;(G18+3)))</f>
+        <v>6000</v>
+      </c>
+      <c r="L18" s="162" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>67FF</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C19" s="80">
+        <f>C18+1</f>
+        <v>16</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="84">
+        <v>32</v>
+      </c>
+      <c r="G19" s="85">
+        <v>0</v>
+      </c>
+      <c r="H19" s="86">
+        <v>2</v>
+      </c>
+      <c r="I19" s="80">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J19" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>0400</v>
+      </c>
+      <c r="K19" s="95" t="str" cm="1">
+        <f t="array" aca="1" ref="K19" ca="1">IF(G19=0,DEC2HEX(HEX2DEC($A$3)+I19*512,4),INDIRECT("K"&amp;(G19+3)))</f>
+        <v>6800</v>
+      </c>
+      <c r="L19" s="156" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>6BFF</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="89">
+        <f>C19+1</f>
+        <v>17</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="74">
+        <v>32</v>
+      </c>
+      <c r="G20" s="88">
+        <v>0</v>
+      </c>
+      <c r="H20" s="79">
+        <v>2</v>
+      </c>
+      <c r="I20" s="89">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="J20" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>0400</v>
+      </c>
+      <c r="K20" s="92" t="str" cm="1">
+        <f t="array" aca="1" ref="K20" ca="1">IF(G20=0,DEC2HEX(HEX2DEC($A$3)+I20*512,4),INDIRECT("K"&amp;(G20+3)))</f>
+        <v>6C00</v>
+      </c>
+      <c r="L20" s="166" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>6FFF</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C21" s="80">
+        <f>C20+1</f>
+        <v>18</v>
+      </c>
+      <c r="D21" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="84">
+        <v>32</v>
+      </c>
+      <c r="G21" s="85">
+        <v>16</v>
+      </c>
+      <c r="H21" s="86">
+        <v>2</v>
+      </c>
+      <c r="I21" s="80">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="J21" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="K21" s="95" t="str" cm="1">
+        <f t="array" aca="1" ref="K21" ca="1">IF(G21=0,DEC2HEX(HEX2DEC($A$3)+I21*512,4),INDIRECT("K"&amp;(G21+3)))</f>
+        <v>6800</v>
+      </c>
+      <c r="L21" s="165" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>67FF</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C22" s="89">
+        <f>C21+1</f>
+        <v>19</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="74">
+        <v>32</v>
+      </c>
+      <c r="G22" s="88">
+        <v>17</v>
+      </c>
+      <c r="H22" s="79">
+        <v>2</v>
+      </c>
+      <c r="I22" s="89">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="J22" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="K22" s="92" t="str" cm="1">
+        <f t="array" aca="1" ref="K22" ca="1">IF(G22=0,DEC2HEX(HEX2DEC($A$3)+I22*512,4),INDIRECT("K"&amp;(G22+3)))</f>
+        <v>6C00</v>
+      </c>
+      <c r="L22" s="166" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>6BFF</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C23" s="80">
+        <f>C22+1</f>
+        <v>20</v>
+      </c>
+      <c r="D23" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="84">
+        <v>32</v>
+      </c>
+      <c r="G23" s="85">
+        <v>0</v>
+      </c>
+      <c r="H23" s="86">
+        <v>4</v>
+      </c>
+      <c r="I23" s="80">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="J23" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>0800</v>
+      </c>
+      <c r="K23" s="95" t="str" cm="1">
+        <f t="array" aca="1" ref="K23" ca="1">IF(G23=0,DEC2HEX(HEX2DEC($A$3)+I23*512,4),INDIRECT("K"&amp;(G23+3)))</f>
+        <v>7000</v>
+      </c>
+      <c r="L23" s="165" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>77FF</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C24" s="89">
+        <f>C23+1</f>
+        <v>21</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="74">
+        <v>32</v>
+      </c>
+      <c r="G24" s="88">
+        <v>0</v>
+      </c>
+      <c r="H24" s="79">
+        <v>4</v>
+      </c>
+      <c r="I24" s="89">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="J24" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>0800</v>
+      </c>
+      <c r="K24" s="92" t="str" cm="1">
+        <f t="array" aca="1" ref="K24" ca="1">IF(G24=0,DEC2HEX(HEX2DEC($A$3)+I24*512,4),INDIRECT("K"&amp;(G24+3)))</f>
+        <v>7800</v>
+      </c>
+      <c r="L24" s="166" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>7FFF</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C25" s="80">
+        <f>C24+1</f>
+        <v>22</v>
+      </c>
+      <c r="D25" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="84">
+        <v>32</v>
+      </c>
+      <c r="G25" s="85">
+        <v>12</v>
+      </c>
+      <c r="H25" s="86">
+        <v>1</v>
+      </c>
+      <c r="I25" s="80">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="J25" s="80" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="K25" s="95" t="str" cm="1">
+        <f t="array" aca="1" ref="K25" ca="1">IF(G25=0,DEC2HEX(HEX2DEC($A$3)+I25*512,4),INDIRECT("K"&amp;(G25+3)))</f>
+        <v>5400</v>
+      </c>
+      <c r="L25" s="165" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>53FF</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C26" s="81">
+        <f>C25+1</f>
+        <v>23</v>
+      </c>
+      <c r="D26" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="74">
+        <v>32</v>
+      </c>
+      <c r="G26" s="88">
+        <v>13</v>
+      </c>
+      <c r="H26" s="79">
+        <v>1</v>
+      </c>
+      <c r="I26" s="89">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="J26" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="K26" s="92" t="str" cm="1">
+        <f t="array" aca="1" ref="K26" ca="1">IF(G26=0,DEC2HEX(HEX2DEC($A$3)+I26*512,4),INDIRECT("K"&amp;(G26+3)))</f>
+        <v>5600</v>
+      </c>
+      <c r="L26" s="166" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>55FF</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C27" s="80">
+        <f>C26+1</f>
+        <v>24</v>
+      </c>
+      <c r="D27" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="171"/>
+      <c r="L27" s="103"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C28" s="81">
+        <f>C27+1</f>
+        <v>25</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="68"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C29" s="82">
+        <f>C28+1</f>
+        <v>26</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="68"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C30" s="81">
+        <f>C29+1</f>
+        <v>27</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="68"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C31" s="82">
+        <f>C30+1</f>
+        <v>28</v>
+      </c>
+      <c r="D31" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="68"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C32" s="81">
+        <f>C31+1</f>
+        <v>29</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="68"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C33" s="82">
+        <f>C32+1</f>
+        <v>30</v>
+      </c>
+      <c r="D33" s="106" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="106"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C34" s="87">
+        <f>C33+1</f>
+        <v>31</v>
+      </c>
+      <c r="D34" s="174" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="173"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="173"/>
+      <c r="L34" s="174"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C35" s="82">
+        <f>C34+1</f>
+        <v>32</v>
+      </c>
+      <c r="D35" s="176" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="175"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="175"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="175"/>
+      <c r="K35" s="175"/>
+      <c r="L35" s="176"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="89">
+        <f>C35+1</f>
+        <v>33</v>
+      </c>
+      <c r="D36" s="178" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="177"/>
+      <c r="L36" s="178"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C37" s="82">
+        <f>C36+1</f>
+        <v>34</v>
+      </c>
+      <c r="D37" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="103"/>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C38" s="81">
+        <f>C37+1</f>
+        <v>35</v>
+      </c>
+      <c r="D38" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="68"/>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C39" s="82">
+        <f>C38+1</f>
+        <v>36</v>
+      </c>
+      <c r="D39" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="68"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C40" s="81">
+        <f>C39+1</f>
+        <v>37</v>
+      </c>
+      <c r="D40" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="68"/>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C41" s="90">
+        <f>C40+1</f>
+        <v>38</v>
+      </c>
+      <c r="D41" s="106" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="106"/>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C42" s="170"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F481C70-9657-4394-93E6-4755D8687536}">
+  <dimension ref="B1:AT28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AV16" sqref="AV16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="10.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="35" width="3.77734375" customWidth="1"/>
+    <col min="36" max="39" width="8.88671875" style="4" customWidth="1"/>
+    <col min="41" max="41" width="8.88671875" style="9"/>
+    <col min="42" max="42" width="8.88671875" style="4"/>
+    <col min="44" max="45" width="8.88671875" style="9"/>
+    <col min="46" max="46" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="AO1" s="186" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP1" s="188" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ1" s="189"/>
+      <c r="AR1" s="183" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS1" s="184"/>
+      <c r="AT1" s="193" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="204">
+        <v>0</v>
+      </c>
+      <c r="E2" s="204">
+        <f>D2+1</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="204">
+        <f t="shared" ref="F2:AI2" si="0">E2+1</f>
+        <v>2</v>
+      </c>
+      <c r="G2" s="204">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H2" s="204">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I2" s="204">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J2" s="204">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K2" s="204">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L2" s="204">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M2" s="204">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N2" s="204">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O2" s="204">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="P2" s="204">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q2" s="204">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R2" s="204">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="S2" s="204">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T2" s="204">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="U2" s="204">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="V2" s="204">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="W2" s="204">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="X2" s="203">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Y2" s="203">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Z2" s="203">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AA2" s="203">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AB2" s="203">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AC2" s="203">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AD2" s="203">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AE2" s="203">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AF2" s="204">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AG2" s="204">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AH2" s="204">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AI2" s="204">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AO2" s="185" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP2" s="194" t="s">
+        <v>95</v>
+      </c>
+      <c r="AQ2" s="194" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR2" s="187" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS2" s="185" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT2" s="190" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="107">
+        <v>0</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="114" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="110" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="110"/>
+      <c r="J3" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="110">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="110">
+        <v>0</v>
+      </c>
+      <c r="R3" s="110">
+        <v>0</v>
+      </c>
+      <c r="S3" s="110">
+        <v>0</v>
+      </c>
+      <c r="T3" s="110">
+        <v>0</v>
+      </c>
+      <c r="U3" s="110">
+        <v>0</v>
+      </c>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="205"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="206"/>
+      <c r="AA3" s="206"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="206"/>
+      <c r="AD3" s="206"/>
+      <c r="AE3" s="207"/>
+      <c r="AF3" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG3" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH3" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI3" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ3" s="208">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="116" t="str">
+        <f>DEC2HEX(AJ3*2+44,2)</f>
+        <v>2C</v>
+      </c>
+      <c r="AP3" s="191">
+        <v>-1</v>
+      </c>
+      <c r="AQ3" s="192">
+        <v>-1</v>
+      </c>
+      <c r="AR3" s="182">
+        <v>-1</v>
+      </c>
+      <c r="AS3" s="182">
+        <v>-1</v>
+      </c>
+      <c r="AT3" s="109">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="112">
+        <f>B3+1</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="130"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="131"/>
+      <c r="X4" s="131"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
+      <c r="AG4" s="131"/>
+      <c r="AH4" s="131"/>
+      <c r="AI4" s="133"/>
+      <c r="AJ4" s="209">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="116" t="str">
+        <f t="shared" ref="AO4:AO26" si="1">DEC2HEX(AJ4*2+44,2)</f>
+        <v>2E</v>
+      </c>
+      <c r="AP4" s="191">
+        <v>-1</v>
+      </c>
+      <c r="AQ4" s="192">
+        <v>-1</v>
+      </c>
+      <c r="AR4" s="182">
+        <v>-1</v>
+      </c>
+      <c r="AS4" s="182">
+        <v>-1</v>
+      </c>
+      <c r="AT4" s="114">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="117">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="123"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="124"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="124"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="137"/>
+      <c r="AA5" s="124"/>
+      <c r="AB5" s="124"/>
+      <c r="AC5" s="124"/>
+      <c r="AD5" s="124"/>
+      <c r="AE5" s="134"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="124"/>
+      <c r="AH5" s="124"/>
+      <c r="AI5" s="125"/>
+      <c r="AJ5" s="210">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="AP5" s="191">
+        <v>-1</v>
+      </c>
+      <c r="AQ5" s="192">
+        <v>-1</v>
+      </c>
+      <c r="AR5" s="182">
+        <v>-1</v>
+      </c>
+      <c r="AS5" s="182">
+        <v>-1</v>
+      </c>
+      <c r="AT5" s="114">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="118">
+        <f>B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="127"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="136"/>
+      <c r="T6" s="138"/>
+      <c r="U6" s="128"/>
+      <c r="V6" s="128"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="128"/>
+      <c r="Y6" s="136"/>
+      <c r="Z6" s="138"/>
+      <c r="AA6" s="128"/>
+      <c r="AB6" s="128"/>
+      <c r="AC6" s="128"/>
+      <c r="AD6" s="128"/>
+      <c r="AE6" s="136"/>
+      <c r="AF6" s="138"/>
+      <c r="AG6" s="128"/>
+      <c r="AH6" s="128"/>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="211">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="AP6" s="191">
+        <v>-1</v>
+      </c>
+      <c r="AQ6" s="192">
+        <v>-1</v>
+      </c>
+      <c r="AR6" s="182">
+        <v>-1</v>
+      </c>
+      <c r="AS6" s="182">
+        <v>-1</v>
+      </c>
+      <c r="AT6" s="114">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="120">
+        <f>B6+1</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="136"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="126"/>
+      <c r="AJ7" s="134">
+        <v>4</v>
+      </c>
+      <c r="AK7" s="135">
+        <v>5</v>
+      </c>
+      <c r="AL7" s="135">
+        <v>6</v>
+      </c>
+      <c r="AM7" s="137">
+        <v>7</v>
+      </c>
+      <c r="AO7" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="AP7" s="114">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="116">
+        <v>3</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>64</v>
+      </c>
+      <c r="AT7" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="122">
+        <f>B7+1</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="119" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="136"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+      <c r="AA8" s="126"/>
+      <c r="AB8" s="126"/>
+      <c r="AC8" s="126"/>
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="126"/>
+      <c r="AG8" s="126"/>
+      <c r="AH8" s="126"/>
+      <c r="AI8" s="126"/>
+      <c r="AJ8" s="151">
+        <v>8</v>
+      </c>
+      <c r="AK8" s="152">
+        <v>9</v>
+      </c>
+      <c r="AL8" s="152">
+        <v>10</v>
+      </c>
+      <c r="AM8" s="153">
+        <v>11</v>
+      </c>
+      <c r="AO8" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>3C</v>
+      </c>
+      <c r="AP8" s="114">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="116">
+        <v>3</v>
+      </c>
+      <c r="AR8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="9">
+        <v>64</v>
+      </c>
+      <c r="AT8" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="120">
+        <f>B8+1</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="136"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="126"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="126"/>
+      <c r="Y9" s="126"/>
+      <c r="Z9" s="126"/>
+      <c r="AA9" s="126"/>
+      <c r="AB9" s="126"/>
+      <c r="AC9" s="126"/>
+      <c r="AD9" s="126"/>
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="126"/>
+      <c r="AJ9" s="134">
+        <v>12</v>
+      </c>
+      <c r="AK9" s="135">
+        <v>13</v>
+      </c>
+      <c r="AL9" s="135">
+        <v>14</v>
+      </c>
+      <c r="AM9" s="137">
+        <v>15</v>
+      </c>
+      <c r="AO9" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="AP9" s="114">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="116">
+        <v>3</v>
+      </c>
+      <c r="AR9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="9">
+        <v>64</v>
+      </c>
+      <c r="AT9" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="122">
+        <f>B9+1</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="119" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="136"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="126"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="126"/>
+      <c r="AB10" s="126"/>
+      <c r="AC10" s="126"/>
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="126"/>
+      <c r="AF10" s="126"/>
+      <c r="AG10" s="126"/>
+      <c r="AH10" s="126"/>
+      <c r="AI10" s="126"/>
+      <c r="AJ10" s="151">
+        <v>16</v>
+      </c>
+      <c r="AK10" s="152">
+        <v>17</v>
+      </c>
+      <c r="AL10" s="152">
+        <v>18</v>
+      </c>
+      <c r="AM10" s="153">
+        <v>19</v>
+      </c>
+      <c r="AO10" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>4C</v>
+      </c>
+      <c r="AP10" s="114">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="116">
+        <v>3</v>
+      </c>
+      <c r="AR10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="9">
+        <v>64</v>
+      </c>
+      <c r="AT10" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="120">
+        <f>B10+1</f>
+        <v>8</v>
+      </c>
+      <c r="C11" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="136"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="126"/>
+      <c r="W11" s="126"/>
+      <c r="X11" s="126"/>
+      <c r="Y11" s="126"/>
+      <c r="Z11" s="126"/>
+      <c r="AA11" s="126"/>
+      <c r="AB11" s="126"/>
+      <c r="AC11" s="126"/>
+      <c r="AD11" s="126"/>
+      <c r="AE11" s="126"/>
+      <c r="AF11" s="126"/>
+      <c r="AG11" s="126"/>
+      <c r="AH11" s="126"/>
+      <c r="AI11" s="126"/>
+      <c r="AJ11" s="134">
+        <v>4</v>
+      </c>
+      <c r="AK11" s="135">
+        <v>5</v>
+      </c>
+      <c r="AL11" s="135">
+        <v>6</v>
+      </c>
+      <c r="AM11" s="137">
+        <v>7</v>
+      </c>
+      <c r="AO11" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="AP11" s="114">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="116">
+        <v>3</v>
+      </c>
+      <c r="AR11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="9">
+        <v>64</v>
+      </c>
+      <c r="AT11" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="122">
+        <f>B11+1</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="119" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="136"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="126"/>
+      <c r="S12" s="126"/>
+      <c r="T12" s="126"/>
+      <c r="U12" s="126"/>
+      <c r="V12" s="126"/>
+      <c r="W12" s="126"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="126"/>
+      <c r="AA12" s="126"/>
+      <c r="AB12" s="126"/>
+      <c r="AC12" s="126"/>
+      <c r="AD12" s="126"/>
+      <c r="AE12" s="126"/>
+      <c r="AF12" s="126"/>
+      <c r="AG12" s="126"/>
+      <c r="AH12" s="126"/>
+      <c r="AI12" s="126"/>
+      <c r="AJ12" s="151">
+        <v>8</v>
+      </c>
+      <c r="AK12" s="152">
+        <v>9</v>
+      </c>
+      <c r="AL12" s="152">
+        <v>10</v>
+      </c>
+      <c r="AM12" s="153">
+        <v>11</v>
+      </c>
+      <c r="AO12" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>3C</v>
+      </c>
+      <c r="AP12" s="114">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="116">
+        <v>3</v>
+      </c>
+      <c r="AR12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="9">
+        <v>64</v>
+      </c>
+      <c r="AT12" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="120">
+        <f>B12+1</f>
+        <v>10</v>
+      </c>
+      <c r="C13" s="121" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="136"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="126"/>
+      <c r="T13" s="126"/>
+      <c r="U13" s="126"/>
+      <c r="V13" s="126"/>
+      <c r="W13" s="126"/>
+      <c r="X13" s="126"/>
+      <c r="Y13" s="126"/>
+      <c r="Z13" s="126"/>
+      <c r="AA13" s="126"/>
+      <c r="AB13" s="126"/>
+      <c r="AC13" s="126"/>
+      <c r="AD13" s="126"/>
+      <c r="AE13" s="126"/>
+      <c r="AF13" s="126"/>
+      <c r="AG13" s="126"/>
+      <c r="AH13" s="126"/>
+      <c r="AI13" s="126"/>
+      <c r="AJ13" s="136">
+        <v>12</v>
+      </c>
+      <c r="AK13" s="126">
+        <v>13</v>
+      </c>
+      <c r="AL13" s="126">
+        <v>14</v>
+      </c>
+      <c r="AM13" s="138">
+        <v>15</v>
+      </c>
+      <c r="AO13" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="AP13" s="114">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="116">
+        <v>3</v>
+      </c>
+      <c r="AR13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="9">
+        <v>64</v>
+      </c>
+      <c r="AT13" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="122">
+        <f>B13+1</f>
+        <v>11</v>
+      </c>
+      <c r="C14" s="119" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="136"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="126"/>
+      <c r="S14" s="126"/>
+      <c r="T14" s="126"/>
+      <c r="U14" s="126"/>
+      <c r="V14" s="126"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="126"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="126"/>
+      <c r="AC14" s="126"/>
+      <c r="AD14" s="126"/>
+      <c r="AE14" s="126"/>
+      <c r="AF14" s="126"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="126"/>
+      <c r="AJ14" s="151">
+        <v>16</v>
+      </c>
+      <c r="AK14" s="152">
+        <v>17</v>
+      </c>
+      <c r="AL14" s="152">
+        <v>18</v>
+      </c>
+      <c r="AM14" s="153">
+        <v>19</v>
+      </c>
+      <c r="AO14" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>4C</v>
+      </c>
+      <c r="AP14" s="114">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="116">
+        <v>3</v>
+      </c>
+      <c r="AR14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="9">
+        <v>64</v>
+      </c>
+      <c r="AT14" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="120">
+        <f>B14+1</f>
+        <v>12</v>
+      </c>
+      <c r="C15" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="148"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="149"/>
+      <c r="O15" s="149"/>
+      <c r="P15" s="149"/>
+      <c r="Q15" s="149"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="149"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="149"/>
+      <c r="V15" s="149"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="149"/>
+      <c r="Z15" s="149"/>
+      <c r="AA15" s="149"/>
+      <c r="AB15" s="149"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="149"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="149"/>
+      <c r="AG15" s="149"/>
+      <c r="AH15" s="149"/>
+      <c r="AI15" s="150"/>
+      <c r="AJ15" s="208">
+        <v>20</v>
+      </c>
+      <c r="AO15" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="AP15" s="191">
+        <v>-1</v>
+      </c>
+      <c r="AQ15" s="192">
+        <v>-1</v>
+      </c>
+      <c r="AR15" s="182">
+        <v>-1</v>
+      </c>
+      <c r="AS15" s="182">
+        <v>-1</v>
+      </c>
+      <c r="AT15" s="114">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="122">
+        <f>B15+1</f>
+        <v>13</v>
+      </c>
+      <c r="C16" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="139"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="140"/>
+      <c r="L16" s="140"/>
+      <c r="M16" s="140"/>
+      <c r="N16" s="140"/>
+      <c r="O16" s="140"/>
+      <c r="P16" s="140"/>
+      <c r="Q16" s="140"/>
+      <c r="R16" s="140"/>
+      <c r="S16" s="140"/>
+      <c r="T16" s="140"/>
+      <c r="U16" s="140"/>
+      <c r="V16" s="140"/>
+      <c r="W16" s="140"/>
+      <c r="X16" s="140"/>
+      <c r="Y16" s="140"/>
+      <c r="Z16" s="140"/>
+      <c r="AA16" s="140"/>
+      <c r="AB16" s="140"/>
+      <c r="AC16" s="140"/>
+      <c r="AD16" s="140"/>
+      <c r="AE16" s="140"/>
+      <c r="AF16" s="140"/>
+      <c r="AG16" s="140"/>
+      <c r="AH16" s="140"/>
+      <c r="AI16" s="141"/>
+      <c r="AJ16" s="211">
+        <v>21</v>
+      </c>
+      <c r="AO16" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="AP16" s="191">
+        <v>-1</v>
+      </c>
+      <c r="AQ16" s="192">
+        <v>-1</v>
+      </c>
+      <c r="AR16" s="182">
+        <v>-1</v>
+      </c>
+      <c r="AS16" s="182">
+        <v>-1</v>
+      </c>
+      <c r="AT16" s="114">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="120">
+        <f>B16+1</f>
+        <v>14</v>
+      </c>
+      <c r="C17" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="145"/>
+      <c r="T17" s="145"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="145"/>
+      <c r="X17" s="145"/>
+      <c r="Y17" s="145"/>
+      <c r="Z17" s="145"/>
+      <c r="AA17" s="145"/>
+      <c r="AB17" s="145"/>
+      <c r="AC17" s="145"/>
+      <c r="AD17" s="145"/>
+      <c r="AE17" s="145"/>
+      <c r="AF17" s="145"/>
+      <c r="AG17" s="145"/>
+      <c r="AH17" s="145"/>
+      <c r="AI17" s="145"/>
+      <c r="AJ17" s="195">
+        <v>22</v>
+      </c>
+      <c r="AK17" s="196">
+        <v>23</v>
+      </c>
+      <c r="AL17" s="196">
+        <v>24</v>
+      </c>
+      <c r="AM17" s="197">
+        <v>25</v>
+      </c>
+      <c r="AO17" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="AP17" s="114">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="116">
+        <v>3</v>
+      </c>
+      <c r="AR17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="9">
+        <v>64</v>
+      </c>
+      <c r="AT17" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="122">
+        <f>B17+1</f>
+        <v>15</v>
+      </c>
+      <c r="C18" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="142"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="143"/>
+      <c r="R18" s="143"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="143"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="143"/>
+      <c r="W18" s="143"/>
+      <c r="X18" s="143"/>
+      <c r="Y18" s="143"/>
+      <c r="Z18" s="143"/>
+      <c r="AA18" s="143"/>
+      <c r="AB18" s="143"/>
+      <c r="AC18" s="143"/>
+      <c r="AD18" s="143"/>
+      <c r="AE18" s="143"/>
+      <c r="AF18" s="143"/>
+      <c r="AG18" s="143"/>
+      <c r="AH18" s="143"/>
+      <c r="AI18" s="143"/>
+      <c r="AJ18" s="200">
+        <f>AJ17+4</f>
+        <v>26</v>
+      </c>
+      <c r="AK18" s="201">
+        <f>AK17+4</f>
+        <v>27</v>
+      </c>
+      <c r="AL18" s="201">
+        <f>AL17+4</f>
+        <v>28</v>
+      </c>
+      <c r="AM18" s="199">
+        <f>AM17+4</f>
+        <v>29</v>
+      </c>
+      <c r="AO18" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="AP18" s="114">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="116">
+        <v>3</v>
+      </c>
+      <c r="AR18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="9">
+        <v>64</v>
+      </c>
+      <c r="AT18" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="120">
+        <f>B18+1</f>
+        <v>16</v>
+      </c>
+      <c r="C19" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="142"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="143"/>
+      <c r="S19" s="143"/>
+      <c r="T19" s="143"/>
+      <c r="U19" s="143"/>
+      <c r="V19" s="143"/>
+      <c r="W19" s="143"/>
+      <c r="X19" s="143"/>
+      <c r="Y19" s="143"/>
+      <c r="Z19" s="143"/>
+      <c r="AA19" s="143"/>
+      <c r="AB19" s="143"/>
+      <c r="AC19" s="143"/>
+      <c r="AD19" s="143"/>
+      <c r="AE19" s="143"/>
+      <c r="AF19" s="143"/>
+      <c r="AG19" s="143"/>
+      <c r="AH19" s="143"/>
+      <c r="AI19" s="143"/>
+      <c r="AJ19" s="195">
+        <f>AJ18+4</f>
+        <v>30</v>
+      </c>
+      <c r="AK19" s="197">
+        <f>AK18+4</f>
+        <v>31</v>
+      </c>
+      <c r="AL19" s="212"/>
+      <c r="AM19" s="214"/>
+      <c r="AN19" s="115"/>
+      <c r="AO19" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="AP19" s="114">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="116">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="9">
+        <v>64</v>
+      </c>
+      <c r="AT19" s="114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="122">
+        <f>B19+1</f>
+        <v>17</v>
+      </c>
+      <c r="C20" s="119" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="142"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="143"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="143"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="143"/>
+      <c r="X20" s="143"/>
+      <c r="Y20" s="143"/>
+      <c r="Z20" s="143"/>
+      <c r="AA20" s="143"/>
+      <c r="AB20" s="143"/>
+      <c r="AC20" s="143"/>
+      <c r="AD20" s="143"/>
+      <c r="AE20" s="143"/>
+      <c r="AF20" s="143"/>
+      <c r="AG20" s="143"/>
+      <c r="AH20" s="143"/>
+      <c r="AI20" s="143"/>
+      <c r="AJ20" s="200">
+        <f>AJ19+2</f>
+        <v>32</v>
+      </c>
+      <c r="AK20" s="202">
+        <f>AK19+2</f>
+        <v>33</v>
+      </c>
+      <c r="AL20" s="212"/>
+      <c r="AM20" s="212"/>
+      <c r="AN20" s="115"/>
+      <c r="AO20" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>6C</v>
+      </c>
+      <c r="AP20" s="114">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="116">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="9">
+        <v>64</v>
+      </c>
+      <c r="AT20" s="114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="120">
+        <f>B20+1</f>
+        <v>18</v>
+      </c>
+      <c r="C21" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="142"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="143"/>
+      <c r="O21" s="143"/>
+      <c r="P21" s="143"/>
+      <c r="Q21" s="143"/>
+      <c r="R21" s="143"/>
+      <c r="S21" s="143"/>
+      <c r="T21" s="143"/>
+      <c r="U21" s="143"/>
+      <c r="V21" s="143"/>
+      <c r="W21" s="143"/>
+      <c r="X21" s="143"/>
+      <c r="Y21" s="143"/>
+      <c r="Z21" s="143"/>
+      <c r="AA21" s="143"/>
+      <c r="AB21" s="143"/>
+      <c r="AC21" s="143"/>
+      <c r="AD21" s="143"/>
+      <c r="AE21" s="143"/>
+      <c r="AF21" s="143"/>
+      <c r="AG21" s="143"/>
+      <c r="AH21" s="143"/>
+      <c r="AI21" s="143"/>
+      <c r="AJ21" s="195">
+        <f>AJ20+2</f>
+        <v>34</v>
+      </c>
+      <c r="AK21" s="197">
+        <f>AK20+2</f>
+        <v>35</v>
+      </c>
+      <c r="AL21" s="212"/>
+      <c r="AM21" s="212"/>
+      <c r="AN21" s="115"/>
+      <c r="AO21" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="AP21" s="114">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="116">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="9">
+        <v>64</v>
+      </c>
+      <c r="AT21" s="114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="122">
+        <f>B21+1</f>
+        <v>19</v>
+      </c>
+      <c r="C22" s="119" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="143"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="143"/>
+      <c r="S22" s="143"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="143"/>
+      <c r="V22" s="143"/>
+      <c r="W22" s="143"/>
+      <c r="X22" s="143"/>
+      <c r="Y22" s="143"/>
+      <c r="Z22" s="143"/>
+      <c r="AA22" s="143"/>
+      <c r="AB22" s="143"/>
+      <c r="AC22" s="143"/>
+      <c r="AD22" s="143"/>
+      <c r="AE22" s="143"/>
+      <c r="AF22" s="143"/>
+      <c r="AG22" s="143"/>
+      <c r="AH22" s="143"/>
+      <c r="AI22" s="143"/>
+      <c r="AJ22" s="198">
+        <f>AJ21+2</f>
+        <v>36</v>
+      </c>
+      <c r="AK22" s="199">
+        <f>AK21+2</f>
+        <v>37</v>
+      </c>
+      <c r="AL22" s="212"/>
+      <c r="AM22" s="213"/>
+      <c r="AN22" s="115"/>
+      <c r="AO22" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="AP22" s="114">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="116">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="9">
+        <v>64</v>
+      </c>
+      <c r="AT22" s="114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="120">
+        <f>B22+1</f>
+        <v>20</v>
+      </c>
+      <c r="C23" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="142"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="143"/>
+      <c r="S23" s="143"/>
+      <c r="T23" s="143"/>
+      <c r="U23" s="143"/>
+      <c r="V23" s="143"/>
+      <c r="W23" s="143"/>
+      <c r="X23" s="143"/>
+      <c r="Y23" s="143"/>
+      <c r="Z23" s="143"/>
+      <c r="AA23" s="143"/>
+      <c r="AB23" s="143"/>
+      <c r="AC23" s="143"/>
+      <c r="AD23" s="143"/>
+      <c r="AE23" s="143"/>
+      <c r="AF23" s="143"/>
+      <c r="AG23" s="143"/>
+      <c r="AH23" s="143"/>
+      <c r="AI23" s="143"/>
+      <c r="AJ23" s="195">
+        <f>AJ22+2</f>
+        <v>38</v>
+      </c>
+      <c r="AK23" s="196">
+        <f>AJ23+1</f>
+        <v>39</v>
+      </c>
+      <c r="AL23" s="196">
+        <f>AK23+1</f>
+        <v>40</v>
+      </c>
+      <c r="AM23" s="199">
+        <f>AL23+1</f>
+        <v>41</v>
+      </c>
+      <c r="AO23" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="AP23" s="114">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="116">
+        <v>3</v>
+      </c>
+      <c r="AR23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="9">
+        <v>64</v>
+      </c>
+      <c r="AT23" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="122">
+        <f>B23+1</f>
+        <v>21</v>
+      </c>
+      <c r="C24" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="146"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="147"/>
+      <c r="O24" s="147"/>
+      <c r="P24" s="147"/>
+      <c r="Q24" s="147"/>
+      <c r="R24" s="147"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="147"/>
+      <c r="W24" s="147"/>
+      <c r="X24" s="147"/>
+      <c r="Y24" s="147"/>
+      <c r="Z24" s="147"/>
+      <c r="AA24" s="147"/>
+      <c r="AB24" s="147"/>
+      <c r="AC24" s="147"/>
+      <c r="AD24" s="147"/>
+      <c r="AE24" s="147"/>
+      <c r="AF24" s="147"/>
+      <c r="AG24" s="147"/>
+      <c r="AH24" s="147"/>
+      <c r="AI24" s="147"/>
+      <c r="AJ24" s="200">
+        <f>AJ23+4</f>
+        <v>42</v>
+      </c>
+      <c r="AK24" s="201">
+        <f>AK23+4</f>
+        <v>43</v>
+      </c>
+      <c r="AL24" s="201">
+        <f>AL23+4</f>
+        <v>44</v>
+      </c>
+      <c r="AM24" s="202">
+        <f>AM23+4</f>
+        <v>45</v>
+      </c>
+      <c r="AO24" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="AP24" s="114">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="116">
+        <v>3</v>
+      </c>
+      <c r="AR24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="9">
+        <v>64</v>
+      </c>
+      <c r="AT24" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="120">
+        <f>B24+1</f>
+        <v>22</v>
+      </c>
+      <c r="C25" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="148"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="149"/>
+      <c r="O25" s="149"/>
+      <c r="P25" s="149"/>
+      <c r="Q25" s="149"/>
+      <c r="R25" s="149"/>
+      <c r="S25" s="149"/>
+      <c r="T25" s="149"/>
+      <c r="U25" s="149"/>
+      <c r="V25" s="149"/>
+      <c r="W25" s="149"/>
+      <c r="X25" s="149"/>
+      <c r="Y25" s="149"/>
+      <c r="Z25" s="149"/>
+      <c r="AA25" s="149"/>
+      <c r="AB25" s="149"/>
+      <c r="AC25" s="149"/>
+      <c r="AD25" s="149"/>
+      <c r="AE25" s="149"/>
+      <c r="AF25" s="149"/>
+      <c r="AG25" s="149"/>
+      <c r="AH25" s="149"/>
+      <c r="AI25" s="150"/>
+      <c r="AJ25" s="208">
+        <v>20</v>
+      </c>
+      <c r="AO25" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="AP25" s="191">
+        <v>-1</v>
+      </c>
+      <c r="AQ25" s="192">
+        <v>-1</v>
+      </c>
+      <c r="AR25" s="182">
+        <v>-1</v>
+      </c>
+      <c r="AS25" s="182">
+        <v>-1</v>
+      </c>
+      <c r="AT25" s="114">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="122">
+        <f>B25+1</f>
+        <v>23</v>
+      </c>
+      <c r="C26" s="119" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="139"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="140"/>
+      <c r="S26" s="140"/>
+      <c r="T26" s="140"/>
+      <c r="U26" s="140"/>
+      <c r="V26" s="140"/>
+      <c r="W26" s="140"/>
+      <c r="X26" s="140"/>
+      <c r="Y26" s="140"/>
+      <c r="Z26" s="140"/>
+      <c r="AA26" s="140"/>
+      <c r="AB26" s="140"/>
+      <c r="AC26" s="140"/>
+      <c r="AD26" s="140"/>
+      <c r="AE26" s="140"/>
+      <c r="AF26" s="140"/>
+      <c r="AG26" s="140"/>
+      <c r="AH26" s="140"/>
+      <c r="AI26" s="141"/>
+      <c r="AJ26" s="211">
+        <v>21</v>
+      </c>
+      <c r="AO26" s="116" t="str">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="AP26" s="191">
+        <v>-1</v>
+      </c>
+      <c r="AQ26" s="192">
+        <v>-1</v>
+      </c>
+      <c r="AR26" s="182">
+        <v>-1</v>
+      </c>
+      <c r="AS26" s="182">
+        <v>-1</v>
+      </c>
+      <c r="AT26" s="114">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B27" s="69"/>
+      <c r="C27" s="70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="AI28" s="181" t="str">
+        <f>DEC2HEX(MAX(AJ3:AM27)*512,4)</f>
+        <v>5A00</v>
+      </c>
+      <c r="AJ28" s="181"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AP1:AQ1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/6845_crtc_timing.xlsx
+++ b/6845_crtc_timing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\iCloudDrive\Documents\Developer\BBC_Micro\Programs\Game_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\BBC_Micro\Programs\game_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7601B7DB-33C7-4F82-A7DC-05BB19A242AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE47749-DD52-4855-841F-24FCAA9FDA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{E881977C-AD55-4380-9786-6EB6D25147A4}"/>
   </bookViews>
@@ -747,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -889,12 +889,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -931,7 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -994,9 +988,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1027,13 +1018,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,13 +1042,13 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1111,7 +1099,7 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1171,12 +1159,6 @@
     <xf numFmtId="11" fontId="0" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="25" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="4" fillId="25" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1192,22 +1174,13 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1219,112 +1192,106 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6309,7 +6276,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9990A00-F3D8-4E56-9C95-A4A5E0390716}">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -6324,45 +6291,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="K1" s="168" t="s">
+      <c r="K1" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="169" t="s">
+      <c r="L1" s="163" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="155" t="s">
+      <c r="E2" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="155" t="s">
+      <c r="F2" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="155" t="s">
+      <c r="I2" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="167" t="s">
+      <c r="J2" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="154" t="s">
+      <c r="K2" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="155" t="s">
+      <c r="L2" s="151" t="s">
         <v>75</v>
       </c>
       <c r="M2" s="3"/>
@@ -6372,1152 +6339,1094 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="80">
         <v>0</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="84">
+      <c r="F3" s="82">
         <v>32</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="83">
         <v>0</v>
       </c>
-      <c r="H3" s="86">
+      <c r="H3" s="84">
         <v>1</v>
       </c>
-      <c r="I3" s="80">
+      <c r="I3" s="78">
         <f>C3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="80" t="str">
+      <c r="J3" s="78" t="str">
         <f>DEC2HEX(IF(G3=0,H3*F3*16,0),4)</f>
         <v>0200</v>
       </c>
-      <c r="K3" s="93" t="str" cm="1">
+      <c r="K3" s="91" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">IF(G3=0,DEC2HEX(HEX2DEC($A$3)),INDIRECT("K"&amp;(G3+3)))</f>
         <v>2C00</v>
       </c>
-      <c r="L3" s="156" t="str">
+      <c r="L3" s="152" t="str">
         <f ca="1">DEC2HEX(HEX2DEC(K3)+HEX2DEC(J3)-1)</f>
         <v>2DFF</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C4" s="157">
-        <f>C3+1</f>
+      <c r="C4" s="153">
+        <f t="shared" ref="C4:C41" si="0">C3+1</f>
         <v>1</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="96">
+      <c r="F4" s="94">
         <v>32</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G4" s="73">
         <v>0</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="75">
         <v>1</v>
       </c>
-      <c r="I4" s="87">
+      <c r="I4" s="85">
         <f>I3+HEX2DEC(J3)/512</f>
         <v>1</v>
       </c>
-      <c r="J4" s="87" t="str">
-        <f t="shared" ref="J4:J26" si="0">DEC2HEX(IF(G4=0,H4*F4*16,0),4)</f>
+      <c r="J4" s="85" t="str">
+        <f t="shared" ref="J4:J26" si="1">DEC2HEX(IF(G4=0,H4*F4*16,0),4)</f>
         <v>0200</v>
       </c>
-      <c r="K4" s="91" t="str" cm="1">
+      <c r="K4" s="89" t="str" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">IF(G4=0,DEC2HEX(HEX2DEC($A$3)+I4*512,4),INDIRECT("K"&amp;(G4+3)))</f>
         <v>2E00</v>
       </c>
-      <c r="L4" s="158" t="str">
-        <f t="shared" ref="L4:L26" ca="1" si="1">DEC2HEX(HEX2DEC(K4)+HEX2DEC(J4)-1)</f>
+      <c r="L4" s="154" t="str">
+        <f t="shared" ref="L4:L26" ca="1" si="2">DEC2HEX(HEX2DEC(K4)+HEX2DEC(J4)-1)</f>
         <v>2FFF</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C5" s="159">
-        <f>C4+1</f>
+      <c r="C5" s="155">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="97">
+      <c r="F5" s="95">
         <v>32</v>
       </c>
-      <c r="G5" s="76">
+      <c r="G5" s="74">
         <v>0</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="76">
         <v>1</v>
       </c>
-      <c r="I5" s="82">
-        <f t="shared" ref="I5:I26" si="2">I4+HEX2DEC(J4)/512</f>
+      <c r="I5" s="80">
+        <f t="shared" ref="I5:I26" si="3">I4+HEX2DEC(J4)/512</f>
         <v>2</v>
       </c>
-      <c r="J5" s="82" t="str">
-        <f t="shared" si="0"/>
+      <c r="J5" s="80" t="str">
+        <f t="shared" si="1"/>
         <v>0200</v>
       </c>
-      <c r="K5" s="94" t="str" cm="1">
+      <c r="K5" s="92" t="str" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">IF(G5=0,DEC2HEX(HEX2DEC($A$3)+I5*512,4),INDIRECT("K"&amp;(G5+3)))</f>
         <v>3000</v>
       </c>
-      <c r="L5" s="160" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L5" s="156" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>31FF</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C6" s="161">
-        <f>C5+1</f>
+      <c r="C6" s="157">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="98">
+      <c r="F6" s="96">
         <v>32</v>
       </c>
-      <c r="G6" s="88">
+      <c r="G6" s="86">
         <v>0</v>
       </c>
-      <c r="H6" s="79">
+      <c r="H6" s="77">
         <v>1</v>
       </c>
-      <c r="I6" s="89">
-        <f t="shared" si="2"/>
+      <c r="I6" s="87">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J6" s="89" t="str">
-        <f t="shared" si="0"/>
+      <c r="J6" s="87" t="str">
+        <f t="shared" si="1"/>
         <v>0200</v>
       </c>
-      <c r="K6" s="92" t="str" cm="1">
+      <c r="K6" s="90" t="str" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">IF(G6=0,DEC2HEX(HEX2DEC($A$3)+I6*512,4),INDIRECT("K"&amp;(G6+3)))</f>
         <v>3200</v>
       </c>
-      <c r="L6" s="162" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L6" s="158" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>33FF</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C7" s="80">
-        <f>C6+1</f>
+      <c r="C7" s="78">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="84">
+      <c r="F7" s="82">
         <v>32</v>
       </c>
-      <c r="G7" s="85">
+      <c r="G7" s="83">
         <v>0</v>
       </c>
-      <c r="H7" s="86">
+      <c r="H7" s="84">
         <v>4</v>
       </c>
-      <c r="I7" s="80">
-        <f t="shared" si="2"/>
+      <c r="I7" s="78">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J7" s="80" t="str">
-        <f t="shared" si="0"/>
+      <c r="J7" s="78" t="str">
+        <f t="shared" si="1"/>
         <v>0800</v>
       </c>
-      <c r="K7" s="95" t="str" cm="1">
+      <c r="K7" s="93" t="str" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">IF(G7=0,DEC2HEX(HEX2DEC($A$3)+I7*512,4),INDIRECT("K"&amp;(G7+3)))</f>
         <v>3400</v>
       </c>
-      <c r="L7" s="163" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L7" s="152" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>3BFF</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C8" s="89">
-        <f>C7+1</f>
+      <c r="C8" s="87">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="72">
         <v>32</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="86">
         <v>0</v>
       </c>
-      <c r="H8" s="79">
+      <c r="H8" s="77">
         <v>4</v>
       </c>
-      <c r="I8" s="89">
-        <f t="shared" si="2"/>
+      <c r="I8" s="87">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J8" s="89" t="str">
-        <f t="shared" si="0"/>
+      <c r="J8" s="87" t="str">
+        <f t="shared" si="1"/>
         <v>0800</v>
       </c>
-      <c r="K8" s="92" t="str" cm="1">
+      <c r="K8" s="90" t="str" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">IF(G8=0,DEC2HEX(HEX2DEC($A$3)+I8*512,4),INDIRECT("K"&amp;(G8+3)))</f>
         <v>3C00</v>
       </c>
-      <c r="L8" s="164" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L8" s="158" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>43FF</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C9" s="80">
-        <f>C8+1</f>
+      <c r="C9" s="78">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="84">
+      <c r="F9" s="82">
         <v>32</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="83">
         <v>0</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="84">
         <v>4</v>
       </c>
-      <c r="I9" s="80">
-        <f t="shared" si="2"/>
+      <c r="I9" s="78">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="J9" s="80" t="str">
-        <f t="shared" si="0"/>
+      <c r="J9" s="78" t="str">
+        <f t="shared" si="1"/>
         <v>0800</v>
       </c>
-      <c r="K9" s="95" t="str" cm="1">
+      <c r="K9" s="93" t="str" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">IF(G9=0,DEC2HEX(HEX2DEC($A$3)+I9*512,4),INDIRECT("K"&amp;(G9+3)))</f>
         <v>4400</v>
       </c>
-      <c r="L9" s="163" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L9" s="152" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>4BFF</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C10" s="89">
-        <f>C9+1</f>
+      <c r="C10" s="87">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="74">
+      <c r="F10" s="72">
         <v>32</v>
       </c>
-      <c r="G10" s="88">
+      <c r="G10" s="86">
         <v>0</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="77">
         <v>4</v>
       </c>
-      <c r="I10" s="89">
-        <f t="shared" si="2"/>
+      <c r="I10" s="87">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="J10" s="89" t="str">
-        <f t="shared" si="0"/>
+      <c r="J10" s="87" t="str">
+        <f t="shared" si="1"/>
         <v>0800</v>
       </c>
-      <c r="K10" s="92" t="str" cm="1">
+      <c r="K10" s="90" t="str" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">IF(G10=0,DEC2HEX(HEX2DEC($A$3)+I10*512,4),INDIRECT("K"&amp;(G10+3)))</f>
         <v>4C00</v>
       </c>
-      <c r="L10" s="164" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L10" s="158" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>53FF</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C11" s="80">
-        <f>C10+1</f>
+      <c r="C11" s="78">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F11" s="82">
         <v>32</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="83">
         <v>4</v>
       </c>
-      <c r="H11" s="86">
+      <c r="H11" s="84">
         <v>4</v>
       </c>
-      <c r="I11" s="80">
-        <f t="shared" si="2"/>
+      <c r="I11" s="78">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="J11" s="80" t="str">
-        <f t="shared" si="0"/>
+      <c r="J11" s="78" t="str">
+        <f t="shared" si="1"/>
         <v>0000</v>
       </c>
-      <c r="K11" s="95" t="str" cm="1">
+      <c r="K11" s="93" t="str" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">IF(G11=0,DEC2HEX(HEX2DEC($A$3)+I11*512,4),INDIRECT("K"&amp;(G11+3)))</f>
         <v>3400</v>
       </c>
-      <c r="L11" s="165" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L11" s="159" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>33FF</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C12" s="89">
-        <f>C11+1</f>
+      <c r="C12" s="87">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="72">
         <v>32</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="86">
         <v>5</v>
       </c>
-      <c r="H12" s="79">
+      <c r="H12" s="77">
         <v>4</v>
       </c>
-      <c r="I12" s="89">
-        <f t="shared" si="2"/>
+      <c r="I12" s="87">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="J12" s="89" t="str">
-        <f t="shared" si="0"/>
+      <c r="J12" s="87" t="str">
+        <f t="shared" si="1"/>
         <v>0000</v>
       </c>
-      <c r="K12" s="92" t="str" cm="1">
+      <c r="K12" s="90" t="str" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">IF(G12=0,DEC2HEX(HEX2DEC($A$3)+I12*512,4),INDIRECT("K"&amp;(G12+3)))</f>
         <v>3C00</v>
       </c>
-      <c r="L12" s="166" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L12" s="160" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>3BFF</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C13" s="80">
-        <f>C12+1</f>
+      <c r="C13" s="78">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E13" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="84">
+      <c r="F13" s="82">
         <v>32</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="83">
         <v>6</v>
       </c>
-      <c r="H13" s="86">
+      <c r="H13" s="84">
         <v>4</v>
       </c>
-      <c r="I13" s="80">
-        <f t="shared" si="2"/>
+      <c r="I13" s="78">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="J13" s="80" t="str">
-        <f t="shared" si="0"/>
+      <c r="J13" s="78" t="str">
+        <f t="shared" si="1"/>
         <v>0000</v>
       </c>
-      <c r="K13" s="95" t="str" cm="1">
+      <c r="K13" s="93" t="str" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">IF(G13=0,DEC2HEX(HEX2DEC($A$3)+I13*512,4),INDIRECT("K"&amp;(G13+3)))</f>
         <v>4400</v>
       </c>
-      <c r="L13" s="165" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L13" s="159" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>43FF</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C14" s="89">
-        <f>C13+1</f>
+      <c r="C14" s="87">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="74" t="s">
+      <c r="E14" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="72">
         <v>32</v>
       </c>
-      <c r="G14" s="88">
+      <c r="G14" s="86">
         <v>7</v>
       </c>
-      <c r="H14" s="79">
+      <c r="H14" s="77">
         <v>4</v>
       </c>
-      <c r="I14" s="89">
-        <f t="shared" si="2"/>
+      <c r="I14" s="87">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="J14" s="89" t="str">
-        <f t="shared" si="0"/>
+      <c r="J14" s="87" t="str">
+        <f t="shared" si="1"/>
         <v>0000</v>
       </c>
-      <c r="K14" s="92" t="str" cm="1">
+      <c r="K14" s="90" t="str" cm="1">
         <f t="array" aca="1" ref="K14" ca="1">IF(G14=0,DEC2HEX(HEX2DEC($A$3)+I14*512,4),INDIRECT("K"&amp;(G14+3)))</f>
         <v>4C00</v>
       </c>
-      <c r="L14" s="166" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L14" s="160" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>4BFF</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C15" s="80">
-        <f>C14+1</f>
+      <c r="C15" s="78">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="84" t="s">
+      <c r="E15" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="84">
+      <c r="F15" s="82">
         <v>32</v>
       </c>
-      <c r="G15" s="85">
+      <c r="G15" s="83">
         <v>0</v>
       </c>
-      <c r="H15" s="86">
+      <c r="H15" s="84">
         <v>1</v>
       </c>
-      <c r="I15" s="80">
-        <f t="shared" si="2"/>
+      <c r="I15" s="78">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="J15" s="80" t="str">
-        <f t="shared" si="0"/>
+      <c r="J15" s="78" t="str">
+        <f t="shared" si="1"/>
         <v>0200</v>
       </c>
-      <c r="K15" s="95" t="str" cm="1">
+      <c r="K15" s="93" t="str" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">IF(G15=0,DEC2HEX(HEX2DEC($A$3)+I15*512,4),INDIRECT("K"&amp;(G15+3)))</f>
         <v>5400</v>
       </c>
-      <c r="L15" s="163" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L15" s="152" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>55FF</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C16" s="89">
-        <f>C15+1</f>
+      <c r="C16" s="87">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="74">
+      <c r="F16" s="72">
         <v>32</v>
       </c>
-      <c r="G16" s="88">
+      <c r="G16" s="86">
         <v>0</v>
       </c>
-      <c r="H16" s="79">
+      <c r="H16" s="77">
         <v>1</v>
       </c>
-      <c r="I16" s="89">
-        <f t="shared" si="2"/>
+      <c r="I16" s="87">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="J16" s="89" t="str">
-        <f t="shared" si="0"/>
+      <c r="J16" s="87" t="str">
+        <f t="shared" si="1"/>
         <v>0200</v>
       </c>
-      <c r="K16" s="92" t="str" cm="1">
+      <c r="K16" s="90" t="str" cm="1">
         <f t="array" aca="1" ref="K16" ca="1">IF(G16=0,DEC2HEX(HEX2DEC($A$3)+I16*512,4),INDIRECT("K"&amp;(G16+3)))</f>
         <v>5600</v>
       </c>
-      <c r="L16" s="164" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L16" s="158" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>57FF</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="80">
-        <f>C16+1</f>
+      <c r="C17" s="78">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="84">
+      <c r="F17" s="82">
         <v>32</v>
       </c>
-      <c r="G17" s="85">
+      <c r="G17" s="83">
         <v>0</v>
       </c>
-      <c r="H17" s="86">
+      <c r="H17" s="84">
         <v>4</v>
       </c>
-      <c r="I17" s="80">
-        <f t="shared" si="2"/>
+      <c r="I17" s="78">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="J17" s="80" t="str">
-        <f t="shared" si="0"/>
+      <c r="J17" s="78" t="str">
+        <f t="shared" si="1"/>
         <v>0800</v>
       </c>
-      <c r="K17" s="95" t="str" cm="1">
+      <c r="K17" s="93" t="str" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">IF(G17=0,DEC2HEX(HEX2DEC($A$3)+I17*512,4),INDIRECT("K"&amp;(G17+3)))</f>
         <v>5800</v>
       </c>
-      <c r="L17" s="156" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L17" s="152" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>5FFF</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="89">
-        <f>C17+1</f>
+      <c r="C18" s="87">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="74">
+      <c r="F18" s="72">
         <v>32</v>
       </c>
-      <c r="G18" s="88">
+      <c r="G18" s="86">
         <v>0</v>
       </c>
-      <c r="H18" s="79">
+      <c r="H18" s="77">
         <v>4</v>
       </c>
-      <c r="I18" s="89">
-        <f t="shared" si="2"/>
+      <c r="I18" s="87">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="J18" s="89" t="str">
-        <f t="shared" si="0"/>
+      <c r="J18" s="87" t="str">
+        <f t="shared" si="1"/>
         <v>0800</v>
       </c>
-      <c r="K18" s="92" t="str" cm="1">
+      <c r="K18" s="90" t="str" cm="1">
         <f t="array" aca="1" ref="K18" ca="1">IF(G18=0,DEC2HEX(HEX2DEC($A$3)+I18*512,4),INDIRECT("K"&amp;(G18+3)))</f>
         <v>6000</v>
       </c>
-      <c r="L18" s="162" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L18" s="158" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>67FF</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="80">
-        <f>C18+1</f>
+      <c r="C19" s="78">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="84">
+      <c r="F19" s="82">
         <v>32</v>
       </c>
-      <c r="G19" s="85">
+      <c r="G19" s="83">
         <v>0</v>
       </c>
-      <c r="H19" s="86">
+      <c r="H19" s="84">
         <v>2</v>
       </c>
-      <c r="I19" s="80">
-        <f t="shared" si="2"/>
+      <c r="I19" s="78">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="J19" s="80" t="str">
-        <f t="shared" si="0"/>
+      <c r="J19" s="78" t="str">
+        <f t="shared" si="1"/>
         <v>0400</v>
       </c>
-      <c r="K19" s="95" t="str" cm="1">
+      <c r="K19" s="93" t="str" cm="1">
         <f t="array" aca="1" ref="K19" ca="1">IF(G19=0,DEC2HEX(HEX2DEC($A$3)+I19*512,4),INDIRECT("K"&amp;(G19+3)))</f>
         <v>6800</v>
       </c>
-      <c r="L19" s="156" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L19" s="152" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>6BFF</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C20" s="89">
-        <f>C19+1</f>
+      <c r="C20" s="87">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="74">
+      <c r="F20" s="72">
         <v>32</v>
       </c>
-      <c r="G20" s="88">
+      <c r="G20" s="86">
         <v>0</v>
       </c>
-      <c r="H20" s="79">
+      <c r="H20" s="77">
         <v>2</v>
       </c>
-      <c r="I20" s="89">
-        <f t="shared" si="2"/>
+      <c r="I20" s="87">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="J20" s="89" t="str">
-        <f t="shared" si="0"/>
+      <c r="J20" s="87" t="str">
+        <f t="shared" si="1"/>
         <v>0400</v>
       </c>
-      <c r="K20" s="92" t="str" cm="1">
+      <c r="K20" s="90" t="str" cm="1">
         <f t="array" aca="1" ref="K20" ca="1">IF(G20=0,DEC2HEX(HEX2DEC($A$3)+I20*512,4),INDIRECT("K"&amp;(G20+3)))</f>
         <v>6C00</v>
       </c>
-      <c r="L20" s="166" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L20" s="160" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>6FFF</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="80">
-        <f>C20+1</f>
+      <c r="C21" s="78">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="84">
+      <c r="F21" s="82">
         <v>32</v>
       </c>
-      <c r="G21" s="85">
+      <c r="G21" s="83">
         <v>16</v>
       </c>
-      <c r="H21" s="86">
+      <c r="H21" s="84">
         <v>2</v>
       </c>
-      <c r="I21" s="80">
-        <f t="shared" si="2"/>
+      <c r="I21" s="78">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="J21" s="80" t="str">
-        <f t="shared" si="0"/>
+      <c r="J21" s="78" t="str">
+        <f t="shared" si="1"/>
         <v>0000</v>
       </c>
-      <c r="K21" s="95" t="str" cm="1">
+      <c r="K21" s="93" t="str" cm="1">
         <f t="array" aca="1" ref="K21" ca="1">IF(G21=0,DEC2HEX(HEX2DEC($A$3)+I21*512,4),INDIRECT("K"&amp;(G21+3)))</f>
         <v>6800</v>
       </c>
-      <c r="L21" s="165" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L21" s="159" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>67FF</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C22" s="89">
-        <f>C21+1</f>
+      <c r="C22" s="87">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="74">
+      <c r="F22" s="72">
         <v>32</v>
       </c>
-      <c r="G22" s="88">
+      <c r="G22" s="86">
         <v>17</v>
       </c>
-      <c r="H22" s="79">
+      <c r="H22" s="77">
         <v>2</v>
       </c>
-      <c r="I22" s="89">
-        <f t="shared" si="2"/>
+      <c r="I22" s="87">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="J22" s="89" t="str">
-        <f t="shared" si="0"/>
+      <c r="J22" s="87" t="str">
+        <f t="shared" si="1"/>
         <v>0000</v>
       </c>
-      <c r="K22" s="92" t="str" cm="1">
+      <c r="K22" s="90" t="str" cm="1">
         <f t="array" aca="1" ref="K22" ca="1">IF(G22=0,DEC2HEX(HEX2DEC($A$3)+I22*512,4),INDIRECT("K"&amp;(G22+3)))</f>
         <v>6C00</v>
       </c>
-      <c r="L22" s="166" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L22" s="160" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>6BFF</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C23" s="80">
-        <f>C22+1</f>
+      <c r="C23" s="78">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="84" t="s">
+      <c r="E23" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="84">
+      <c r="F23" s="82">
         <v>32</v>
       </c>
-      <c r="G23" s="85">
+      <c r="G23" s="83">
         <v>0</v>
       </c>
-      <c r="H23" s="86">
+      <c r="H23" s="84">
         <v>4</v>
       </c>
-      <c r="I23" s="80">
-        <f t="shared" si="2"/>
+      <c r="I23" s="78">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="J23" s="80" t="str">
-        <f t="shared" si="0"/>
+      <c r="J23" s="78" t="str">
+        <f t="shared" si="1"/>
         <v>0800</v>
       </c>
-      <c r="K23" s="95" t="str" cm="1">
+      <c r="K23" s="93" t="str" cm="1">
         <f t="array" aca="1" ref="K23" ca="1">IF(G23=0,DEC2HEX(HEX2DEC($A$3)+I23*512,4),INDIRECT("K"&amp;(G23+3)))</f>
         <v>7000</v>
       </c>
-      <c r="L23" s="165" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L23" s="159" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>77FF</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="89">
-        <f>C23+1</f>
+      <c r="C24" s="87">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="74">
+      <c r="F24" s="72">
         <v>32</v>
       </c>
-      <c r="G24" s="88">
+      <c r="G24" s="86">
         <v>0</v>
       </c>
-      <c r="H24" s="79">
+      <c r="H24" s="77">
         <v>4</v>
       </c>
-      <c r="I24" s="89">
-        <f t="shared" si="2"/>
+      <c r="I24" s="87">
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="J24" s="89" t="str">
-        <f t="shared" si="0"/>
+      <c r="J24" s="87" t="str">
+        <f t="shared" si="1"/>
         <v>0800</v>
       </c>
-      <c r="K24" s="92" t="str" cm="1">
+      <c r="K24" s="90" t="str" cm="1">
         <f t="array" aca="1" ref="K24" ca="1">IF(G24=0,DEC2HEX(HEX2DEC($A$3)+I24*512,4),INDIRECT("K"&amp;(G24+3)))</f>
         <v>7800</v>
       </c>
-      <c r="L24" s="166" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L24" s="160" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>7FFF</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C25" s="80">
-        <f>C24+1</f>
+      <c r="C25" s="78">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="84" t="s">
+      <c r="E25" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="84">
+      <c r="F25" s="82">
         <v>32</v>
       </c>
-      <c r="G25" s="85">
+      <c r="G25" s="83">
         <v>12</v>
       </c>
-      <c r="H25" s="86">
+      <c r="H25" s="84">
         <v>1</v>
       </c>
-      <c r="I25" s="80">
-        <f t="shared" si="2"/>
+      <c r="I25" s="78">
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="J25" s="80" t="str">
-        <f t="shared" si="0"/>
+      <c r="J25" s="78" t="str">
+        <f t="shared" si="1"/>
         <v>0000</v>
       </c>
-      <c r="K25" s="95" t="str" cm="1">
+      <c r="K25" s="93" t="str" cm="1">
         <f t="array" aca="1" ref="K25" ca="1">IF(G25=0,DEC2HEX(HEX2DEC($A$3)+I25*512,4),INDIRECT("K"&amp;(G25+3)))</f>
         <v>5400</v>
       </c>
-      <c r="L25" s="165" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L25" s="159" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>53FF</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="81">
-        <f>C25+1</f>
+      <c r="C26" s="79">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="74" t="s">
+      <c r="E26" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="74">
+      <c r="F26" s="72">
         <v>32</v>
       </c>
-      <c r="G26" s="88">
+      <c r="G26" s="86">
         <v>13</v>
       </c>
-      <c r="H26" s="79">
+      <c r="H26" s="77">
         <v>1</v>
       </c>
-      <c r="I26" s="89">
-        <f t="shared" si="2"/>
+      <c r="I26" s="87">
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="J26" s="89" t="str">
-        <f t="shared" si="0"/>
+      <c r="J26" s="87" t="str">
+        <f t="shared" si="1"/>
         <v>0000</v>
       </c>
-      <c r="K26" s="92" t="str" cm="1">
+      <c r="K26" s="90" t="str" cm="1">
         <f t="array" aca="1" ref="K26" ca="1">IF(G26=0,DEC2HEX(HEX2DEC($A$3)+I26*512,4),INDIRECT("K"&amp;(G26+3)))</f>
         <v>5600</v>
       </c>
-      <c r="L26" s="166" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L26" s="160" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>55FF</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="80">
-        <f>C26+1</f>
+      <c r="C27" s="78">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D27" s="179" t="s">
+      <c r="D27" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="171"/>
-      <c r="L27" s="103"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="101"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C28" s="81">
-        <f>C27+1</f>
+      <c r="C28" s="79">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D28" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="172"/>
-      <c r="K28" s="104"/>
+      <c r="J28" s="10"/>
       <c r="L28" s="68"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C29" s="82">
-        <f>C28+1</f>
+      <c r="C29" s="80">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="D29" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
       <c r="L29" s="68"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C30" s="81">
-        <f>C29+1</f>
+      <c r="C30" s="79">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D30" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
       <c r="L30" s="68"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C31" s="82">
-        <f>C30+1</f>
+      <c r="C31" s="80">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="D31" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
       <c r="L31" s="68"/>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C32" s="81">
-        <f>C31+1</f>
+      <c r="C32" s="79">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="D32" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
       <c r="L32" s="68"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C33" s="82">
-        <f>C32+1</f>
+      <c r="C33" s="80">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D33" s="106" t="s">
+      <c r="D33" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="106"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="103"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C34" s="87">
-        <f>C33+1</f>
+      <c r="C34" s="85">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D34" s="174" t="s">
+      <c r="D34" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="173"/>
-      <c r="K34" s="173"/>
-      <c r="L34" s="174"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="164"/>
+      <c r="L34" s="165"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C35" s="82">
-        <f>C34+1</f>
+      <c r="C35" s="80">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D35" s="176" t="s">
+      <c r="D35" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="175"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="175"/>
-      <c r="L35" s="176"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="166"/>
+      <c r="G35" s="166"/>
+      <c r="H35" s="166"/>
+      <c r="I35" s="166"/>
+      <c r="J35" s="166"/>
+      <c r="K35" s="166"/>
+      <c r="L35" s="167"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C36" s="89">
-        <f>C35+1</f>
+      <c r="C36" s="87">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D36" s="178" t="s">
+      <c r="D36" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="177"/>
-      <c r="F36" s="177"/>
-      <c r="G36" s="177"/>
-      <c r="H36" s="177"/>
-      <c r="I36" s="177"/>
-      <c r="J36" s="177"/>
-      <c r="K36" s="177"/>
-      <c r="L36" s="178"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="168"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="168"/>
+      <c r="K36" s="168"/>
+      <c r="L36" s="169"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C37" s="82">
-        <f>C36+1</f>
+      <c r="C37" s="80">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D37" s="103" t="s">
+      <c r="D37" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
-      <c r="L37" s="103"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="101"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C38" s="81">
-        <f>C37+1</f>
+      <c r="C38" s="79">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="D38" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="104"/>
       <c r="L38" s="68"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C39" s="82">
-        <f>C38+1</f>
+      <c r="C39" s="80">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="D39" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="104"/>
-      <c r="K39" s="104"/>
       <c r="L39" s="68"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C40" s="81">
-        <f>C39+1</f>
+      <c r="C40" s="79">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="D40" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
       <c r="L40" s="68"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C41" s="90">
-        <f>C40+1</f>
+      <c r="C41" s="88">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="D41" s="106" t="s">
+      <c r="D41" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="106"/>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C42" s="170"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="102"/>
+      <c r="L41" s="103"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7528,8 +7437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F481C70-9657-4394-93E6-4755D8687536}">
   <dimension ref="B1:AT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AV16" sqref="AV16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7545,521 +7454,521 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:46" x14ac:dyDescent="0.3">
-      <c r="AO1" s="186" t="s">
+      <c r="AO1" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="AP1" s="188" t="s">
+      <c r="AP1" s="202" t="s">
         <v>93</v>
       </c>
-      <c r="AQ1" s="189"/>
-      <c r="AR1" s="183" t="s">
+      <c r="AQ1" s="203"/>
+      <c r="AR1" s="200" t="s">
         <v>94</v>
       </c>
-      <c r="AS1" s="184"/>
-      <c r="AT1" s="193" t="s">
+      <c r="AS1" s="201"/>
+      <c r="AT1" s="175" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="2:46" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="204">
+      <c r="D2" s="189">
         <v>0</v>
       </c>
-      <c r="E2" s="204">
+      <c r="E2" s="189">
         <f>D2+1</f>
         <v>1</v>
       </c>
-      <c r="F2" s="204">
+      <c r="F2" s="189">
         <f t="shared" ref="F2:AI2" si="0">E2+1</f>
         <v>2</v>
       </c>
-      <c r="G2" s="204">
+      <c r="G2" s="189">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H2" s="204">
+      <c r="H2" s="189">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I2" s="204">
+      <c r="I2" s="189">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J2" s="204">
+      <c r="J2" s="189">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K2" s="204">
+      <c r="K2" s="189">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L2" s="204">
+      <c r="L2" s="189">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M2" s="204">
+      <c r="M2" s="189">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N2" s="204">
+      <c r="N2" s="189">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O2" s="204">
+      <c r="O2" s="189">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P2" s="204">
+      <c r="P2" s="189">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Q2" s="204">
+      <c r="Q2" s="189">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="R2" s="204">
+      <c r="R2" s="189">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="S2" s="204">
+      <c r="S2" s="189">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="T2" s="204">
+      <c r="T2" s="189">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="U2" s="204">
+      <c r="U2" s="189">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="V2" s="204">
+      <c r="V2" s="189">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="W2" s="204">
+      <c r="W2" s="189">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X2" s="203">
+      <c r="X2" s="188">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Y2" s="203">
+      <c r="Y2" s="188">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Z2" s="203">
+      <c r="Z2" s="188">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AA2" s="203">
+      <c r="AA2" s="188">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AB2" s="203">
+      <c r="AB2" s="188">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AC2" s="203">
+      <c r="AC2" s="188">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AD2" s="203">
+      <c r="AD2" s="188">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AE2" s="203">
+      <c r="AE2" s="188">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AF2" s="204">
+      <c r="AF2" s="189">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AG2" s="204">
+      <c r="AG2" s="189">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AH2" s="204">
+      <c r="AH2" s="189">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AI2" s="204">
+      <c r="AI2" s="189">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AO2" s="185" t="s">
+      <c r="AO2" s="172" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="194" t="s">
+      <c r="AP2" s="179" t="s">
         <v>95</v>
       </c>
-      <c r="AQ2" s="194" t="s">
+      <c r="AQ2" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="AR2" s="187" t="s">
+      <c r="AR2" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="AS2" s="185" t="s">
+      <c r="AS2" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="AT2" s="190" t="s">
+      <c r="AT2" s="176" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="107">
+      <c r="B3" s="104">
         <v>0</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="110" t="s">
+      <c r="E3" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="110" t="s">
+      <c r="F3" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="110"/>
-      <c r="J3" s="110" t="s">
+      <c r="G3" s="107"/>
+      <c r="J3" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="110" t="s">
+      <c r="K3" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="L3" s="110" t="s">
+      <c r="L3" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="110" t="s">
+      <c r="M3" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="110" t="s">
+      <c r="N3" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="110" t="s">
+      <c r="O3" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="P3" s="110">
+      <c r="P3" s="107">
         <v>0</v>
       </c>
-      <c r="Q3" s="110">
+      <c r="Q3" s="107">
         <v>0</v>
       </c>
-      <c r="R3" s="110">
+      <c r="R3" s="107">
         <v>0</v>
       </c>
-      <c r="S3" s="110">
+      <c r="S3" s="107">
         <v>0</v>
       </c>
-      <c r="T3" s="110">
+      <c r="T3" s="107">
         <v>0</v>
       </c>
-      <c r="U3" s="110">
+      <c r="U3" s="107">
         <v>0</v>
       </c>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="205"/>
-      <c r="Y3" s="206"/>
-      <c r="Z3" s="206"/>
-      <c r="AA3" s="206"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="206"/>
-      <c r="AD3" s="206"/>
-      <c r="AE3" s="207"/>
-      <c r="AF3" s="110" t="s">
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="190"/>
+      <c r="Y3" s="191"/>
+      <c r="Z3" s="191"/>
+      <c r="AA3" s="191"/>
+      <c r="AB3" s="191"/>
+      <c r="AC3" s="191"/>
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="192"/>
+      <c r="AF3" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="AG3" s="110" t="s">
+      <c r="AG3" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="AH3" s="110" t="s">
+      <c r="AH3" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="AI3" s="111" t="s">
+      <c r="AI3" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" s="208">
+      <c r="AJ3" s="193">
         <v>0</v>
       </c>
-      <c r="AO3" s="116" t="str">
+      <c r="AO3" s="112" t="str">
         <f>DEC2HEX(AJ3*2+44,2)</f>
         <v>2C</v>
       </c>
-      <c r="AP3" s="191">
+      <c r="AP3" s="177">
         <v>-1</v>
       </c>
-      <c r="AQ3" s="192">
+      <c r="AQ3" s="178">
         <v>-1</v>
       </c>
-      <c r="AR3" s="182">
+      <c r="AR3" s="171">
         <v>-1</v>
       </c>
-      <c r="AS3" s="182">
+      <c r="AS3" s="171">
         <v>-1</v>
       </c>
-      <c r="AT3" s="109">
+      <c r="AT3" s="106">
         <v>-1</v>
       </c>
     </row>
     <row r="4" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="112">
-        <f>B3+1</f>
+      <c r="B4" s="109">
+        <f t="shared" ref="B4:B26" si="1">B3+1</f>
         <v>1</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="130"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="132"/>
-      <c r="AG4" s="131"/>
-      <c r="AH4" s="131"/>
-      <c r="AI4" s="133"/>
-      <c r="AJ4" s="209">
+      <c r="D4" s="126"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="127"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="127"/>
+      <c r="AI4" s="129"/>
+      <c r="AJ4" s="194">
         <v>1</v>
       </c>
-      <c r="AO4" s="116" t="str">
-        <f t="shared" ref="AO4:AO26" si="1">DEC2HEX(AJ4*2+44,2)</f>
+      <c r="AO4" s="112" t="str">
+        <f t="shared" ref="AO4:AO26" si="2">DEC2HEX(AJ4*2+44,2)</f>
         <v>2E</v>
       </c>
-      <c r="AP4" s="191">
+      <c r="AP4" s="177">
         <v>-1</v>
       </c>
-      <c r="AQ4" s="192">
+      <c r="AQ4" s="178">
         <v>-1</v>
       </c>
-      <c r="AR4" s="182">
+      <c r="AR4" s="171">
         <v>-1</v>
       </c>
-      <c r="AS4" s="182">
+      <c r="AS4" s="171">
         <v>-1</v>
       </c>
-      <c r="AT4" s="114">
+      <c r="AT4" s="111">
         <v>-1</v>
       </c>
     </row>
     <row r="5" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="117">
-        <f>B4+1</f>
+      <c r="B5" s="113">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
-      <c r="W5" s="124"/>
-      <c r="X5" s="124"/>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="137"/>
-      <c r="AA5" s="124"/>
-      <c r="AB5" s="124"/>
-      <c r="AC5" s="124"/>
-      <c r="AD5" s="124"/>
-      <c r="AE5" s="134"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="124"/>
-      <c r="AH5" s="124"/>
-      <c r="AI5" s="125"/>
-      <c r="AJ5" s="210">
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="133"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="130"/>
+      <c r="Z5" s="133"/>
+      <c r="AA5" s="120"/>
+      <c r="AB5" s="120"/>
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="120"/>
+      <c r="AE5" s="130"/>
+      <c r="AF5" s="133"/>
+      <c r="AG5" s="120"/>
+      <c r="AH5" s="120"/>
+      <c r="AI5" s="121"/>
+      <c r="AJ5" s="194">
         <v>2</v>
       </c>
-      <c r="AO5" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AO5" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="AP5" s="191">
+      <c r="AP5" s="177">
         <v>-1</v>
       </c>
-      <c r="AQ5" s="192">
+      <c r="AQ5" s="178">
         <v>-1</v>
       </c>
-      <c r="AR5" s="182">
+      <c r="AR5" s="171">
         <v>-1</v>
       </c>
-      <c r="AS5" s="182">
+      <c r="AS5" s="171">
         <v>-1</v>
       </c>
-      <c r="AT5" s="114">
+      <c r="AT5" s="111">
         <v>-1</v>
       </c>
     </row>
     <row r="6" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="118">
-        <f>B5+1</f>
+      <c r="B6" s="114">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="136"/>
-      <c r="Z6" s="138"/>
-      <c r="AA6" s="128"/>
-      <c r="AB6" s="128"/>
-      <c r="AC6" s="128"/>
-      <c r="AD6" s="128"/>
-      <c r="AE6" s="136"/>
-      <c r="AF6" s="138"/>
-      <c r="AG6" s="128"/>
-      <c r="AH6" s="128"/>
-      <c r="AI6" s="129"/>
-      <c r="AJ6" s="211">
+      <c r="D6" s="123"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="134"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="124"/>
+      <c r="V6" s="124"/>
+      <c r="W6" s="124"/>
+      <c r="X6" s="124"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="134"/>
+      <c r="AA6" s="124"/>
+      <c r="AB6" s="124"/>
+      <c r="AC6" s="124"/>
+      <c r="AD6" s="124"/>
+      <c r="AE6" s="132"/>
+      <c r="AF6" s="134"/>
+      <c r="AG6" s="124"/>
+      <c r="AH6" s="124"/>
+      <c r="AI6" s="125"/>
+      <c r="AJ6" s="195">
         <v>3</v>
       </c>
-      <c r="AO6" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AO6" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="AP6" s="191">
+      <c r="AP6" s="177">
         <v>-1</v>
       </c>
-      <c r="AQ6" s="192">
+      <c r="AQ6" s="178">
         <v>-1</v>
       </c>
-      <c r="AR6" s="182">
+      <c r="AR6" s="171">
         <v>-1</v>
       </c>
-      <c r="AS6" s="182">
+      <c r="AS6" s="171">
         <v>-1</v>
       </c>
-      <c r="AT6" s="114">
+      <c r="AT6" s="111">
         <v>-1</v>
       </c>
     </row>
     <row r="7" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="120">
-        <f>B6+1</f>
+      <c r="B7" s="116">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
-      <c r="AE7" s="126"/>
-      <c r="AF7" s="126"/>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="126"/>
-      <c r="AJ7" s="134">
+      <c r="D7" s="132"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="122"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="122"/>
+      <c r="AB7" s="122"/>
+      <c r="AC7" s="122"/>
+      <c r="AD7" s="122"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="122"/>
+      <c r="AG7" s="122"/>
+      <c r="AH7" s="122"/>
+      <c r="AI7" s="122"/>
+      <c r="AJ7" s="130">
         <v>4</v>
       </c>
-      <c r="AK7" s="135">
+      <c r="AK7" s="131">
         <v>5</v>
       </c>
-      <c r="AL7" s="135">
+      <c r="AL7" s="131">
         <v>6</v>
       </c>
-      <c r="AM7" s="137">
+      <c r="AM7" s="133">
         <v>7</v>
       </c>
-      <c r="AO7" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AO7" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="AP7" s="114">
+      <c r="AP7" s="111">
         <v>0</v>
       </c>
-      <c r="AQ7" s="116">
+      <c r="AQ7" s="112">
         <v>3</v>
       </c>
       <c r="AR7" s="9">
@@ -8068,70 +7977,70 @@
       <c r="AS7" s="9">
         <v>64</v>
       </c>
-      <c r="AT7" s="114">
+      <c r="AT7" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="122">
-        <f>B7+1</f>
+      <c r="B8" s="118">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="126"/>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="126"/>
-      <c r="AC8" s="126"/>
-      <c r="AD8" s="126"/>
-      <c r="AE8" s="126"/>
-      <c r="AF8" s="126"/>
-      <c r="AG8" s="126"/>
-      <c r="AH8" s="126"/>
-      <c r="AI8" s="126"/>
-      <c r="AJ8" s="151">
+      <c r="D8" s="132"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="122"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="122"/>
+      <c r="AB8" s="122"/>
+      <c r="AC8" s="122"/>
+      <c r="AD8" s="122"/>
+      <c r="AE8" s="122"/>
+      <c r="AF8" s="122"/>
+      <c r="AG8" s="122"/>
+      <c r="AH8" s="122"/>
+      <c r="AI8" s="122"/>
+      <c r="AJ8" s="147">
         <v>8</v>
       </c>
-      <c r="AK8" s="152">
+      <c r="AK8" s="148">
         <v>9</v>
       </c>
-      <c r="AL8" s="152">
+      <c r="AL8" s="148">
         <v>10</v>
       </c>
-      <c r="AM8" s="153">
+      <c r="AM8" s="149">
         <v>11</v>
       </c>
-      <c r="AO8" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AO8" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>3C</v>
       </c>
-      <c r="AP8" s="114">
+      <c r="AP8" s="111">
         <v>0</v>
       </c>
-      <c r="AQ8" s="116">
+      <c r="AQ8" s="112">
         <v>3</v>
       </c>
       <c r="AR8" s="9">
@@ -8140,70 +8049,70 @@
       <c r="AS8" s="9">
         <v>64</v>
       </c>
-      <c r="AT8" s="114">
+      <c r="AT8" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="120">
-        <f>B8+1</f>
+      <c r="B9" s="116">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="126"/>
-      <c r="T9" s="126"/>
-      <c r="U9" s="126"/>
-      <c r="V9" s="126"/>
-      <c r="W9" s="126"/>
-      <c r="X9" s="126"/>
-      <c r="Y9" s="126"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="126"/>
-      <c r="AF9" s="126"/>
-      <c r="AG9" s="126"/>
-      <c r="AH9" s="126"/>
-      <c r="AI9" s="126"/>
-      <c r="AJ9" s="134">
+      <c r="D9" s="132"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="122"/>
+      <c r="AD9" s="122"/>
+      <c r="AE9" s="122"/>
+      <c r="AF9" s="122"/>
+      <c r="AG9" s="122"/>
+      <c r="AH9" s="122"/>
+      <c r="AI9" s="122"/>
+      <c r="AJ9" s="130">
         <v>12</v>
       </c>
-      <c r="AK9" s="135">
+      <c r="AK9" s="131">
         <v>13</v>
       </c>
-      <c r="AL9" s="135">
+      <c r="AL9" s="131">
         <v>14</v>
       </c>
-      <c r="AM9" s="137">
+      <c r="AM9" s="133">
         <v>15</v>
       </c>
-      <c r="AO9" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AO9" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="AP9" s="114">
+      <c r="AP9" s="111">
         <v>0</v>
       </c>
-      <c r="AQ9" s="116">
+      <c r="AQ9" s="112">
         <v>3</v>
       </c>
       <c r="AR9" s="9">
@@ -8212,70 +8121,70 @@
       <c r="AS9" s="9">
         <v>64</v>
       </c>
-      <c r="AT9" s="114">
+      <c r="AT9" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="122">
-        <f>B9+1</f>
+      <c r="B10" s="118">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C10" s="119" t="s">
+      <c r="C10" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="126"/>
-      <c r="U10" s="126"/>
-      <c r="V10" s="126"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="126"/>
-      <c r="Y10" s="126"/>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="126"/>
-      <c r="AD10" s="126"/>
-      <c r="AE10" s="126"/>
-      <c r="AF10" s="126"/>
-      <c r="AG10" s="126"/>
-      <c r="AH10" s="126"/>
-      <c r="AI10" s="126"/>
-      <c r="AJ10" s="151">
+      <c r="D10" s="132"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="122"/>
+      <c r="AB10" s="122"/>
+      <c r="AC10" s="122"/>
+      <c r="AD10" s="122"/>
+      <c r="AE10" s="122"/>
+      <c r="AF10" s="122"/>
+      <c r="AG10" s="122"/>
+      <c r="AH10" s="122"/>
+      <c r="AI10" s="122"/>
+      <c r="AJ10" s="147">
         <v>16</v>
       </c>
-      <c r="AK10" s="152">
+      <c r="AK10" s="148">
         <v>17</v>
       </c>
-      <c r="AL10" s="152">
+      <c r="AL10" s="148">
         <v>18</v>
       </c>
-      <c r="AM10" s="153">
+      <c r="AM10" s="149">
         <v>19</v>
       </c>
-      <c r="AO10" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AO10" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>4C</v>
       </c>
-      <c r="AP10" s="114">
+      <c r="AP10" s="111">
         <v>0</v>
       </c>
-      <c r="AQ10" s="116">
+      <c r="AQ10" s="112">
         <v>3</v>
       </c>
       <c r="AR10" s="9">
@@ -8284,70 +8193,70 @@
       <c r="AS10" s="9">
         <v>64</v>
       </c>
-      <c r="AT10" s="114">
+      <c r="AT10" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="120">
-        <f>B10+1</f>
+      <c r="B11" s="116">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="136"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="126"/>
-      <c r="S11" s="126"/>
-      <c r="T11" s="126"/>
-      <c r="U11" s="126"/>
-      <c r="V11" s="126"/>
-      <c r="W11" s="126"/>
-      <c r="X11" s="126"/>
-      <c r="Y11" s="126"/>
-      <c r="Z11" s="126"/>
-      <c r="AA11" s="126"/>
-      <c r="AB11" s="126"/>
-      <c r="AC11" s="126"/>
-      <c r="AD11" s="126"/>
-      <c r="AE11" s="126"/>
-      <c r="AF11" s="126"/>
-      <c r="AG11" s="126"/>
-      <c r="AH11" s="126"/>
-      <c r="AI11" s="126"/>
-      <c r="AJ11" s="134">
+      <c r="D11" s="132"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="122"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="122"/>
+      <c r="Y11" s="122"/>
+      <c r="Z11" s="122"/>
+      <c r="AA11" s="122"/>
+      <c r="AB11" s="122"/>
+      <c r="AC11" s="122"/>
+      <c r="AD11" s="122"/>
+      <c r="AE11" s="122"/>
+      <c r="AF11" s="122"/>
+      <c r="AG11" s="122"/>
+      <c r="AH11" s="122"/>
+      <c r="AI11" s="122"/>
+      <c r="AJ11" s="130">
         <v>4</v>
       </c>
-      <c r="AK11" s="135">
+      <c r="AK11" s="131">
         <v>5</v>
       </c>
-      <c r="AL11" s="135">
+      <c r="AL11" s="131">
         <v>6</v>
       </c>
-      <c r="AM11" s="137">
+      <c r="AM11" s="133">
         <v>7</v>
       </c>
-      <c r="AO11" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AO11" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="AP11" s="114">
+      <c r="AP11" s="111">
         <v>0</v>
       </c>
-      <c r="AQ11" s="116">
+      <c r="AQ11" s="112">
         <v>3</v>
       </c>
       <c r="AR11" s="9">
@@ -8356,70 +8265,70 @@
       <c r="AS11" s="9">
         <v>64</v>
       </c>
-      <c r="AT11" s="114">
+      <c r="AT11" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="122">
-        <f>B11+1</f>
+      <c r="B12" s="118">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="126"/>
-      <c r="S12" s="126"/>
-      <c r="T12" s="126"/>
-      <c r="U12" s="126"/>
-      <c r="V12" s="126"/>
-      <c r="W12" s="126"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="126"/>
-      <c r="AA12" s="126"/>
-      <c r="AB12" s="126"/>
-      <c r="AC12" s="126"/>
-      <c r="AD12" s="126"/>
-      <c r="AE12" s="126"/>
-      <c r="AF12" s="126"/>
-      <c r="AG12" s="126"/>
-      <c r="AH12" s="126"/>
-      <c r="AI12" s="126"/>
-      <c r="AJ12" s="151">
+      <c r="D12" s="132"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="122"/>
+      <c r="AA12" s="122"/>
+      <c r="AB12" s="122"/>
+      <c r="AC12" s="122"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="122"/>
+      <c r="AF12" s="122"/>
+      <c r="AG12" s="122"/>
+      <c r="AH12" s="122"/>
+      <c r="AI12" s="122"/>
+      <c r="AJ12" s="147">
         <v>8</v>
       </c>
-      <c r="AK12" s="152">
+      <c r="AK12" s="148">
         <v>9</v>
       </c>
-      <c r="AL12" s="152">
+      <c r="AL12" s="148">
         <v>10</v>
       </c>
-      <c r="AM12" s="153">
+      <c r="AM12" s="149">
         <v>11</v>
       </c>
-      <c r="AO12" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AO12" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>3C</v>
       </c>
-      <c r="AP12" s="114">
+      <c r="AP12" s="111">
         <v>0</v>
       </c>
-      <c r="AQ12" s="116">
+      <c r="AQ12" s="112">
         <v>3</v>
       </c>
       <c r="AR12" s="9">
@@ -8428,70 +8337,70 @@
       <c r="AS12" s="9">
         <v>64</v>
       </c>
-      <c r="AT12" s="114">
+      <c r="AT12" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="120">
-        <f>B12+1</f>
+      <c r="B13" s="116">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="126"/>
-      <c r="T13" s="126"/>
-      <c r="U13" s="126"/>
-      <c r="V13" s="126"/>
-      <c r="W13" s="126"/>
-      <c r="X13" s="126"/>
-      <c r="Y13" s="126"/>
-      <c r="Z13" s="126"/>
-      <c r="AA13" s="126"/>
-      <c r="AB13" s="126"/>
-      <c r="AC13" s="126"/>
-      <c r="AD13" s="126"/>
-      <c r="AE13" s="126"/>
-      <c r="AF13" s="126"/>
-      <c r="AG13" s="126"/>
-      <c r="AH13" s="126"/>
-      <c r="AI13" s="126"/>
-      <c r="AJ13" s="136">
+      <c r="D13" s="132"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="122"/>
+      <c r="AB13" s="122"/>
+      <c r="AC13" s="122"/>
+      <c r="AD13" s="122"/>
+      <c r="AE13" s="122"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="122"/>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="122"/>
+      <c r="AJ13" s="132">
         <v>12</v>
       </c>
-      <c r="AK13" s="126">
+      <c r="AK13" s="122">
         <v>13</v>
       </c>
-      <c r="AL13" s="126">
+      <c r="AL13" s="122">
         <v>14</v>
       </c>
-      <c r="AM13" s="138">
+      <c r="AM13" s="134">
         <v>15</v>
       </c>
-      <c r="AO13" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AO13" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="AP13" s="114">
+      <c r="AP13" s="111">
         <v>0</v>
       </c>
-      <c r="AQ13" s="116">
+      <c r="AQ13" s="112">
         <v>3</v>
       </c>
       <c r="AR13" s="9">
@@ -8500,70 +8409,70 @@
       <c r="AS13" s="9">
         <v>64</v>
       </c>
-      <c r="AT13" s="114">
+      <c r="AT13" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="122">
-        <f>B13+1</f>
+      <c r="B14" s="118">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="126"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="126"/>
-      <c r="U14" s="126"/>
-      <c r="V14" s="126"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="126"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="126"/>
-      <c r="AC14" s="126"/>
-      <c r="AD14" s="126"/>
-      <c r="AE14" s="126"/>
-      <c r="AF14" s="126"/>
-      <c r="AG14" s="126"/>
-      <c r="AH14" s="126"/>
-      <c r="AI14" s="126"/>
-      <c r="AJ14" s="151">
+      <c r="D14" s="132"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="122"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="122"/>
+      <c r="AA14" s="122"/>
+      <c r="AB14" s="122"/>
+      <c r="AC14" s="122"/>
+      <c r="AD14" s="122"/>
+      <c r="AE14" s="122"/>
+      <c r="AF14" s="122"/>
+      <c r="AG14" s="122"/>
+      <c r="AH14" s="122"/>
+      <c r="AI14" s="122"/>
+      <c r="AJ14" s="147">
         <v>16</v>
       </c>
-      <c r="AK14" s="152">
+      <c r="AK14" s="148">
         <v>17</v>
       </c>
-      <c r="AL14" s="152">
+      <c r="AL14" s="148">
         <v>18</v>
       </c>
-      <c r="AM14" s="153">
+      <c r="AM14" s="149">
         <v>19</v>
       </c>
-      <c r="AO14" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AO14" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>4C</v>
       </c>
-      <c r="AP14" s="114">
+      <c r="AP14" s="111">
         <v>0</v>
       </c>
-      <c r="AQ14" s="116">
+      <c r="AQ14" s="112">
         <v>3</v>
       </c>
       <c r="AR14" s="9">
@@ -8572,196 +8481,196 @@
       <c r="AS14" s="9">
         <v>64</v>
       </c>
-      <c r="AT14" s="114">
+      <c r="AT14" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="120">
-        <f>B14+1</f>
+      <c r="B15" s="116">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="148"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="149"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="149"/>
-      <c r="S15" s="149"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="149"/>
-      <c r="V15" s="149"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="149"/>
-      <c r="Y15" s="149"/>
-      <c r="Z15" s="149"/>
-      <c r="AA15" s="149"/>
-      <c r="AB15" s="149"/>
-      <c r="AC15" s="149"/>
-      <c r="AD15" s="149"/>
-      <c r="AE15" s="149"/>
-      <c r="AF15" s="149"/>
-      <c r="AG15" s="149"/>
-      <c r="AH15" s="149"/>
-      <c r="AI15" s="150"/>
-      <c r="AJ15" s="208">
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="145"/>
+      <c r="T15" s="145"/>
+      <c r="U15" s="145"/>
+      <c r="V15" s="145"/>
+      <c r="W15" s="145"/>
+      <c r="X15" s="145"/>
+      <c r="Y15" s="145"/>
+      <c r="Z15" s="145"/>
+      <c r="AA15" s="145"/>
+      <c r="AB15" s="145"/>
+      <c r="AC15" s="145"/>
+      <c r="AD15" s="145"/>
+      <c r="AE15" s="145"/>
+      <c r="AF15" s="145"/>
+      <c r="AG15" s="145"/>
+      <c r="AH15" s="145"/>
+      <c r="AI15" s="146"/>
+      <c r="AJ15" s="193">
         <v>20</v>
       </c>
-      <c r="AO15" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AO15" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="AP15" s="191">
+      <c r="AP15" s="177">
         <v>-1</v>
       </c>
-      <c r="AQ15" s="192">
+      <c r="AQ15" s="178">
         <v>-1</v>
       </c>
-      <c r="AR15" s="182">
+      <c r="AR15" s="171">
         <v>-1</v>
       </c>
-      <c r="AS15" s="182">
+      <c r="AS15" s="171">
         <v>-1</v>
       </c>
-      <c r="AT15" s="114">
+      <c r="AT15" s="111">
         <v>-1</v>
       </c>
     </row>
     <row r="16" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="122">
-        <f>B15+1</f>
+      <c r="B16" s="118">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="139"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="140"/>
-      <c r="O16" s="140"/>
-      <c r="P16" s="140"/>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="140"/>
-      <c r="S16" s="140"/>
-      <c r="T16" s="140"/>
-      <c r="U16" s="140"/>
-      <c r="V16" s="140"/>
-      <c r="W16" s="140"/>
-      <c r="X16" s="140"/>
-      <c r="Y16" s="140"/>
-      <c r="Z16" s="140"/>
-      <c r="AA16" s="140"/>
-      <c r="AB16" s="140"/>
-      <c r="AC16" s="140"/>
-      <c r="AD16" s="140"/>
-      <c r="AE16" s="140"/>
-      <c r="AF16" s="140"/>
-      <c r="AG16" s="140"/>
-      <c r="AH16" s="140"/>
-      <c r="AI16" s="141"/>
-      <c r="AJ16" s="211">
+      <c r="D16" s="135"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="136"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="136"/>
+      <c r="S16" s="136"/>
+      <c r="T16" s="136"/>
+      <c r="U16" s="136"/>
+      <c r="V16" s="136"/>
+      <c r="W16" s="136"/>
+      <c r="X16" s="136"/>
+      <c r="Y16" s="136"/>
+      <c r="Z16" s="136"/>
+      <c r="AA16" s="136"/>
+      <c r="AB16" s="136"/>
+      <c r="AC16" s="136"/>
+      <c r="AD16" s="136"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="136"/>
+      <c r="AG16" s="136"/>
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="137"/>
+      <c r="AJ16" s="195">
         <v>21</v>
       </c>
-      <c r="AO16" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AO16" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="AP16" s="191">
+      <c r="AP16" s="177">
         <v>-1</v>
       </c>
-      <c r="AQ16" s="192">
+      <c r="AQ16" s="178">
         <v>-1</v>
       </c>
-      <c r="AR16" s="182">
+      <c r="AR16" s="171">
         <v>-1</v>
       </c>
-      <c r="AS16" s="182">
+      <c r="AS16" s="171">
         <v>-1</v>
       </c>
-      <c r="AT16" s="114">
+      <c r="AT16" s="111">
         <v>-1</v>
       </c>
     </row>
     <row r="17" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="120">
-        <f>B16+1</f>
+      <c r="B17" s="116">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="144"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="145"/>
-      <c r="Q17" s="145"/>
-      <c r="R17" s="145"/>
-      <c r="S17" s="145"/>
-      <c r="T17" s="145"/>
-      <c r="U17" s="145"/>
-      <c r="V17" s="145"/>
-      <c r="W17" s="145"/>
-      <c r="X17" s="145"/>
-      <c r="Y17" s="145"/>
-      <c r="Z17" s="145"/>
-      <c r="AA17" s="145"/>
-      <c r="AB17" s="145"/>
-      <c r="AC17" s="145"/>
-      <c r="AD17" s="145"/>
-      <c r="AE17" s="145"/>
-      <c r="AF17" s="145"/>
-      <c r="AG17" s="145"/>
-      <c r="AH17" s="145"/>
-      <c r="AI17" s="145"/>
-      <c r="AJ17" s="195">
+      <c r="D17" s="140"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="141"/>
+      <c r="Q17" s="141"/>
+      <c r="R17" s="141"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="141"/>
+      <c r="U17" s="141"/>
+      <c r="V17" s="141"/>
+      <c r="W17" s="141"/>
+      <c r="X17" s="141"/>
+      <c r="Y17" s="141"/>
+      <c r="Z17" s="141"/>
+      <c r="AA17" s="141"/>
+      <c r="AB17" s="141"/>
+      <c r="AC17" s="141"/>
+      <c r="AD17" s="141"/>
+      <c r="AE17" s="141"/>
+      <c r="AF17" s="141"/>
+      <c r="AG17" s="141"/>
+      <c r="AH17" s="141"/>
+      <c r="AI17" s="141"/>
+      <c r="AJ17" s="180">
         <v>22</v>
       </c>
-      <c r="AK17" s="196">
+      <c r="AK17" s="181">
         <v>23</v>
       </c>
-      <c r="AL17" s="196">
+      <c r="AL17" s="181">
         <v>24</v>
       </c>
-      <c r="AM17" s="197">
+      <c r="AM17" s="182">
         <v>25</v>
       </c>
-      <c r="AO17" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AO17" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="AP17" s="114">
+      <c r="AP17" s="111">
         <v>0</v>
       </c>
-      <c r="AQ17" s="116">
+      <c r="AQ17" s="112">
         <v>3</v>
       </c>
       <c r="AR17" s="9">
@@ -8770,74 +8679,74 @@
       <c r="AS17" s="9">
         <v>64</v>
       </c>
-      <c r="AT17" s="114">
+      <c r="AT17" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="122">
-        <f>B17+1</f>
+      <c r="B18" s="118">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="142"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="143"/>
-      <c r="R18" s="143"/>
-      <c r="S18" s="143"/>
-      <c r="T18" s="143"/>
-      <c r="U18" s="143"/>
-      <c r="V18" s="143"/>
-      <c r="W18" s="143"/>
-      <c r="X18" s="143"/>
-      <c r="Y18" s="143"/>
-      <c r="Z18" s="143"/>
-      <c r="AA18" s="143"/>
-      <c r="AB18" s="143"/>
-      <c r="AC18" s="143"/>
-      <c r="AD18" s="143"/>
-      <c r="AE18" s="143"/>
-      <c r="AF18" s="143"/>
-      <c r="AG18" s="143"/>
-      <c r="AH18" s="143"/>
-      <c r="AI18" s="143"/>
-      <c r="AJ18" s="200">
+      <c r="D18" s="138"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="139"/>
+      <c r="AA18" s="139"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="139"/>
+      <c r="AE18" s="139"/>
+      <c r="AF18" s="139"/>
+      <c r="AG18" s="139"/>
+      <c r="AH18" s="139"/>
+      <c r="AI18" s="139"/>
+      <c r="AJ18" s="185">
         <f>AJ17+4</f>
         <v>26</v>
       </c>
-      <c r="AK18" s="201">
+      <c r="AK18" s="186">
         <f>AK17+4</f>
         <v>27</v>
       </c>
-      <c r="AL18" s="201">
+      <c r="AL18" s="186">
         <f>AL17+4</f>
         <v>28</v>
       </c>
-      <c r="AM18" s="199">
+      <c r="AM18" s="184">
         <f>AM17+4</f>
         <v>29</v>
       </c>
-      <c r="AO18" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AO18" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="AP18" s="114">
+      <c r="AP18" s="111">
         <v>0</v>
       </c>
-      <c r="AQ18" s="116">
+      <c r="AQ18" s="112">
         <v>3</v>
       </c>
       <c r="AR18" s="9">
@@ -8846,69 +8755,68 @@
       <c r="AS18" s="9">
         <v>64</v>
       </c>
-      <c r="AT18" s="114">
+      <c r="AT18" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="120">
-        <f>B18+1</f>
+      <c r="B19" s="116">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="142"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="143"/>
-      <c r="S19" s="143"/>
-      <c r="T19" s="143"/>
-      <c r="U19" s="143"/>
-      <c r="V19" s="143"/>
-      <c r="W19" s="143"/>
-      <c r="X19" s="143"/>
-      <c r="Y19" s="143"/>
-      <c r="Z19" s="143"/>
-      <c r="AA19" s="143"/>
-      <c r="AB19" s="143"/>
-      <c r="AC19" s="143"/>
-      <c r="AD19" s="143"/>
-      <c r="AE19" s="143"/>
-      <c r="AF19" s="143"/>
-      <c r="AG19" s="143"/>
-      <c r="AH19" s="143"/>
-      <c r="AI19" s="143"/>
-      <c r="AJ19" s="195">
+      <c r="D19" s="138"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="139"/>
+      <c r="P19" s="139"/>
+      <c r="Q19" s="139"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="139"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="139"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="139"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="139"/>
+      <c r="AA19" s="139"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="139"/>
+      <c r="AF19" s="139"/>
+      <c r="AG19" s="139"/>
+      <c r="AH19" s="139"/>
+      <c r="AI19" s="139"/>
+      <c r="AJ19" s="180">
         <f>AJ18+4</f>
         <v>30</v>
       </c>
-      <c r="AK19" s="197">
+      <c r="AK19" s="182">
         <f>AK18+4</f>
         <v>31</v>
       </c>
-      <c r="AL19" s="212"/>
-      <c r="AM19" s="214"/>
-      <c r="AN19" s="115"/>
-      <c r="AO19" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL19" s="196"/>
+      <c r="AM19" s="198"/>
+      <c r="AO19" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="AP19" s="114">
+      <c r="AP19" s="111">
         <v>0</v>
       </c>
-      <c r="AQ19" s="116">
+      <c r="AQ19" s="112">
         <v>1</v>
       </c>
       <c r="AR19" s="9">
@@ -8917,69 +8825,68 @@
       <c r="AS19" s="9">
         <v>64</v>
       </c>
-      <c r="AT19" s="114">
+      <c r="AT19" s="111">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="122">
-        <f>B19+1</f>
+      <c r="B20" s="118">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C20" s="119" t="s">
+      <c r="C20" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="142"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="143"/>
-      <c r="S20" s="143"/>
-      <c r="T20" s="143"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="143"/>
-      <c r="W20" s="143"/>
-      <c r="X20" s="143"/>
-      <c r="Y20" s="143"/>
-      <c r="Z20" s="143"/>
-      <c r="AA20" s="143"/>
-      <c r="AB20" s="143"/>
-      <c r="AC20" s="143"/>
-      <c r="AD20" s="143"/>
-      <c r="AE20" s="143"/>
-      <c r="AF20" s="143"/>
-      <c r="AG20" s="143"/>
-      <c r="AH20" s="143"/>
-      <c r="AI20" s="143"/>
-      <c r="AJ20" s="200">
-        <f>AJ19+2</f>
+      <c r="D20" s="138"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="139"/>
+      <c r="R20" s="139"/>
+      <c r="S20" s="139"/>
+      <c r="T20" s="139"/>
+      <c r="U20" s="139"/>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="139"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="139"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="139"/>
+      <c r="AD20" s="139"/>
+      <c r="AE20" s="139"/>
+      <c r="AF20" s="139"/>
+      <c r="AG20" s="139"/>
+      <c r="AH20" s="139"/>
+      <c r="AI20" s="139"/>
+      <c r="AJ20" s="185">
+        <f t="shared" ref="AJ20:AK22" si="3">AJ19+2</f>
         <v>32</v>
       </c>
-      <c r="AK20" s="202">
-        <f>AK19+2</f>
+      <c r="AK20" s="187">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="AL20" s="212"/>
-      <c r="AM20" s="212"/>
-      <c r="AN20" s="115"/>
-      <c r="AO20" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AL20" s="196"/>
+      <c r="AM20" s="196"/>
+      <c r="AO20" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>6C</v>
       </c>
-      <c r="AP20" s="114">
+      <c r="AP20" s="111">
         <v>0</v>
       </c>
-      <c r="AQ20" s="116">
+      <c r="AQ20" s="112">
         <v>1</v>
       </c>
       <c r="AR20" s="9">
@@ -8988,69 +8895,66 @@
       <c r="AS20" s="9">
         <v>64</v>
       </c>
-      <c r="AT20" s="114">
+      <c r="AT20" s="111">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="120">
-        <f>B20+1</f>
+      <c r="B21" s="116">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="142"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="143"/>
-      <c r="O21" s="143"/>
-      <c r="P21" s="143"/>
-      <c r="Q21" s="143"/>
-      <c r="R21" s="143"/>
-      <c r="S21" s="143"/>
-      <c r="T21" s="143"/>
-      <c r="U21" s="143"/>
-      <c r="V21" s="143"/>
-      <c r="W21" s="143"/>
-      <c r="X21" s="143"/>
-      <c r="Y21" s="143"/>
-      <c r="Z21" s="143"/>
-      <c r="AA21" s="143"/>
-      <c r="AB21" s="143"/>
-      <c r="AC21" s="143"/>
-      <c r="AD21" s="143"/>
-      <c r="AE21" s="143"/>
-      <c r="AF21" s="143"/>
-      <c r="AG21" s="143"/>
-      <c r="AH21" s="143"/>
-      <c r="AI21" s="143"/>
-      <c r="AJ21" s="195">
-        <f>AJ20+2</f>
-        <v>34</v>
-      </c>
-      <c r="AK21" s="197">
-        <f>AK20+2</f>
-        <v>35</v>
-      </c>
-      <c r="AL21" s="212"/>
-      <c r="AM21" s="212"/>
-      <c r="AN21" s="115"/>
-      <c r="AO21" s="116" t="str">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="AP21" s="114">
+      <c r="D21" s="138"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="139"/>
+      <c r="AA21" s="139"/>
+      <c r="AB21" s="139"/>
+      <c r="AC21" s="139"/>
+      <c r="AD21" s="139"/>
+      <c r="AE21" s="139"/>
+      <c r="AF21" s="139"/>
+      <c r="AG21" s="139"/>
+      <c r="AH21" s="139"/>
+      <c r="AI21" s="139"/>
+      <c r="AJ21" s="180">
+        <v>30</v>
+      </c>
+      <c r="AK21" s="182">
+        <v>31</v>
+      </c>
+      <c r="AL21" s="196"/>
+      <c r="AM21" s="196"/>
+      <c r="AO21" s="112" t="str">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="AP21" s="111">
         <v>0</v>
       </c>
-      <c r="AQ21" s="116">
+      <c r="AQ21" s="112">
         <v>1</v>
       </c>
       <c r="AR21" s="9">
@@ -9059,69 +8963,68 @@
       <c r="AS21" s="9">
         <v>64</v>
       </c>
-      <c r="AT21" s="114">
+      <c r="AT21" s="111">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="122">
-        <f>B21+1</f>
+      <c r="B22" s="118">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="142"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="143"/>
-      <c r="O22" s="143"/>
-      <c r="P22" s="143"/>
-      <c r="Q22" s="143"/>
-      <c r="R22" s="143"/>
-      <c r="S22" s="143"/>
-      <c r="T22" s="143"/>
-      <c r="U22" s="143"/>
-      <c r="V22" s="143"/>
-      <c r="W22" s="143"/>
-      <c r="X22" s="143"/>
-      <c r="Y22" s="143"/>
-      <c r="Z22" s="143"/>
-      <c r="AA22" s="143"/>
-      <c r="AB22" s="143"/>
-      <c r="AC22" s="143"/>
-      <c r="AD22" s="143"/>
-      <c r="AE22" s="143"/>
-      <c r="AF22" s="143"/>
-      <c r="AG22" s="143"/>
-      <c r="AH22" s="143"/>
-      <c r="AI22" s="143"/>
-      <c r="AJ22" s="198">
-        <f>AJ21+2</f>
-        <v>36</v>
-      </c>
-      <c r="AK22" s="199">
-        <f>AK21+2</f>
-        <v>37</v>
-      </c>
-      <c r="AL22" s="212"/>
-      <c r="AM22" s="213"/>
-      <c r="AN22" s="115"/>
-      <c r="AO22" s="116" t="str">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="AP22" s="114">
+      <c r="D22" s="138"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
+      <c r="O22" s="139"/>
+      <c r="P22" s="139"/>
+      <c r="Q22" s="139"/>
+      <c r="R22" s="139"/>
+      <c r="S22" s="139"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="139"/>
+      <c r="V22" s="139"/>
+      <c r="W22" s="139"/>
+      <c r="X22" s="139"/>
+      <c r="Y22" s="139"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="139"/>
+      <c r="AB22" s="139"/>
+      <c r="AC22" s="139"/>
+      <c r="AD22" s="139"/>
+      <c r="AE22" s="139"/>
+      <c r="AF22" s="139"/>
+      <c r="AG22" s="139"/>
+      <c r="AH22" s="139"/>
+      <c r="AI22" s="139"/>
+      <c r="AJ22" s="183">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="AK22" s="184">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="AL22" s="196"/>
+      <c r="AM22" s="197"/>
+      <c r="AO22" s="112" t="str">
+        <f t="shared" si="2"/>
+        <v>6C</v>
+      </c>
+      <c r="AP22" s="111">
         <v>0</v>
       </c>
-      <c r="AQ22" s="116">
+      <c r="AQ22" s="112">
         <v>1</v>
       </c>
       <c r="AR22" s="9">
@@ -9130,74 +9033,74 @@
       <c r="AS22" s="9">
         <v>64</v>
       </c>
-      <c r="AT22" s="114">
+      <c r="AT22" s="111">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="120">
-        <f>B22+1</f>
+      <c r="B23" s="116">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="143"/>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="143"/>
-      <c r="S23" s="143"/>
-      <c r="T23" s="143"/>
-      <c r="U23" s="143"/>
-      <c r="V23" s="143"/>
-      <c r="W23" s="143"/>
-      <c r="X23" s="143"/>
-      <c r="Y23" s="143"/>
-      <c r="Z23" s="143"/>
-      <c r="AA23" s="143"/>
-      <c r="AB23" s="143"/>
-      <c r="AC23" s="143"/>
-      <c r="AD23" s="143"/>
-      <c r="AE23" s="143"/>
-      <c r="AF23" s="143"/>
-      <c r="AG23" s="143"/>
-      <c r="AH23" s="143"/>
-      <c r="AI23" s="143"/>
-      <c r="AJ23" s="195">
+      <c r="D23" s="138"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="139"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="139"/>
+      <c r="AA23" s="139"/>
+      <c r="AB23" s="139"/>
+      <c r="AC23" s="139"/>
+      <c r="AD23" s="139"/>
+      <c r="AE23" s="139"/>
+      <c r="AF23" s="139"/>
+      <c r="AG23" s="139"/>
+      <c r="AH23" s="139"/>
+      <c r="AI23" s="139"/>
+      <c r="AJ23" s="180">
         <f>AJ22+2</f>
-        <v>38</v>
-      </c>
-      <c r="AK23" s="196">
+        <v>34</v>
+      </c>
+      <c r="AK23" s="181">
         <f>AJ23+1</f>
-        <v>39</v>
-      </c>
-      <c r="AL23" s="196">
+        <v>35</v>
+      </c>
+      <c r="AL23" s="181">
         <f>AK23+1</f>
-        <v>40</v>
-      </c>
-      <c r="AM23" s="199">
+        <v>36</v>
+      </c>
+      <c r="AM23" s="184">
         <f>AL23+1</f>
-        <v>41</v>
-      </c>
-      <c r="AO23" s="116" t="str">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="AP23" s="114">
+        <v>37</v>
+      </c>
+      <c r="AO23" s="112" t="str">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="AP23" s="111">
         <v>0</v>
       </c>
-      <c r="AQ23" s="116">
+      <c r="AQ23" s="112">
         <v>3</v>
       </c>
       <c r="AR23" s="9">
@@ -9206,74 +9109,74 @@
       <c r="AS23" s="9">
         <v>64</v>
       </c>
-      <c r="AT23" s="114">
+      <c r="AT23" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="122">
-        <f>B23+1</f>
+      <c r="B24" s="118">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="146"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="147"/>
-      <c r="O24" s="147"/>
-      <c r="P24" s="147"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="147"/>
-      <c r="S24" s="147"/>
-      <c r="T24" s="147"/>
-      <c r="U24" s="147"/>
-      <c r="V24" s="147"/>
-      <c r="W24" s="147"/>
-      <c r="X24" s="147"/>
-      <c r="Y24" s="147"/>
-      <c r="Z24" s="147"/>
-      <c r="AA24" s="147"/>
-      <c r="AB24" s="147"/>
-      <c r="AC24" s="147"/>
-      <c r="AD24" s="147"/>
-      <c r="AE24" s="147"/>
-      <c r="AF24" s="147"/>
-      <c r="AG24" s="147"/>
-      <c r="AH24" s="147"/>
-      <c r="AI24" s="147"/>
-      <c r="AJ24" s="200">
+      <c r="D24" s="142"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="143"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="143"/>
+      <c r="Q24" s="143"/>
+      <c r="R24" s="143"/>
+      <c r="S24" s="143"/>
+      <c r="T24" s="143"/>
+      <c r="U24" s="143"/>
+      <c r="V24" s="143"/>
+      <c r="W24" s="143"/>
+      <c r="X24" s="143"/>
+      <c r="Y24" s="143"/>
+      <c r="Z24" s="143"/>
+      <c r="AA24" s="143"/>
+      <c r="AB24" s="143"/>
+      <c r="AC24" s="143"/>
+      <c r="AD24" s="143"/>
+      <c r="AE24" s="143"/>
+      <c r="AF24" s="143"/>
+      <c r="AG24" s="143"/>
+      <c r="AH24" s="143"/>
+      <c r="AI24" s="143"/>
+      <c r="AJ24" s="185">
         <f>AJ23+4</f>
-        <v>42</v>
-      </c>
-      <c r="AK24" s="201">
+        <v>38</v>
+      </c>
+      <c r="AK24" s="186">
         <f>AK23+4</f>
-        <v>43</v>
-      </c>
-      <c r="AL24" s="201">
+        <v>39</v>
+      </c>
+      <c r="AL24" s="186">
         <f>AL23+4</f>
-        <v>44</v>
-      </c>
-      <c r="AM24" s="202">
+        <v>40</v>
+      </c>
+      <c r="AM24" s="187">
         <f>AM23+4</f>
-        <v>45</v>
-      </c>
-      <c r="AO24" s="116" t="str">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="AP24" s="114">
+        <v>41</v>
+      </c>
+      <c r="AO24" s="112" t="str">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="AP24" s="111">
         <v>0</v>
       </c>
-      <c r="AQ24" s="116">
+      <c r="AQ24" s="112">
         <v>3</v>
       </c>
       <c r="AR24" s="9">
@@ -9282,148 +9185,148 @@
       <c r="AS24" s="9">
         <v>64</v>
       </c>
-      <c r="AT24" s="114">
+      <c r="AT24" s="111">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="120">
-        <f>B24+1</f>
+      <c r="B25" s="116">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="148"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
-      <c r="N25" s="149"/>
-      <c r="O25" s="149"/>
-      <c r="P25" s="149"/>
-      <c r="Q25" s="149"/>
-      <c r="R25" s="149"/>
-      <c r="S25" s="149"/>
-      <c r="T25" s="149"/>
-      <c r="U25" s="149"/>
-      <c r="V25" s="149"/>
-      <c r="W25" s="149"/>
-      <c r="X25" s="149"/>
-      <c r="Y25" s="149"/>
-      <c r="Z25" s="149"/>
-      <c r="AA25" s="149"/>
-      <c r="AB25" s="149"/>
-      <c r="AC25" s="149"/>
-      <c r="AD25" s="149"/>
-      <c r="AE25" s="149"/>
-      <c r="AF25" s="149"/>
-      <c r="AG25" s="149"/>
-      <c r="AH25" s="149"/>
-      <c r="AI25" s="150"/>
-      <c r="AJ25" s="208">
+      <c r="D25" s="144"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="145"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="145"/>
+      <c r="S25" s="145"/>
+      <c r="T25" s="145"/>
+      <c r="U25" s="145"/>
+      <c r="V25" s="145"/>
+      <c r="W25" s="145"/>
+      <c r="X25" s="145"/>
+      <c r="Y25" s="145"/>
+      <c r="Z25" s="145"/>
+      <c r="AA25" s="145"/>
+      <c r="AB25" s="145"/>
+      <c r="AC25" s="145"/>
+      <c r="AD25" s="145"/>
+      <c r="AE25" s="145"/>
+      <c r="AF25" s="145"/>
+      <c r="AG25" s="145"/>
+      <c r="AH25" s="145"/>
+      <c r="AI25" s="146"/>
+      <c r="AJ25" s="193">
         <v>20</v>
       </c>
-      <c r="AO25" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AO25" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="AP25" s="191">
+      <c r="AP25" s="177">
         <v>-1</v>
       </c>
-      <c r="AQ25" s="192">
+      <c r="AQ25" s="178">
         <v>-1</v>
       </c>
-      <c r="AR25" s="182">
+      <c r="AR25" s="171">
         <v>-1</v>
       </c>
-      <c r="AS25" s="182">
+      <c r="AS25" s="171">
         <v>-1</v>
       </c>
-      <c r="AT25" s="114">
+      <c r="AT25" s="111">
         <v>-1</v>
       </c>
     </row>
     <row r="26" spans="2:46" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="122">
-        <f>B25+1</f>
+      <c r="B26" s="118">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C26" s="119" t="s">
+      <c r="C26" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="139"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="140"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="140"/>
-      <c r="R26" s="140"/>
-      <c r="S26" s="140"/>
-      <c r="T26" s="140"/>
-      <c r="U26" s="140"/>
-      <c r="V26" s="140"/>
-      <c r="W26" s="140"/>
-      <c r="X26" s="140"/>
-      <c r="Y26" s="140"/>
-      <c r="Z26" s="140"/>
-      <c r="AA26" s="140"/>
-      <c r="AB26" s="140"/>
-      <c r="AC26" s="140"/>
-      <c r="AD26" s="140"/>
-      <c r="AE26" s="140"/>
-      <c r="AF26" s="140"/>
-      <c r="AG26" s="140"/>
-      <c r="AH26" s="140"/>
-      <c r="AI26" s="141"/>
-      <c r="AJ26" s="211">
+      <c r="D26" s="135"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="136"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="136"/>
+      <c r="S26" s="136"/>
+      <c r="T26" s="136"/>
+      <c r="U26" s="136"/>
+      <c r="V26" s="136"/>
+      <c r="W26" s="136"/>
+      <c r="X26" s="136"/>
+      <c r="Y26" s="136"/>
+      <c r="Z26" s="136"/>
+      <c r="AA26" s="136"/>
+      <c r="AB26" s="136"/>
+      <c r="AC26" s="136"/>
+      <c r="AD26" s="136"/>
+      <c r="AE26" s="136"/>
+      <c r="AF26" s="136"/>
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="136"/>
+      <c r="AI26" s="137"/>
+      <c r="AJ26" s="195">
         <v>21</v>
       </c>
-      <c r="AO26" s="116" t="str">
-        <f t="shared" si="1"/>
+      <c r="AO26" s="112" t="str">
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="AP26" s="191">
+      <c r="AP26" s="177">
         <v>-1</v>
       </c>
-      <c r="AQ26" s="192">
+      <c r="AQ26" s="178">
         <v>-1</v>
       </c>
-      <c r="AR26" s="182">
+      <c r="AR26" s="171">
         <v>-1</v>
       </c>
-      <c r="AS26" s="182">
+      <c r="AS26" s="171">
         <v>-1</v>
       </c>
-      <c r="AT26" s="114">
+      <c r="AT26" s="111">
         <v>-1</v>
       </c>
     </row>
     <row r="27" spans="2:46" x14ac:dyDescent="0.3">
-      <c r="B27" s="69"/>
-      <c r="C27" s="70" t="s">
+      <c r="B27" s="68"/>
+      <c r="C27" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:46" x14ac:dyDescent="0.3">
-      <c r="AI28" s="181" t="str">
+      <c r="AI28" s="199" t="str">
         <f>DEC2HEX(MAX(AJ3:AM27)*512,4)</f>
-        <v>5A00</v>
-      </c>
-      <c r="AJ28" s="181"/>
+        <v>5200</v>
+      </c>
+      <c r="AJ28" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/6845_crtc_timing.xlsx
+++ b/6845_crtc_timing.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\BBC_Micro\Programs\game_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6029A5-F70D-4D1A-9A48-1AE9C3F18517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1226CE0F-3CD1-402B-9ABD-8EDE2BF02050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{E881977C-AD55-4380-9786-6EB6D25147A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{E881977C-AD55-4380-9786-6EB6D25147A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="118">
   <si>
     <t>6845 CRTC Vertical Rupture Worksheet</t>
   </si>
@@ -353,6 +354,69 @@
   <si>
     <t>Speed</t>
   </si>
+  <si>
+    <t>Sprites</t>
+  </si>
+  <si>
+    <t>AND #00010001b</t>
+  </si>
+  <si>
+    <t>AND #11101110</t>
+  </si>
+  <si>
+    <t>Lookup Table Method</t>
+  </si>
+  <si>
+    <t>Conventional Method</t>
+  </si>
+  <si>
+    <t>Method to shift sprite data 1 pixel to the right</t>
+  </si>
+  <si>
+    <t>LDA pixel_data_table, X</t>
+  </si>
+  <si>
+    <t>LDA pixel_data_0</t>
+  </si>
+  <si>
+    <t>LDX pixel_data_0</t>
+  </si>
+  <si>
+    <t>LDX pixel_data_1</t>
+  </si>
+  <si>
+    <t>ORA pixel_0</t>
+  </si>
+  <si>
+    <t>LDA pixel_data_table + 256, X</t>
+  </si>
+  <si>
+    <t>STA pixel_0</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Cycles</t>
+  </si>
+  <si>
+    <t>4*</t>
+  </si>
+  <si>
+    <t>ASL A</t>
+  </si>
+  <si>
+    <t>LSR A</t>
+  </si>
+  <si>
+    <t>ADC pixel_0</t>
+  </si>
+  <si>
+    <t>LDA pixel_data_1</t>
+  </si>
+  <si>
+    <t>CLC</t>
+  </si>
 </sst>
 </file>
 
@@ -361,7 +425,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +458,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -744,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1327,6 +1400,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1340,6 +1416,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2901,7 +2981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC23565D-C8C0-41CF-B4FA-F791AA87DEFC}">
   <dimension ref="A1:BN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3705,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="169" t="str">
-        <f t="shared" ref="C4:L19" si="5">DEC2HEX($B4*512+C$2,4)</f>
+        <f t="shared" ref="C4:F19" si="5">DEC2HEX($B4*512+C$2,4)</f>
         <v>0200</v>
       </c>
       <c r="D4" s="170" t="str">
@@ -14971,7 +15051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F481C70-9657-4394-93E6-4755D8687536}">
   <dimension ref="B1:AT28"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AK3" sqref="AK3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14989,14 +15071,14 @@
       <c r="AO1" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="AP1" s="199" t="s">
+      <c r="AP1" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="AQ1" s="200"/>
-      <c r="AR1" s="197" t="s">
+      <c r="AQ1" s="201"/>
+      <c r="AR1" s="198" t="s">
         <v>93</v>
       </c>
-      <c r="AS1" s="198"/>
+      <c r="AS1" s="199"/>
       <c r="AT1" s="135" t="s">
         <v>55</v>
       </c>
@@ -16854,11 +16936,11 @@
       </c>
     </row>
     <row r="28" spans="2:46" x14ac:dyDescent="0.3">
-      <c r="AI28" s="196" t="str">
+      <c r="AI28" s="197" t="str">
         <f>DEC2HEX(MAX(AJ3:AM27)*512,4)</f>
         <v>5200</v>
       </c>
-      <c r="AJ28" s="196"/>
+      <c r="AJ28" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16868,4 +16950,609 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744C020C-2F75-4BCA-8E76-D71B94C1C041}">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="12" width="3.33203125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N2" s="202" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N4" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N5" s="2"/>
+      <c r="O5" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D6" s="21">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21">
+        <v>2</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="196">
+        <v>3</v>
+      </c>
+      <c r="I6" s="196">
+        <v>2</v>
+      </c>
+      <c r="J6" s="196">
+        <v>1</v>
+      </c>
+      <c r="K6" s="196">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D7" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
+      <c r="H7" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="196">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D8" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0</v>
+      </c>
+      <c r="G8" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="196">
+        <v>0</v>
+      </c>
+      <c r="K8" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D9" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0</v>
+      </c>
+      <c r="F9" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="196">
+        <v>0</v>
+      </c>
+      <c r="J9" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D10" s="21">
+        <v>0</v>
+      </c>
+      <c r="E10" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="196">
+        <v>0</v>
+      </c>
+      <c r="I10" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
+      <c r="E11" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="196">
+        <v>0</v>
+      </c>
+      <c r="I11" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D12" s="21">
+        <v>3</v>
+      </c>
+      <c r="E12" s="21">
+        <v>2</v>
+      </c>
+      <c r="F12" s="21">
+        <v>1</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="196">
+        <v>3</v>
+      </c>
+      <c r="I12" s="196">
+        <v>2</v>
+      </c>
+      <c r="J12" s="196">
+        <v>1</v>
+      </c>
+      <c r="K12" s="196">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D13" s="21">
+        <v>3</v>
+      </c>
+      <c r="E13" s="21">
+        <v>2</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="196">
+        <v>3</v>
+      </c>
+      <c r="I13" s="196">
+        <v>2</v>
+      </c>
+      <c r="J13" s="196">
+        <v>1</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="21">
+        <v>3</v>
+      </c>
+      <c r="F14" s="21">
+        <v>2</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="196">
+        <v>3</v>
+      </c>
+      <c r="J14" s="196">
+        <v>2</v>
+      </c>
+      <c r="K14" s="196">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O14" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="21">
+        <v>3</v>
+      </c>
+      <c r="F15" s="21">
+        <v>2</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="196">
+        <v>3</v>
+      </c>
+      <c r="J15" s="196">
+        <v>2</v>
+      </c>
+      <c r="K15" s="196">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D16" s="21">
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
+        <v>3</v>
+      </c>
+      <c r="F16" s="21">
+        <v>2</v>
+      </c>
+      <c r="G16" s="21">
+        <v>1</v>
+      </c>
+      <c r="H16" s="196">
+        <v>0</v>
+      </c>
+      <c r="I16" s="196">
+        <v>3</v>
+      </c>
+      <c r="J16" s="196">
+        <v>2</v>
+      </c>
+      <c r="K16" s="196">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O17" s="9">
+        <f>SUM(O6:O16)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="N20" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D22" s="21">
+        <v>3</v>
+      </c>
+      <c r="E22" s="21">
+        <v>2</v>
+      </c>
+      <c r="F22" s="21">
+        <v>1</v>
+      </c>
+      <c r="G22" s="21">
+        <v>0</v>
+      </c>
+      <c r="H22" s="196">
+        <v>3</v>
+      </c>
+      <c r="I22" s="196">
+        <v>2</v>
+      </c>
+      <c r="J22" s="196">
+        <v>1</v>
+      </c>
+      <c r="K22" s="196">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>105</v>
+      </c>
+      <c r="O22" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="196">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N23" t="s">
+        <v>108</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D24" s="21">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="196">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24" t="s">
+        <v>109</v>
+      </c>
+      <c r="O24" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D25" s="21">
+        <v>3</v>
+      </c>
+      <c r="E25" s="21">
+        <v>2</v>
+      </c>
+      <c r="F25" s="21">
+        <v>1</v>
+      </c>
+      <c r="G25" s="21">
+        <v>0</v>
+      </c>
+      <c r="H25" s="196">
+        <v>3</v>
+      </c>
+      <c r="I25" s="196">
+        <v>2</v>
+      </c>
+      <c r="J25" s="196">
+        <v>1</v>
+      </c>
+      <c r="K25" s="196">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>106</v>
+      </c>
+      <c r="O25" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D26" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="21">
+        <v>3</v>
+      </c>
+      <c r="F26" s="21">
+        <v>2</v>
+      </c>
+      <c r="G26" s="21">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="196">
+        <v>3</v>
+      </c>
+      <c r="J26" s="196">
+        <v>2</v>
+      </c>
+      <c r="K26" s="196">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>103</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D27" s="21">
+        <v>0</v>
+      </c>
+      <c r="E27" s="21">
+        <v>3</v>
+      </c>
+      <c r="F27" s="21">
+        <v>2</v>
+      </c>
+      <c r="G27" s="21">
+        <v>1</v>
+      </c>
+      <c r="H27" s="196">
+        <v>0</v>
+      </c>
+      <c r="I27" s="196">
+        <v>3</v>
+      </c>
+      <c r="J27" s="196">
+        <v>2</v>
+      </c>
+      <c r="K27" s="196">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>107</v>
+      </c>
+      <c r="O27" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O28" s="9">
+        <f>SUM(O22:O27)</f>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>